--- a/twse.xlsx
+++ b/twse.xlsx
@@ -4,63 +4,70 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="證交所" sheetId="9" r:id="rId1"/>
-    <sheet name="1060307" sheetId="11" r:id="rId2"/>
-    <sheet name="1060306" sheetId="10" r:id="rId3"/>
-    <sheet name="1060303" sheetId="8" r:id="rId4"/>
-    <sheet name="1060302" sheetId="7" r:id="rId5"/>
-    <sheet name="1060301" sheetId="6" r:id="rId6"/>
-    <sheet name="1060224" sheetId="1" r:id="rId7"/>
-    <sheet name="1060223" sheetId="5" r:id="rId8"/>
+    <sheet name="1061108" sheetId="12" r:id="rId2"/>
+    <sheet name="1060307" sheetId="11" r:id="rId3"/>
+    <sheet name="1060306" sheetId="10" r:id="rId4"/>
+    <sheet name="1060303" sheetId="8" r:id="rId5"/>
+    <sheet name="1060302" sheetId="7" r:id="rId6"/>
+    <sheet name="1060301" sheetId="6" r:id="rId7"/>
+    <sheet name="1060224" sheetId="1" r:id="rId8"/>
+    <sheet name="1060223" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="7">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1060223'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1060224'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1060301'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1060302'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1060303'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1060306'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1060307'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1060223'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1060224'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1060301'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1060302'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1060303'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1060306'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1060307'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1060223'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1060224'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1060301'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1060302'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1060303'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1060306'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1060307'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1060223'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1060224'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1060301'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1060302'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1060303'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1060306'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1060307'!$I$1:$K$31</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1060223'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1060224'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1060301'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1060302'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1060303'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1060306'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1060307'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061108'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1060223'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1060224'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1060301'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1060302'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1060303'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1060306'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1060307'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061108'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1060223'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1060224'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1060301'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1060302'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1060303'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1060306'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1060307'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061108'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1060223'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1060224'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1060301'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1060302'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1060303'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1060306'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1060307'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061108'!$I$1:$K$31</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,77 +96,89 @@
   <connection id="6" name="連線11111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="7" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="7" name="連線111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="8" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="8" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="9" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="9" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="10" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="10" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="11" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="11" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="12" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="12" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="13" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="13" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="14" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="14" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="15" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="15" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="16" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="16" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="17" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="18" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="29" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="30" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="31" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="32" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="254">
   <si>
     <t>旺宏</t>
   </si>
@@ -801,57 +820,131 @@
     <t>盛餘</t>
   </si>
   <si>
-    <t>http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php</t>
+    <t>楠梓電</t>
+  </si>
+  <si>
+    <t>台達電</t>
+  </si>
+  <si>
+    <t>寶成</t>
+  </si>
+  <si>
+    <t>矽品</t>
+  </si>
+  <si>
+    <t>聲寶</t>
+  </si>
+  <si>
+    <t>科納-KY</t>
+  </si>
+  <si>
+    <t>晶彩科</t>
+  </si>
+  <si>
+    <t>台中銀</t>
+  </si>
+  <si>
+    <t>和桐</t>
+  </si>
+  <si>
+    <t>昱晶</t>
+  </si>
+  <si>
+    <t>遠百</t>
+  </si>
+  <si>
+    <t>寶一</t>
+  </si>
+  <si>
+    <t>合勤控</t>
+  </si>
+  <si>
+    <t>精英</t>
+  </si>
+  <si>
+    <t>至上</t>
+  </si>
+  <si>
+    <t>http://www.twse.com.tw/zh/page/trading/fund/TWT44U.html</t>
+  </si>
+  <si>
+    <t>菱生</t>
+  </si>
+  <si>
+    <t>興農</t>
+  </si>
+  <si>
+    <t>三陽工業</t>
+  </si>
+  <si>
+    <t>永大</t>
+  </si>
+  <si>
+    <t>祥碩</t>
+  </si>
+  <si>
+    <t>總太</t>
+  </si>
+  <si>
+    <t>友旺</t>
+  </si>
+  <si>
+    <t>正崴</t>
+  </si>
+  <si>
+    <t>光鼎</t>
+  </si>
+  <si>
+    <t>華票</t>
+  </si>
+  <si>
+    <t>奇鋐</t>
+  </si>
+  <si>
+    <t>太子</t>
+  </si>
+  <si>
+    <t>聯成</t>
+  </si>
+  <si>
+    <t>健策</t>
+  </si>
+  <si>
+    <t>宜進</t>
+  </si>
+  <si>
+    <t>倉佑</t>
+  </si>
+  <si>
+    <t>新光鋼</t>
+  </si>
+  <si>
+    <t>所羅門</t>
+  </si>
+  <si>
+    <t>http://www.twse.com.tw/zh/page/trading/fund/TWT38U.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.tse.com.tw/ch/trading/fund/TWT38U/TWT38U.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楠梓電</t>
-  </si>
-  <si>
-    <t>台達電</t>
-  </si>
-  <si>
-    <t>寶成</t>
-  </si>
-  <si>
-    <t>矽品</t>
-  </si>
-  <si>
-    <t>聲寶</t>
-  </si>
-  <si>
-    <t>科納-KY</t>
-  </si>
-  <si>
-    <t>晶彩科</t>
-  </si>
-  <si>
-    <t>台中銀</t>
-  </si>
-  <si>
-    <t>和桐</t>
-  </si>
-  <si>
-    <t>昱晶</t>
-  </si>
-  <si>
-    <t>遠百</t>
-  </si>
-  <si>
-    <t>寶一</t>
-  </si>
-  <si>
-    <t>合勤控</t>
-  </si>
-  <si>
-    <t>精英</t>
-  </si>
-  <si>
-    <t>至上</t>
+    <t>盛群</t>
+  </si>
+  <si>
+    <t>凌陽</t>
+  </si>
+  <si>
+    <t>仲琦</t>
+  </si>
+  <si>
+    <t>隆達</t>
+  </si>
+  <si>
+    <t>東聯</t>
+  </si>
+  <si>
+    <t>明泰</t>
+  </si>
+  <si>
+    <t>強茂</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1248,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1268,115 +1375,131 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1634,7 +1757,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1644,36 +1767,1338 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" s="18" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="18" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1">
+      <c r="A2" s="8">
+        <v>2892</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2028000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2610</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-2303000</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2409</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="9">
+        <v>22022000</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-25421763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1">
+      <c r="A3" s="8">
+        <v>2313</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1823000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>1319</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-1447000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2603</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="9">
+        <v>6380000</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2337</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-13391045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1">
+      <c r="A4" s="8">
+        <v>5264</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1167000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>2603</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-1288000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>2313</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="9">
+        <v>5950802</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>3231</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-9481386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1">
+      <c r="A5" s="8">
+        <v>2881</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1044000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>3481</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-1245000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2405</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="9">
+        <v>4370000</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>2317</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-9207186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1">
+      <c r="A6" s="8">
+        <v>4977</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="9">
+        <v>763000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>2303</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-993000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>2610</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3470765</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>3481</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-7095412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1">
+      <c r="A7" s="8">
+        <v>2633</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="9">
+        <v>747000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>1312</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-962000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2408</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2989265</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>2308</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-4814000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1">
+      <c r="A8" s="8">
+        <v>3035</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="9">
+        <v>700000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>2337</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-958000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>6202</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" s="9">
+        <v>2870000</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>4960</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-3615000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1">
+      <c r="A9" s="8">
+        <v>1714</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="9">
+        <v>563000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>1909</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-908156</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>2303</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2860000</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>3037</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-3507000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1">
+      <c r="A10" s="8">
+        <v>2408</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="9">
+        <v>537000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>2367</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-854000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>2311</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2768535</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>8110</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-3440000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1">
+      <c r="A11" s="8">
+        <v>2369</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="9">
+        <v>512000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2820</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-816000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>2458</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2450000</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>2330</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-3343213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1">
+      <c r="A12" s="8">
+        <v>3702</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="9">
+        <v>506000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>3037</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-760000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>2376</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2355000</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>2301</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-3228676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1">
+      <c r="A13" s="8">
+        <v>2377</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="9">
+        <v>500000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>1605</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-707000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>2344</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2177889</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>3380</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-3182000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1">
+      <c r="A14" s="8">
+        <v>1712</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="9">
+        <v>481000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>2615</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-664000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>1605</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="9">
+        <v>2103000</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>3702</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-3109846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1">
+      <c r="A15" s="8">
+        <v>2449</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="9">
+        <v>421000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>3017</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-646000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>2401</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K15" s="9">
+        <v>2028000</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>2880</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-2906000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1">
+      <c r="A16" s="8">
+        <v>2104</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="9">
+        <v>399000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>2903</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-642000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6269</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="9">
+        <v>2016823</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>2884</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-2670183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1">
+      <c r="A17" s="8">
+        <v>2351</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="9">
+        <v>336000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>1476</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-611180</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>2883</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1997000</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>2352</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-2427000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1">
+      <c r="A18" s="8">
+        <v>4915</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="9">
+        <v>328000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>6456</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-575000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>2049</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1961639</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>2823</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-2115504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1">
+      <c r="A19" s="8">
+        <v>2344</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="9">
+        <v>323000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>1310</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-566000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>5880</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1764624</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>2892</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-2104104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1">
+      <c r="A20" s="8">
+        <v>2206</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="9">
+        <v>320000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>3231</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-564000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>1216</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1725360</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>1305</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-1930360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1">
+      <c r="A21" s="8">
+        <v>1507</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="9">
+        <v>302000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>2511</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-556000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>2324</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1547000</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>6176</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-1915268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1">
+      <c r="A22" s="8">
+        <v>5269</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="9">
+        <v>283000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>1210</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-553000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>2419</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1453000</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>8150</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-1844000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1">
+      <c r="A23" s="8">
+        <v>4919</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="9">
+        <v>274000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>1313</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-544000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>1314</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1419000</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>8112</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-1810000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1">
+      <c r="A24" s="8">
+        <v>5305</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="9">
+        <v>267000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>1904</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-521000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>4938</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1305118</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>9945</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1806000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1">
+      <c r="A25" s="8">
+        <v>3056</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="9">
+        <v>251000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>2888</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-481000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>4956</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1222000</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>2481</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1587000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1">
+      <c r="A26" s="8">
+        <v>2049</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="9">
+        <v>248000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>3653</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-437000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>2891</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1192358</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>2882</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1585000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1">
+      <c r="A27" s="8">
+        <v>2444</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="9">
+        <v>246000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>1457</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-429000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>1210</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1167000</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>2448</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1490228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1">
+      <c r="A28" s="8">
+        <v>1215</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="9">
+        <v>242000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>1568</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-416000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>3034</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1058491</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>2383</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-1477000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1">
+      <c r="A29" s="8">
+        <v>2392</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="9">
+        <v>236000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>2031</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-387000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>3698</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1032000</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>2812</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1442000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1">
+      <c r="A30" s="8">
+        <v>2520</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="9">
+        <v>199000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>2886</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-381428</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>6239</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" s="9">
+        <v>922000</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>2633</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-1340140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="19.2" thickBot="1">
+      <c r="A31" s="11">
+        <v>6226</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="17">
+        <v>198000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>2359</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-366000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>1710</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="K31" s="17">
+        <v>894000</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>5388</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-1329977</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -2028,7 +3453,7 @@
         <v>2308</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G9" s="10">
         <v>-375000</v>
@@ -2192,7 +3617,7 @@
         <v>3704</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G13" s="10">
         <v>-300000</v>
@@ -2417,7 +3842,7 @@
         <v>8112</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O18" s="10">
         <v>-1499000</v>
@@ -2674,7 +4099,7 @@
         <v>8222</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C25" s="9">
         <v>460000</v>
@@ -2817,7 +4242,7 @@
         <v>2331</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K28" s="9">
         <v>1276000</v>
@@ -2848,7 +4273,7 @@
         <v>4984</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G29" s="10">
         <v>-105000</v>
@@ -2965,17 +4390,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -3207,7 +4632,7 @@
         <v>2325</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G6" s="10">
         <v>-1058000</v>
@@ -3750,7 +5175,7 @@
         <v>3535</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K19" s="9">
         <v>1365000</v>
@@ -3842,7 +5267,7 @@
         <v>3514</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O21" s="10">
         <v>-1415720</v>
@@ -3945,7 +5370,7 @@
         <v>1604</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G24" s="10">
         <v>-166000</v>
@@ -3996,7 +5421,7 @@
         <v>2812</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K25" s="9">
         <v>1020000</v>
@@ -4027,7 +5452,7 @@
         <v>4984</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G26" s="10">
         <v>-150000</v>
@@ -4242,7 +5667,7 @@
         <v>1714</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K31" s="17">
         <v>742000</v>
@@ -4252,7 +5677,7 @@
         <v>2903</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O31" s="13">
         <v>-1012000</v>
@@ -4267,17 +5692,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -5267,7 +6692,7 @@
         <v>2308</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O24" s="10">
         <v>-1303059</v>
@@ -5431,7 +6856,7 @@
         <v>9904</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O28" s="10">
         <v>-1186198</v>
@@ -5544,7 +6969,7 @@
         <v>2316</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K31" s="17">
         <v>972000</v>
@@ -5569,17 +6994,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -6871,17 +8296,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -8173,17 +9598,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -9885,17 +11310,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B41 J2:J41">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F41 N2:N41">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -11597,10 +13022,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B41 J2:J41">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F41 N2:N41">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/twse.xlsx
+++ b/twse.xlsx
@@ -1,75 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\stock\investment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="證交所" sheetId="9" r:id="rId1"/>
-    <sheet name="1061108" sheetId="12" r:id="rId2"/>
-    <sheet name="1060307" sheetId="11" r:id="rId3"/>
-    <sheet name="1060306" sheetId="10" r:id="rId4"/>
-    <sheet name="1060303" sheetId="8" r:id="rId5"/>
-    <sheet name="1060302" sheetId="7" r:id="rId6"/>
-    <sheet name="1060301" sheetId="6" r:id="rId7"/>
-    <sheet name="1060224" sheetId="1" r:id="rId8"/>
-    <sheet name="1060223" sheetId="5" r:id="rId9"/>
+    <sheet name="1061109" sheetId="13" r:id="rId2"/>
+    <sheet name="1061108" sheetId="12" r:id="rId3"/>
+    <sheet name="1060307" sheetId="11" r:id="rId4"/>
+    <sheet name="1060306" sheetId="10" r:id="rId5"/>
+    <sheet name="1060303" sheetId="8" r:id="rId6"/>
+    <sheet name="1060302" sheetId="7" r:id="rId7"/>
+    <sheet name="1060301" sheetId="6" r:id="rId8"/>
+    <sheet name="1060224" sheetId="1" r:id="rId9"/>
+    <sheet name="1060223" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="8">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1060223'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1060224'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1060301'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1060302'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1060303'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1060306'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1060307'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061108'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1060223'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1060224'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1060301'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1060302'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1060303'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1060306'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1060307'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061108'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1060223'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1060224'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1060301'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1060302'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1060303'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1060306'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1060307'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061108'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1060223'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1060224'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1060301'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1060302'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1060303'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1060306'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1060307'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061108'!$I$1:$K$31</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1060223'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1060224'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1060301'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1060302'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1060303'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1060306'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1060307'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061108'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061109'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1060223'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1060224'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1060301'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1060302'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1060303'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1060306'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1060307'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061108'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061109'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1060223'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1060224'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1060301'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1060302'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1060303'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1060306'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1060307'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061108'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061109'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1060223'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1060224'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1060301'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1060302'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1060303'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1060306'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1060307'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061108'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061109'!$I$1:$K$31</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -99,86 +111,98 @@
   <connection id="7" name="連線111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="8" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="8" name="連線1111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="9" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="9" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="10" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="10" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="11" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="11" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="12" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="12" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="13" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="13" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="14" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="14" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="15" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="15" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="16" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="16" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="17" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="18" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="33" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="34" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="35" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="36" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="266">
   <si>
     <t>旺宏</t>
   </si>
@@ -865,9 +889,6 @@
     <t>至上</t>
   </si>
   <si>
-    <t>http://www.twse.com.tw/zh/page/trading/fund/TWT44U.html</t>
-  </si>
-  <si>
     <t>菱生</t>
   </si>
   <si>
@@ -945,13 +966,53 @@
   </si>
   <si>
     <t>強茂</t>
+  </si>
+  <si>
+    <t>可成</t>
+  </si>
+  <si>
+    <t>啟碁</t>
+  </si>
+  <si>
+    <t>揚智</t>
+  </si>
+  <si>
+    <t>http://www.twse.com.tw/zh/page/trading/fund/TWT44U.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同開</t>
+  </si>
+  <si>
+    <t>裕融</t>
+  </si>
+  <si>
+    <t>嘉聯益</t>
+  </si>
+  <si>
+    <t>松翰</t>
+  </si>
+  <si>
+    <t>東和鋼鐵</t>
+  </si>
+  <si>
+    <t>達興材料</t>
+  </si>
+  <si>
+    <t>遠東銀</t>
+  </si>
+  <si>
+    <t>群電</t>
+  </si>
+  <si>
+    <t>世芯-KY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1248,7 +1309,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1375,131 +1450,147 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1757,54 +1848,1767 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" customWidth="1"/>
     <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O41"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.21875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5546875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2313</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1889000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>3481</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-6638000</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2371</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="9">
+        <v>16354000</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>2885</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-13334545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1909</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1347000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>6116</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-5000000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2330</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="9">
+        <v>14613671</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2884</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-11427426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2448</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1315000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>2344</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-1933000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>2891</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9">
+        <v>9598000</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>2881</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-9499000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>3665</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="9">
+        <v>853000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>2317</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-1603000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2888</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="9">
+        <v>8624000</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>2890</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-7909901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2312</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9">
+        <v>823000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>2881</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-1585000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>2313</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="9">
+        <v>8344000</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>2892</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-5721320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2501</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="9">
+        <v>823000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>2823</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-1050000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2883</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="9">
+        <v>7741000</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>3673</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-5048000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>1305</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9">
+        <v>819000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>1310</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-1000000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>2303</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="9">
+        <v>6865000</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>3682</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-4204000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>1905</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9">
+        <v>642000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>2002</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-698000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>2409</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="9">
+        <v>5979000</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>2354</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-4117640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>5871</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="9">
+        <v>622000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>2882</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-694000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>2615</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="9">
+        <v>5343000</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-3533000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>6271</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="9">
+        <v>524000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2034</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-676000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>2880</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="9">
+        <v>5102414</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>2449</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-3096000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4938</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="9">
+        <v>474000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>8261</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-612006</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>2610</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="9">
+        <v>4515000</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>2448</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-2563000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>3003</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="9">
+        <v>453000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>2345</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-569000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>2344</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="9">
+        <v>4448000</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>4938</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-2182000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2548</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="9">
+        <v>390000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>1312</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-466000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>2886</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="9">
+        <v>4213000</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>1216</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-2055000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>1802</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="9">
+        <v>375000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>1301</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-451000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>2337</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>3808000</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>2498</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-2048500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>2603</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>340000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>1308</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-449000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>2317</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="9">
+        <v>3691123</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>1909</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-2042000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>2605</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
+        <v>320000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>3005</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-384000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>2882</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="9">
+        <v>3300580</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>2349</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-1943000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>1605</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9">
+        <v>300000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>8105</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-350000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>4915</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" s="9">
+        <v>3209000</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>2408</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-1825000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>2456</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="9">
+        <v>265000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>2377</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-346000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>2603</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="9">
+        <v>3072000</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>2014</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-1791932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>1314</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="9">
+        <v>254000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>3006</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-252000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>2823</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="9">
+        <v>2674376</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>3006</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-1705000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>2886</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="9">
+        <v>242000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>1210</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>3665</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="9">
+        <v>2444200</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>2356</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-1550000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>9911</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="9">
+        <v>218000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>2352</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>3189</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="9">
+        <v>2342000</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>2323</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-1532000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>3443</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="9">
+        <v>214000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>3706</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>6271</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="9">
+        <v>2163000</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>2887</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-1217917</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>3346</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="9">
+        <v>211000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>2393</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-199000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>2301</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1981496</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>2377</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1210498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>6269</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9">
+        <v>210000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>2439</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-198000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>1605</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1794000</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>1455</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1204000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>2314</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9">
+        <v>200000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>3034</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-190000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>2324</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1733000</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>9945</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1055000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="9">
+        <v>183000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>8039</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-190000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>1310</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1661924</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>2618</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1049000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>1102</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="9">
+        <v>174000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>2228</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-180000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>2542</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1652000</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>3545</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-973397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>2360</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="9">
+        <v>157000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>5305</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-178000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>6213</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1651000</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>1504</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-928000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>4438</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="9">
+        <v>144000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>1476</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-156000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>2382</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1543804</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>2912</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-754500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>5907</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="9">
+        <v>140000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8">
+        <v>1262</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="10">
+        <v>-155000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8">
+        <v>5871</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K31" s="9">
+        <v>1541899</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="8">
+        <v>2889</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O31" s="10">
+        <v>-745000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>2327</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="10">
+        <v>133000</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8">
+        <v>6456</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="10">
+        <v>-153000</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="8">
+        <v>5264</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32" s="10">
+        <v>1523000</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="8">
+        <v>2504</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="O32" s="10">
+        <v>-744000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>1708</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="10">
+        <v>123000</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8">
+        <v>2421</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="10">
+        <v>-135000</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="8">
+        <v>2311</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="10">
+        <v>1471500</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="8">
+        <v>8150</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O33" s="10">
+        <v>-734000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>1477</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="10">
+        <v>100000</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8">
+        <v>2204</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="10">
+        <v>-123000</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8">
+        <v>4906</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K34" s="10">
+        <v>1438000</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="8">
+        <v>3037</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O34" s="10">
+        <v>-717510</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>2104</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="10">
+        <v>100000</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8">
+        <v>2354</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="10">
+        <v>-120000</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="8">
+        <v>2633</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K35" s="10">
+        <v>1421000</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="8">
+        <v>1305</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="10">
+        <v>-664777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>1704</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="10">
+        <v>96000</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8">
+        <v>1319</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="10">
+        <v>-117000</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8">
+        <v>1301</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K36" s="10">
+        <v>1222016</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="8">
+        <v>2345</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36" s="10">
+        <v>-642500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>3450</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="10">
+        <v>95000</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8">
+        <v>2049</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="10">
+        <v>-111000</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8">
+        <v>2049</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K37" s="10">
+        <v>1203000</v>
+      </c>
+      <c r="L37" s="7"/>
+      <c r="M37" s="8">
+        <v>6269</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O37" s="10">
+        <v>-627000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>5534</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="10">
+        <v>93000</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8">
+        <v>1101</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="10">
+        <v>-109000</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="8">
+        <v>3481</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38" s="10">
+        <v>1128000</v>
+      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="8">
+        <v>4956</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O38" s="10">
+        <v>-582000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>4935</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="10">
+        <v>88000</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8">
+        <v>2891</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="10">
+        <v>-109000</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8">
+        <v>6257</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K39" s="10">
+        <v>1093000</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="8">
+        <v>3045</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O39" s="10">
+        <v>-578000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>6525</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="10">
+        <v>68000</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8">
+        <v>3376</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="10">
+        <v>-108000</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8">
+        <v>2801</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K40" s="10">
+        <v>1057000</v>
+      </c>
+      <c r="L40" s="7"/>
+      <c r="M40" s="8">
+        <v>1512</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O40" s="10">
+        <v>-561000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="11">
+        <v>3545</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="13">
+        <v>50000</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8">
+        <v>1326</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="13">
+        <v>-106000</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="11">
+        <v>5880</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="K41" s="13">
+        <v>1056250</v>
+      </c>
+      <c r="L41" s="7"/>
+      <c r="M41" s="8">
+        <v>2634</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O41" s="13">
+        <v>-555000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B41 J2:J41">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F41 N2:N41">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="E2" sqref="E2:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
@@ -1824,7 +3628,7 @@
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>103</v>
       </c>
@@ -1849,35 +3653,35 @@
       <c r="N1" s="20"/>
       <c r="O1" s="21"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
-        <v>2892</v>
+        <v>5871</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C2" s="9">
-        <v>2028000</v>
+        <v>968000</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="8">
-        <v>2610</v>
+        <v>2337</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G2" s="10">
-        <v>-2303000</v>
+        <v>-2638369</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8">
-        <v>2409</v>
+        <v>2303</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="K2" s="9">
-        <v>22022000</v>
+        <v>28554543</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="8">
@@ -1887,10 +3691,10 @@
         <v>157</v>
       </c>
       <c r="O2" s="10">
-        <v>-25421763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
+        <v>-12915369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2313</v>
       </c>
@@ -1898,724 +3702,724 @@
         <v>7</v>
       </c>
       <c r="C3" s="9">
-        <v>1823000</v>
+        <v>902000</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="8">
-        <v>1319</v>
+        <v>2448</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="G3" s="10">
-        <v>-1447000</v>
+        <v>-1760000</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="8">
-        <v>2603</v>
+        <v>2448</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K3" s="9">
-        <v>6380000</v>
+        <v>15543250</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="8">
-        <v>2337</v>
+        <v>2317</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="O3" s="10">
-        <v>-13391045</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
+        <v>-10620644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
-        <v>5264</v>
+        <v>2303</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C4" s="9">
-        <v>1167000</v>
+        <v>810000</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="8">
-        <v>2603</v>
+        <v>2031</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="G4" s="10">
-        <v>-1288000</v>
+        <v>-1600000</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8">
-        <v>2313</v>
+        <v>5871</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="K4" s="9">
-        <v>5950802</v>
+        <v>12921973</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="8">
-        <v>3231</v>
+        <v>2885</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="O4" s="10">
-        <v>-9481386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
+        <v>-7114222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
-        <v>2881</v>
+        <v>3041</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>255</v>
       </c>
       <c r="C5" s="9">
-        <v>1044000</v>
+        <v>533000</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="8">
-        <v>3481</v>
+        <v>1909</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="G5" s="10">
-        <v>-1245000</v>
+        <v>-933000</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="8">
-        <v>2405</v>
+        <v>2409</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c r="K5" s="9">
-        <v>4370000</v>
+        <v>10496024</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="8">
-        <v>2317</v>
+        <v>3673</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="O5" s="10">
-        <v>-9207186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
+        <v>-5689104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
-        <v>4977</v>
+        <v>5243</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C6" s="9">
-        <v>763000</v>
+        <v>488000</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="8">
-        <v>2303</v>
+        <v>6456</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="G6" s="10">
-        <v>-993000</v>
+        <v>-909000</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="8">
-        <v>2610</v>
+        <v>1605</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="K6" s="9">
-        <v>3470765</v>
+        <v>7259000</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="8">
-        <v>3481</v>
+        <v>6456</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="O6" s="10">
-        <v>-7095412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
+        <v>-5139130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
-        <v>2633</v>
+        <v>1229</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" s="9">
-        <v>747000</v>
+        <v>369000</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8">
-        <v>1312</v>
+        <v>2892</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G7" s="10">
-        <v>-962000</v>
+        <v>-814000</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="8">
-        <v>2408</v>
+        <v>3037</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K7" s="9">
-        <v>2989265</v>
+        <v>3543000</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="8">
-        <v>2308</v>
+        <v>3545</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="O7" s="10">
-        <v>-4814000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
+        <v>-5037365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
-        <v>3035</v>
+        <v>2049</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C8" s="9">
-        <v>700000</v>
+        <v>367000</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="8">
-        <v>2337</v>
+        <v>2882</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G8" s="10">
-        <v>-958000</v>
+        <v>-598000</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="8">
-        <v>6202</v>
+        <v>2344</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>247</v>
+        <v>52</v>
       </c>
       <c r="K8" s="9">
-        <v>2870000</v>
+        <v>3536936</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="8">
-        <v>4960</v>
+        <v>2324</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="O8" s="10">
-        <v>-3615000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
+        <v>-4555000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>1714</v>
+        <v>4746</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C9" s="9">
-        <v>563000</v>
+        <v>363000</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8">
-        <v>1909</v>
+        <v>5305</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="G9" s="10">
-        <v>-908156</v>
+        <v>-536000</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8">
-        <v>2303</v>
+        <v>2887</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="K9" s="9">
-        <v>2860000</v>
+        <v>3517374</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="8">
-        <v>3037</v>
+        <v>2888</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="O9" s="10">
-        <v>-3507000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
+        <v>-3744274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>2408</v>
+        <v>3533</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9">
-        <v>537000</v>
+        <v>356000</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8">
-        <v>2367</v>
+        <v>2421</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="G10" s="10">
-        <v>-854000</v>
+        <v>-439000</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="8">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="K10" s="9">
-        <v>2768535</v>
+        <v>3384251</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="8">
-        <v>8110</v>
+        <v>8105</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="O10" s="10">
-        <v>-3440000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
+        <v>-3465000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>2369</v>
+        <v>2351</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C11" s="9">
-        <v>512000</v>
+        <v>315000</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="8">
-        <v>2820</v>
+        <v>2610</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>237</v>
+        <v>128</v>
       </c>
       <c r="G11" s="10">
-        <v>-816000</v>
+        <v>-438000</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="8">
-        <v>2458</v>
+        <v>2884</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="K11" s="9">
-        <v>2450000</v>
+        <v>3154019</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="8">
-        <v>2330</v>
+        <v>2356</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="O11" s="10">
-        <v>-3343213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
+        <v>-3357000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
-        <v>3702</v>
+        <v>2377</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="C12" s="9">
-        <v>506000</v>
+        <v>232000</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="8">
-        <v>3037</v>
+        <v>2492</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="G12" s="10">
-        <v>-760000</v>
+        <v>-383654</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="8">
-        <v>2376</v>
+        <v>3035</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="K12" s="9">
-        <v>2355000</v>
+        <v>2677000</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="8">
-        <v>2301</v>
+        <v>3481</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="O12" s="10">
-        <v>-3228676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
+        <v>-3327038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <v>2377</v>
+        <v>3018</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>257</v>
       </c>
       <c r="C13" s="9">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8">
-        <v>1605</v>
+        <v>8261</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="G13" s="10">
-        <v>-707000</v>
+        <v>-349000</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="8">
-        <v>2344</v>
+        <v>2002</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K13" s="9">
-        <v>2177889</v>
+        <v>2194838</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="8">
-        <v>3380</v>
+        <v>2408</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="O13" s="10">
-        <v>-3182000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
+        <v>-3316571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <v>1712</v>
+        <v>4977</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="C14" s="9">
-        <v>481000</v>
+        <v>165000</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8">
-        <v>2615</v>
+        <v>8039</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="G14" s="10">
-        <v>-664000</v>
+        <v>-314000</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8">
-        <v>1605</v>
+        <v>5880</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="K14" s="9">
-        <v>2103000</v>
+        <v>2122171</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="8">
-        <v>3702</v>
+        <v>2301</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="O14" s="10">
-        <v>-3109846</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+        <v>-3290477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>2449</v>
+        <v>2408</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C15" s="9">
-        <v>421000</v>
+        <v>156000</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="8">
-        <v>3017</v>
+        <v>2376</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="G15" s="10">
-        <v>-646000</v>
+        <v>-309000</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="8">
-        <v>2401</v>
+        <v>2474</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K15" s="9">
-        <v>2028000</v>
+        <v>2115991</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="8">
-        <v>2880</v>
+        <v>2401</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="O15" s="10">
-        <v>-2906000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
+        <v>-2601000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>2104</v>
+        <v>9941</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>258</v>
       </c>
       <c r="C16" s="9">
-        <v>399000</v>
+        <v>154000</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="8">
-        <v>2903</v>
+        <v>1319</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="G16" s="10">
-        <v>-642000</v>
+        <v>-270000</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="8">
-        <v>6269</v>
+        <v>2881</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="K16" s="9">
-        <v>2016823</v>
+        <v>2068562</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="8">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="O16" s="10">
-        <v>-2670183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
+        <v>-2520146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>2351</v>
+        <v>2885</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="C17" s="9">
-        <v>336000</v>
+        <v>132000</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="8">
-        <v>1476</v>
+        <v>6412</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="G17" s="10">
-        <v>-611180</v>
+        <v>-250000</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="8">
-        <v>2883</v>
+        <v>2367</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="K17" s="9">
-        <v>1997000</v>
+        <v>1817000</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="8">
-        <v>2352</v>
+        <v>6285</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="O17" s="10">
-        <v>-2427000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
+        <v>-2355515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>4915</v>
+        <v>6153</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="C18" s="9">
-        <v>328000</v>
+        <v>124000</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="8">
-        <v>6456</v>
+        <v>2014</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="G18" s="10">
-        <v>-575000</v>
+        <v>-240000</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8">
-        <v>2049</v>
+        <v>3231</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="K18" s="9">
-        <v>1961639</v>
+        <v>1671141</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="8">
-        <v>2823</v>
+        <v>4938</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="O18" s="10">
-        <v>-2115504</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
+        <v>-2326466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>2344</v>
+        <v>3034</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C19" s="9">
-        <v>323000</v>
+        <v>115000</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="8">
-        <v>1310</v>
+        <v>2367</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="G19" s="10">
-        <v>-566000</v>
+        <v>-235000</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="8">
-        <v>5880</v>
+        <v>2337</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="K19" s="9">
-        <v>1764624</v>
+        <v>1623323</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="8">
-        <v>2892</v>
+        <v>2883</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="O19" s="10">
-        <v>-2104104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
+        <v>-2199631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>2206</v>
+        <v>5471</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="C20" s="9">
-        <v>320000</v>
+        <v>70000</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="8">
-        <v>3231</v>
+        <v>1313</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>48</v>
+        <v>239</v>
       </c>
       <c r="G20" s="10">
-        <v>-564000</v>
+        <v>-230000</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="8">
-        <v>1216</v>
+        <v>2603</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="K20" s="9">
-        <v>1725360</v>
+        <v>1552000</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="8">
@@ -2625,458 +4429,458 @@
         <v>21</v>
       </c>
       <c r="O20" s="10">
-        <v>-1930360</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
+        <v>-2096015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
-        <v>1507</v>
+        <v>2006</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="C21" s="9">
-        <v>302000</v>
+        <v>67000</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="8">
-        <v>2511</v>
+        <v>3346</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>239</v>
+        <v>99</v>
       </c>
       <c r="G21" s="10">
-        <v>-556000</v>
+        <v>-222000</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8">
-        <v>2324</v>
+        <v>4960</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="K21" s="9">
-        <v>1547000</v>
+        <v>1460000</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="8">
-        <v>6176</v>
+        <v>1314</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="O21" s="10">
-        <v>-1915268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
+        <v>-2050000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>5269</v>
+        <v>2891</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="C22" s="9">
-        <v>283000</v>
+        <v>43000</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="8">
-        <v>1210</v>
+        <v>2369</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="G22" s="10">
-        <v>-553000</v>
+        <v>-211000</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="8">
-        <v>2419</v>
+        <v>3045</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c r="K22" s="9">
-        <v>1453000</v>
+        <v>1411809</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="8">
-        <v>8150</v>
+        <v>3380</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="O22" s="10">
-        <v>-1844000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
+        <v>-1840000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>4919</v>
+        <v>5234</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>83</v>
+        <v>262</v>
       </c>
       <c r="C23" s="9">
-        <v>274000</v>
+        <v>43000</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="8">
-        <v>1313</v>
+        <v>1568</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G23" s="10">
-        <v>-544000</v>
+        <v>-200000</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="8">
-        <v>1314</v>
+        <v>2890</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K23" s="9">
-        <v>1419000</v>
+        <v>1397405</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="8">
-        <v>8112</v>
+        <v>2031</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="O23" s="10">
-        <v>-1810000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
+        <v>-1839000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>5305</v>
+        <v>5880</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="C24" s="9">
-        <v>267000</v>
+        <v>41000</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="8">
-        <v>1904</v>
+        <v>4919</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="G24" s="10">
-        <v>-521000</v>
+        <v>-200000</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="8">
-        <v>4938</v>
+        <v>1455</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K24" s="9">
-        <v>1305118</v>
+        <v>1346000</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="8">
-        <v>9945</v>
+        <v>2330</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="O24" s="10">
-        <v>-1806000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
+        <v>-1823714</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>3056</v>
+        <v>2379</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C25" s="9">
-        <v>251000</v>
+        <v>40000</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="8">
-        <v>2888</v>
+        <v>2449</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="G25" s="10">
-        <v>-481000</v>
+        <v>-186000</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="8">
-        <v>4956</v>
+        <v>2393</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="K25" s="9">
-        <v>1222000</v>
+        <v>1285084</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="8">
-        <v>2481</v>
+        <v>1312</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="O25" s="10">
-        <v>-1587000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
+        <v>-1792914</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>2049</v>
+        <v>4968</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="C26" s="9">
-        <v>248000</v>
+        <v>35000</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="8">
-        <v>3653</v>
+        <v>3661</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="G26" s="10">
-        <v>-437000</v>
+        <v>-182000</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="8">
-        <v>2891</v>
+        <v>1216</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="K26" s="9">
-        <v>1192358</v>
+        <v>1284740</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="8">
-        <v>2882</v>
+        <v>3041</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c r="O26" s="10">
-        <v>-1585000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
+        <v>-1593000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>2444</v>
+        <v>2327</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="C27" s="9">
-        <v>246000</v>
+        <v>34000</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="8">
-        <v>1457</v>
+        <v>3673</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="G27" s="10">
-        <v>-429000</v>
+        <v>-168000</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="8">
-        <v>1210</v>
+        <v>2419</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="K27" s="9">
-        <v>1167000</v>
+        <v>1235000</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="8">
-        <v>2448</v>
+        <v>6505</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="O27" s="10">
-        <v>-1490228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
+        <v>-1558934</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>1215</v>
+        <v>5269</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>9</v>
+        <v>231</v>
       </c>
       <c r="C28" s="9">
-        <v>242000</v>
+        <v>33000</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="8">
-        <v>1568</v>
+        <v>2317</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="G28" s="10">
-        <v>-416000</v>
+        <v>-161000</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="8">
-        <v>3034</v>
+        <v>2377</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="K28" s="9">
-        <v>1058491</v>
+        <v>1199736</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="8">
-        <v>2383</v>
+        <v>2823</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="O28" s="10">
-        <v>-1477000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
+        <v>-1533493</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
-        <v>2392</v>
+        <v>6269</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>235</v>
+        <v>13</v>
       </c>
       <c r="C29" s="9">
-        <v>236000</v>
+        <v>32644</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="8">
-        <v>2031</v>
+        <v>3443</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>244</v>
+        <v>95</v>
       </c>
       <c r="G29" s="10">
-        <v>-387000</v>
+        <v>-151000</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="8">
-        <v>3698</v>
+        <v>8110</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="K29" s="9">
-        <v>1032000</v>
+        <v>1188000</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="8">
+        <v>6176</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1474572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
         <v>2812</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="O29" s="10">
-        <v>-1442000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
-      <c r="A30" s="8">
-        <v>2520</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="C30" s="9">
-        <v>199000</v>
+        <v>29000</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="8">
-        <v>2886</v>
+        <v>2354</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G30" s="10">
-        <v>-381428</v>
+        <v>-148000</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="8">
-        <v>6239</v>
+        <v>2352</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="K30" s="9">
-        <v>922000</v>
+        <v>1149177</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="8">
-        <v>2633</v>
+        <v>5243</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="O30" s="10">
-        <v>-1340140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="19.2" thickBot="1">
+        <v>-1208000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
-        <v>6226</v>
+        <v>2845</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="C31" s="17">
-        <v>198000</v>
+        <v>29000</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="11">
-        <v>2359</v>
+        <v>2345</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>245</v>
+        <v>53</v>
       </c>
       <c r="G31" s="13">
-        <v>-366000</v>
+        <v>-132000</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="11">
-        <v>1710</v>
+        <v>3702</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="K31" s="17">
-        <v>894000</v>
+        <v>1099087</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="11">
-        <v>5388</v>
+        <v>2354</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="O31" s="13">
-        <v>-1329977</v>
+        <v>-1196054</v>
       </c>
     </row>
   </sheetData>
@@ -3099,14 +4903,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2892</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2028000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2610</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-2303000</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2409</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="9">
+        <v>22022000</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-25421763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2313</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1823000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>1319</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-1447000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2603</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="9">
+        <v>6380000</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2337</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-13391045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>5264</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1167000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>2603</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-1288000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>2313</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="9">
+        <v>5950802</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>3231</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-9481386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2881</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1044000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>3481</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-1245000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2405</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="9">
+        <v>4370000</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>2317</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-9207186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>4977</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="9">
+        <v>763000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>2303</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-993000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>2610</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3470765</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>3481</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-7095412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2633</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="9">
+        <v>747000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>1312</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-962000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2408</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2989265</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>2308</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-4814000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>3035</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="9">
+        <v>700000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>2337</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-958000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>6202</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K8" s="9">
+        <v>2870000</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>4960</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-3615000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>1714</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="9">
+        <v>563000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>1909</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-908156</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>2303</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2860000</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>3037</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-3507000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2408</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="9">
+        <v>537000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>2367</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-854000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>2311</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2768535</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>8110</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-3440000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>2369</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="9">
+        <v>512000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2820</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-816000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>2458</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2450000</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>2330</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-3343213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>3702</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="9">
+        <v>506000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>3037</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-760000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>2376</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2355000</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>2301</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-3228676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>2377</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="9">
+        <v>500000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>1605</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-707000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>2344</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2177889</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>3380</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-3182000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>1712</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="9">
+        <v>481000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>2615</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-664000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>1605</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="9">
+        <v>2103000</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>3702</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-3109846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>2449</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="9">
+        <v>421000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>3017</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-646000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>2401</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K15" s="9">
+        <v>2028000</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>2880</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-2906000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>2104</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="9">
+        <v>399000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>2903</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-642000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6269</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="9">
+        <v>2016823</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>2884</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-2670183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>2351</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="9">
+        <v>336000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>1476</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-611180</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>2883</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1997000</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>2352</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-2427000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>4915</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="9">
+        <v>328000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>6456</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-575000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>2049</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1961639</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>2823</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-2115504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>2344</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="9">
+        <v>323000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>1310</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-566000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>5880</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1764624</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>2892</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-2104104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>2206</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="9">
+        <v>320000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>3231</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-564000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>1216</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1725360</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>1305</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-1930360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>1507</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="9">
+        <v>302000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>2511</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-556000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>2324</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1547000</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>6176</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-1915268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>5269</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="9">
+        <v>283000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>1210</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-553000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>2419</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1453000</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>8150</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-1844000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>4919</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="9">
+        <v>274000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>1313</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-544000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>1314</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1419000</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>8112</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-1810000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>5305</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="9">
+        <v>267000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>1904</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-521000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>4938</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1305118</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>9945</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1806000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>3056</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="9">
+        <v>251000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>2888</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-481000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>4956</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1222000</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>2481</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1587000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>2049</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="9">
+        <v>248000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>3653</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-437000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>2891</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1192358</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>2882</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1585000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>2444</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="9">
+        <v>246000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>1457</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-429000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>1210</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1167000</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>2448</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1490228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>1215</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="9">
+        <v>242000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>1568</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-416000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>3034</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1058491</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>2383</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-1477000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>2392</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="9">
+        <v>236000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>2031</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-387000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>3698</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1032000</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>2812</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1442000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>2520</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="9">
+        <v>199000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>2886</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-381428</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>6239</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" s="9">
+        <v>922000</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>2633</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-1340140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>6226</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="17">
+        <v>198000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>2359</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-366000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>1710</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" s="17">
+        <v>894000</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>5388</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-1329977</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -3126,7 +6232,7 @@
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>103</v>
       </c>
@@ -3151,7 +6257,7 @@
       <c r="N1" s="20"/>
       <c r="O1" s="21"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1904</v>
       </c>
@@ -3192,7 +6298,7 @@
         <v>-15509883</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2330</v>
       </c>
@@ -3233,7 +6339,7 @@
         <v>-10955339</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2891</v>
       </c>
@@ -3274,7 +6380,7 @@
         <v>-6706779</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2317</v>
       </c>
@@ -3315,7 +6421,7 @@
         <v>-6229853</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>1605</v>
       </c>
@@ -3356,7 +6462,7 @@
         <v>-3640832</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>2313</v>
       </c>
@@ -3397,7 +6503,7 @@
         <v>-3567255</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>2303</v>
       </c>
@@ -3438,7 +6544,7 @@
         <v>-3374866</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>2886</v>
       </c>
@@ -3479,7 +6585,7 @@
         <v>-3144195</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>2882</v>
       </c>
@@ -3520,7 +6626,7 @@
         <v>-3005397</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>2883</v>
       </c>
@@ -3561,7 +6667,7 @@
         <v>-2875178</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>2887</v>
       </c>
@@ -3602,7 +6708,7 @@
         <v>-2121349</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>2615</v>
       </c>
@@ -3643,7 +6749,7 @@
         <v>-1989090</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>2885</v>
       </c>
@@ -3684,7 +6790,7 @@
         <v>-1855716</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>2823</v>
       </c>
@@ -3725,7 +6831,7 @@
         <v>-1807384</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>1102</v>
       </c>
@@ -3766,7 +6872,7 @@
         <v>-1799064</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>5880</v>
       </c>
@@ -3807,7 +6913,7 @@
         <v>-1638185</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>2890</v>
       </c>
@@ -3848,7 +6954,7 @@
         <v>-1499000</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>2002</v>
       </c>
@@ -3889,7 +6995,7 @@
         <v>-1498727</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>2892</v>
       </c>
@@ -3930,7 +7036,7 @@
         <v>-1332000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>2412</v>
       </c>
@@ -3971,7 +7077,7 @@
         <v>-1171000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>3481</v>
       </c>
@@ -4012,7 +7118,7 @@
         <v>-1013414</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>2204</v>
       </c>
@@ -4053,7 +7159,7 @@
         <v>-954773</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>2880</v>
       </c>
@@ -4094,7 +7200,7 @@
         <v>-934000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>8222</v>
       </c>
@@ -4135,7 +7241,7 @@
         <v>-825000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>2881</v>
       </c>
@@ -4176,7 +7282,7 @@
         <v>-814400</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>2311</v>
       </c>
@@ -4217,7 +7323,7 @@
         <v>-813000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>2884</v>
       </c>
@@ -4258,7 +7364,7 @@
         <v>-787120</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>2801</v>
       </c>
@@ -4299,7 +7405,7 @@
         <v>-778850</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>1215</v>
       </c>
@@ -4340,7 +7446,7 @@
         <v>-755000</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="19.2" thickBot="1">
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>2382</v>
       </c>
@@ -4400,15 +7506,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -4428,7 +7534,7 @@
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>103</v>
       </c>
@@ -4453,7 +7559,7 @@
       <c r="N1" s="20"/>
       <c r="O1" s="21"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1904</v>
       </c>
@@ -4494,7 +7600,7 @@
         <v>-38705253</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1605</v>
       </c>
@@ -4535,7 +7641,7 @@
         <v>-12148752</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1215</v>
       </c>
@@ -4576,7 +7682,7 @@
         <v>-9035118</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1101</v>
       </c>
@@ -4617,7 +7723,7 @@
         <v>-9006172</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2337</v>
       </c>
@@ -4658,7 +7764,7 @@
         <v>-5937473</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>2023</v>
       </c>
@@ -4699,7 +7805,7 @@
         <v>-4938000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>2204</v>
       </c>
@@ -4740,7 +7846,7 @@
         <v>-3886411</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>2886</v>
       </c>
@@ -4781,7 +7887,7 @@
         <v>-3690374</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>2317</v>
       </c>
@@ -4822,7 +7928,7 @@
         <v>-3331000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>2327</v>
       </c>
@@ -4863,7 +7969,7 @@
         <v>-3307171</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>2408</v>
       </c>
@@ -4904,7 +8010,7 @@
         <v>-2918036</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>2915</v>
       </c>
@@ -4945,7 +8051,7 @@
         <v>-2907214</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>2492</v>
       </c>
@@ -4986,7 +8092,7 @@
         <v>-2499748</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>2439</v>
       </c>
@@ -5027,7 +8133,7 @@
         <v>-2258765</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>1802</v>
       </c>
@@ -5068,7 +8174,7 @@
         <v>-1902916</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>3189</v>
       </c>
@@ -5109,7 +8215,7 @@
         <v>-1902359</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>2882</v>
       </c>
@@ -5150,7 +8256,7 @@
         <v>-1560533</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>1210</v>
       </c>
@@ -5191,7 +8297,7 @@
         <v>-1555467</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>2448</v>
       </c>
@@ -5232,7 +8338,7 @@
         <v>-1418108</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>8411</v>
       </c>
@@ -5273,7 +8379,7 @@
         <v>-1415720</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>2885</v>
       </c>
@@ -5314,7 +8420,7 @@
         <v>-1346144</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>1303</v>
       </c>
@@ -5355,7 +8461,7 @@
         <v>-1263677</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>6456</v>
       </c>
@@ -5396,7 +8502,7 @@
         <v>-1248621</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>1455</v>
       </c>
@@ -5437,7 +8543,7 @@
         <v>-1189767</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>1477</v>
       </c>
@@ -5478,7 +8584,7 @@
         <v>-1174495</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>1708</v>
       </c>
@@ -5519,7 +8625,7 @@
         <v>-1172532</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>2891</v>
       </c>
@@ -5560,7 +8666,7 @@
         <v>-1168495</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>5907</v>
       </c>
@@ -5601,7 +8707,7 @@
         <v>-1157078</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>6505</v>
       </c>
@@ -5642,7 +8748,7 @@
         <v>-1013000</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="19.2" thickBot="1">
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>1536</v>
       </c>
@@ -5702,15 +8808,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -5730,7 +8836,7 @@
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>103</v>
       </c>
@@ -5755,7 +8861,7 @@
       <c r="N1" s="20"/>
       <c r="O1" s="21"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>2345</v>
       </c>
@@ -5796,7 +8902,7 @@
         <v>-74121324</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2882</v>
       </c>
@@ -5837,7 +8943,7 @@
         <v>-11856279</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1101</v>
       </c>
@@ -5878,7 +8984,7 @@
         <v>-9129056</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2360</v>
       </c>
@@ -5919,7 +9025,7 @@
         <v>-8184612</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2344</v>
       </c>
@@ -5960,7 +9066,7 @@
         <v>-7986785</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>2603</v>
       </c>
@@ -6001,7 +9107,7 @@
         <v>-7814208</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>2609</v>
       </c>
@@ -6042,7 +9148,7 @@
         <v>-7243066</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>4968</v>
       </c>
@@ -6083,7 +9189,7 @@
         <v>-6998000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>6269</v>
       </c>
@@ -6124,7 +9230,7 @@
         <v>-5874035</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>3443</v>
       </c>
@@ -6165,7 +9271,7 @@
         <v>-4864254</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>2886</v>
       </c>
@@ -6206,7 +9312,7 @@
         <v>-4829641</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>2448</v>
       </c>
@@ -6247,7 +9353,7 @@
         <v>-4426693</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>1536</v>
       </c>
@@ -6288,7 +9394,7 @@
         <v>-4366389</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>2891</v>
       </c>
@@ -6329,7 +9435,7 @@
         <v>-3461747</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>1477</v>
       </c>
@@ -6370,7 +9476,7 @@
         <v>-3454428</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>3005</v>
       </c>
@@ -6411,7 +9517,7 @@
         <v>-3430774</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>1305</v>
       </c>
@@ -6452,7 +9558,7 @@
         <v>-2618341</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>1605</v>
       </c>
@@ -6493,7 +9599,7 @@
         <v>-2562000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>1802</v>
       </c>
@@ -6534,7 +9640,7 @@
         <v>-2468000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>6525</v>
       </c>
@@ -6575,7 +9681,7 @@
         <v>-2252277</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>3533</v>
       </c>
@@ -6616,7 +9722,7 @@
         <v>-2127450</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>5907</v>
       </c>
@@ -6657,7 +9763,7 @@
         <v>-2101885</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>2492</v>
       </c>
@@ -6698,7 +9804,7 @@
         <v>-1303059</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>1215</v>
       </c>
@@ -6739,7 +9845,7 @@
         <v>-1301436</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>1455</v>
       </c>
@@ -6780,7 +9886,7 @@
         <v>-1277930</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>1708</v>
       </c>
@@ -6821,7 +9927,7 @@
         <v>-1219000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>2351</v>
       </c>
@@ -6862,7 +9968,7 @@
         <v>-1186198</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>2542</v>
       </c>
@@ -6903,7 +10009,7 @@
         <v>-1137184</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>5871</v>
       </c>
@@ -6944,7 +10050,7 @@
         <v>-979881</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="19.2" thickBot="1">
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>9939</v>
       </c>
@@ -7004,15 +10110,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -7032,7 +10138,7 @@
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>103</v>
       </c>
@@ -7057,7 +10163,7 @@
       <c r="N1" s="20"/>
       <c r="O1" s="21"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>2603</v>
       </c>
@@ -7098,7 +10204,7 @@
         <v>-88613426</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2886</v>
       </c>
@@ -7139,7 +10245,7 @@
         <v>-13534000</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2023</v>
       </c>
@@ -7180,7 +10286,7 @@
         <v>-6203646</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2891</v>
       </c>
@@ -7221,7 +10327,7 @@
         <v>-5345902</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2345</v>
       </c>
@@ -7262,7 +10368,7 @@
         <v>-4502512</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>1305</v>
       </c>
@@ -7303,7 +10409,7 @@
         <v>-3621980</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>2344</v>
       </c>
@@ -7344,7 +10450,7 @@
         <v>-3481861</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>1909</v>
       </c>
@@ -7385,7 +10491,7 @@
         <v>-2470708</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>2492</v>
       </c>
@@ -7426,7 +10532,7 @@
         <v>-2307600</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>2609</v>
       </c>
@@ -7467,7 +10573,7 @@
         <v>-2250869</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>2882</v>
       </c>
@@ -7508,7 +10614,7 @@
         <v>-2142852</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>1216</v>
       </c>
@@ -7549,7 +10655,7 @@
         <v>-1911000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>1802</v>
       </c>
@@ -7590,7 +10696,7 @@
         <v>-1830498</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>2002</v>
       </c>
@@ -7631,7 +10737,7 @@
         <v>-1730000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>5871</v>
       </c>
@@ -7672,7 +10778,7 @@
         <v>-1728947</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>1704</v>
       </c>
@@ -7713,7 +10819,7 @@
         <v>-1726000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>9938</v>
       </c>
@@ -7754,7 +10860,7 @@
         <v>-1724000</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>2009</v>
       </c>
@@ -7795,7 +10901,7 @@
         <v>-1707278</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>3450</v>
       </c>
@@ -7836,7 +10942,7 @@
         <v>-1650999</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>1215</v>
       </c>
@@ -7877,7 +10983,7 @@
         <v>-1469000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>3443</v>
       </c>
@@ -7918,7 +11024,7 @@
         <v>-1404582</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>2605</v>
       </c>
@@ -7959,7 +11065,7 @@
         <v>-1384000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>8411</v>
       </c>
@@ -8000,7 +11106,7 @@
         <v>-1349000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>2360</v>
       </c>
@@ -8041,7 +11147,7 @@
         <v>-1305000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>1605</v>
       </c>
@@ -8082,7 +11188,7 @@
         <v>-1248860</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>1708</v>
       </c>
@@ -8123,7 +11229,7 @@
         <v>-1246000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>3533</v>
       </c>
@@ -8164,7 +11270,7 @@
         <v>-1214000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>9939</v>
       </c>
@@ -8205,7 +11311,7 @@
         <v>-1200126</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>5243</v>
       </c>
@@ -8246,7 +11352,7 @@
         <v>-1195000</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="19.2" thickBot="1">
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>5534</v>
       </c>
@@ -8306,15 +11412,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -8334,7 +11440,7 @@
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>103</v>
       </c>
@@ -8359,7 +11465,7 @@
       <c r="N1" s="20"/>
       <c r="O1" s="21"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>2337</v>
       </c>
@@ -8400,7 +11506,7 @@
         <v>-23032594</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2603</v>
       </c>
@@ -8441,7 +11547,7 @@
         <v>-15932407</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>4532</v>
       </c>
@@ -8482,7 +11588,7 @@
         <v>-11294119</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>2492</v>
       </c>
@@ -8523,7 +11629,7 @@
         <v>-11184718</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3481</v>
       </c>
@@ -8564,7 +11670,7 @@
         <v>-7731536</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>2327</v>
       </c>
@@ -8605,7 +11711,7 @@
         <v>-6245782</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>1216</v>
       </c>
@@ -8646,7 +11752,7 @@
         <v>-6046676</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>2354</v>
       </c>
@@ -8687,7 +11793,7 @@
         <v>-5927000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>1905</v>
       </c>
@@ -8728,7 +11834,7 @@
         <v>-5916429</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>2605</v>
       </c>
@@ -8769,7 +11875,7 @@
         <v>-5179987</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>2303</v>
       </c>
@@ -8810,7 +11916,7 @@
         <v>-4047820</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>2609</v>
       </c>
@@ -8851,7 +11957,7 @@
         <v>-3401841</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>2448</v>
       </c>
@@ -8892,7 +11998,7 @@
         <v>-3381826</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>1305</v>
       </c>
@@ -8933,7 +12039,7 @@
         <v>-3357536</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>2344</v>
       </c>
@@ -8974,7 +12080,7 @@
         <v>-3169675</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>2317</v>
       </c>
@@ -9015,7 +12121,7 @@
         <v>-3143912</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>1802</v>
       </c>
@@ -9056,7 +12162,7 @@
         <v>-3055975</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>2615</v>
       </c>
@@ -9097,7 +12203,7 @@
         <v>-2876915</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>3706</v>
       </c>
@@ -9138,7 +12244,7 @@
         <v>-2467000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>3665</v>
       </c>
@@ -9179,7 +12285,7 @@
         <v>-2455920</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>9938</v>
       </c>
@@ -9220,7 +12326,7 @@
         <v>-2291172</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>9939</v>
       </c>
@@ -9261,7 +12367,7 @@
         <v>-2180681</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>1704</v>
       </c>
@@ -9302,7 +12408,7 @@
         <v>-2092613</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>3443</v>
       </c>
@@ -9343,7 +12449,7 @@
         <v>-1951046</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>1560</v>
       </c>
@@ -9384,7 +12490,7 @@
         <v>-1741186</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>1605</v>
       </c>
@@ -9425,7 +12531,7 @@
         <v>-1739214</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>2882</v>
       </c>
@@ -9466,7 +12572,7 @@
         <v>-1684007</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>8411</v>
       </c>
@@ -9507,7 +12613,7 @@
         <v>-1681866</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>1536</v>
       </c>
@@ -9548,7 +12654,7 @@
         <v>-1487628</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="4" customFormat="1">
+    <row r="31" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>1708</v>
       </c>
@@ -9608,15 +12714,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -9636,7 +12742,7 @@
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>103</v>
       </c>
@@ -9661,7 +12767,7 @@
       <c r="N1" s="20"/>
       <c r="O1" s="21"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>2337</v>
       </c>
@@ -9702,7 +12808,7 @@
         <v>-11203858</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2609</v>
       </c>
@@ -9743,7 +12849,7 @@
         <v>-9119892</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>2603</v>
       </c>
@@ -9784,7 +12890,7 @@
         <v>-6450444</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2492</v>
       </c>
@@ -9825,7 +12931,7 @@
         <v>-5570041</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2314</v>
       </c>
@@ -9866,7 +12972,7 @@
         <v>-4313839</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>2605</v>
       </c>
@@ -9907,7 +13013,7 @@
         <v>-4225000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>1905</v>
       </c>
@@ -9948,7 +13054,7 @@
         <v>-3144377</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>2313</v>
       </c>
@@ -9989,7 +13095,7 @@
         <v>-2969325</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>2448</v>
       </c>
@@ -10030,7 +13136,7 @@
         <v>-2939031</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>1215</v>
       </c>
@@ -10071,7 +13177,7 @@
         <v>-2717989</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>2327</v>
       </c>
@@ -10112,7 +13218,7 @@
         <v>-2660000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>2615</v>
       </c>
@@ -10153,7 +13259,7 @@
         <v>-2611281</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>1605</v>
       </c>
@@ -10194,7 +13300,7 @@
         <v>-2586111</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>6269</v>
       </c>
@@ -10235,7 +13341,7 @@
         <v>-2027000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>2891</v>
       </c>
@@ -10276,7 +13382,7 @@
         <v>-1882000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>1704</v>
       </c>
@@ -10317,7 +13423,7 @@
         <v>-1850000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>3189</v>
       </c>
@@ -10358,7 +13464,7 @@
         <v>-1841000</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>2312</v>
       </c>
@@ -10399,7 +13505,7 @@
         <v>-1833000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>2606</v>
       </c>
@@ -10440,7 +13546,7 @@
         <v>-1743659</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>2324</v>
       </c>
@@ -10481,7 +13587,7 @@
         <v>-1736000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>1560</v>
       </c>
@@ -10522,7 +13628,7 @@
         <v>-1720000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>1305</v>
       </c>
@@ -10563,7 +13669,7 @@
         <v>-1672050</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>3533</v>
       </c>
@@ -10604,7 +13710,7 @@
         <v>-1655524</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>3035</v>
       </c>
@@ -10645,7 +13751,7 @@
         <v>-1548308</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>1708</v>
       </c>
@@ -10686,7 +13792,7 @@
         <v>-1542189</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>2354</v>
       </c>
@@ -10727,7 +13833,7 @@
         <v>-1541167</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>2885</v>
       </c>
@@ -10768,7 +13874,7 @@
         <v>-1513000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>4532</v>
       </c>
@@ -10809,7 +13915,7 @@
         <v>-1366500</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>5434</v>
       </c>
@@ -10850,7 +13956,7 @@
         <v>-1311304</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="4" customFormat="1">
+    <row r="31" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>1536</v>
       </c>
@@ -10891,7 +13997,7 @@
         <v>-1178000</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="4" customFormat="1">
+    <row r="32" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>3034</v>
       </c>
@@ -10932,7 +14038,7 @@
         <v>-1126000</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="4" customFormat="1">
+    <row r="33" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>1598</v>
       </c>
@@ -10973,7 +14079,7 @@
         <v>-1125069</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="4" customFormat="1">
+    <row r="34" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>8464</v>
       </c>
@@ -11014,7 +14120,7 @@
         <v>-1072000</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="4" customFormat="1">
+    <row r="35" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>1210</v>
       </c>
@@ -11055,7 +14161,7 @@
         <v>-1071748</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="4" customFormat="1">
+    <row r="36" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>1477</v>
       </c>
@@ -11096,7 +14202,7 @@
         <v>-1040173</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="4" customFormat="1">
+    <row r="37" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>2104</v>
       </c>
@@ -11137,7 +14243,7 @@
         <v>-1024850</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="4" customFormat="1">
+    <row r="38" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>5388</v>
       </c>
@@ -11178,7 +14284,7 @@
         <v>-1006000</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="4" customFormat="1">
+    <row r="39" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>3413</v>
       </c>
@@ -11219,7 +14325,7 @@
         <v>-986781</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="4" customFormat="1">
+    <row r="40" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>6525</v>
       </c>
@@ -11260,7 +14366,7 @@
         <v>-977454</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="4" customFormat="1" ht="19.2" thickBot="1">
+    <row r="41" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11">
         <v>1702</v>
       </c>
@@ -11318,1716 +14424,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O41"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
-  <cols>
-    <col min="1" max="1" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.5546875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
-      <c r="A2" s="8">
-        <v>2313</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1889000</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>3481</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-6638000</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>2371</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="9">
-        <v>16354000</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>2885</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-13334545</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
-      <c r="A3" s="8">
-        <v>1909</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1347000</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>6116</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-5000000</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>2330</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K3" s="9">
-        <v>14613671</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>2884</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-11427426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
-      <c r="A4" s="8">
-        <v>2448</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1315000</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>2344</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-1933000</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>2891</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9">
-        <v>9598000</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>2881</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-9499000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
-      <c r="A5" s="8">
-        <v>3665</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="9">
-        <v>853000</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>2317</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-1603000</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>2888</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" s="9">
-        <v>8624000</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>2890</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-7909901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
-      <c r="A6" s="8">
-        <v>2312</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="9">
-        <v>823000</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>2881</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-1585000</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>2313</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="9">
-        <v>8344000</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>2892</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-5721320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
-      <c r="A7" s="8">
-        <v>2501</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="9">
-        <v>823000</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>2823</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-1050000</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>2883</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="9">
-        <v>7741000</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>3673</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-5048000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
-      <c r="A8" s="8">
-        <v>1305</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="9">
-        <v>819000</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>1310</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-1000000</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>2303</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="9">
-        <v>6865000</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>3682</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-4204000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
-      <c r="A9" s="8">
-        <v>1905</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9">
-        <v>642000</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>2002</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-698000</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>2409</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="9">
-        <v>5979000</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>2354</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-4117640</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
-      <c r="A10" s="8">
-        <v>5871</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="9">
-        <v>622000</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>2882</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-694000</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>2615</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="9">
-        <v>5343000</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>6116</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-3533000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
-      <c r="A11" s="8">
-        <v>6271</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="9">
-        <v>524000</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>2034</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-676000</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>2880</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" s="9">
-        <v>5102414</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>2449</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-3096000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
-      <c r="A12" s="8">
-        <v>4938</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="9">
-        <v>474000</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>8261</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-612006</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>2610</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12" s="9">
-        <v>4515000</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>2448</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-2563000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
-      <c r="A13" s="8">
-        <v>3003</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="9">
-        <v>453000</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>2345</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-569000</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>2344</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="9">
-        <v>4448000</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>4938</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-2182000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
-      <c r="A14" s="8">
-        <v>2548</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="9">
-        <v>390000</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>1312</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-466000</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>2886</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="9">
-        <v>4213000</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>1216</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-2055000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
-      <c r="A15" s="8">
-        <v>1802</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="9">
-        <v>375000</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>1301</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-451000</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>2337</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>3808000</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>2498</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-2048500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
-      <c r="A16" s="8">
-        <v>2603</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="9">
-        <v>340000</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>1308</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-449000</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>2317</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="9">
-        <v>3691123</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>1909</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-2042000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
-      <c r="A17" s="8">
-        <v>2605</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="9">
-        <v>320000</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>3005</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-384000</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>2882</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="9">
-        <v>3300580</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>2349</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-1943000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
-      <c r="A18" s="8">
-        <v>1605</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="9">
-        <v>300000</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>8105</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-350000</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>4915</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="K18" s="9">
-        <v>3209000</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>2408</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-1825000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
-      <c r="A19" s="8">
-        <v>2456</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="9">
-        <v>265000</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>2377</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-346000</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>2603</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K19" s="9">
-        <v>3072000</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>2014</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-1791932</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
-      <c r="A20" s="8">
-        <v>1314</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="9">
-        <v>254000</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>3006</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-252000</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>2823</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="9">
-        <v>2674376</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>3006</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-1705000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
-      <c r="A21" s="8">
-        <v>2886</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="9">
-        <v>242000</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>1210</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-200000</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>3665</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="9">
-        <v>2444200</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>2356</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-1550000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
-      <c r="A22" s="8">
-        <v>9911</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="9">
-        <v>218000</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>2352</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-200000</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>3189</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="9">
-        <v>2342000</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>2323</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-1532000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
-      <c r="A23" s="8">
-        <v>3443</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="9">
-        <v>214000</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>3706</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-200000</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>6271</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" s="9">
-        <v>2163000</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>2887</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-1217917</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
-      <c r="A24" s="8">
-        <v>3346</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="9">
-        <v>211000</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>2393</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-199000</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>2301</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K24" s="9">
-        <v>1981496</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>2377</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-1210498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
-      <c r="A25" s="8">
-        <v>6269</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="9">
-        <v>210000</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>2439</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-198000</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>1605</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="9">
-        <v>1794000</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>1455</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-1204000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
-      <c r="A26" s="8">
-        <v>2314</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="9">
-        <v>200000</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>3034</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-190000</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>2324</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="9">
-        <v>1733000</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>9945</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-1055000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
-      <c r="A27" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="9">
-        <v>183000</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>8039</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-190000</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>1310</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K27" s="9">
-        <v>1661924</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>2618</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-1049000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
-      <c r="A28" s="8">
-        <v>1102</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="9">
-        <v>174000</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>2228</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-180000</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>2542</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K28" s="9">
-        <v>1652000</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>3545</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-973397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
-      <c r="A29" s="8">
-        <v>2360</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="9">
-        <v>157000</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>5305</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-178000</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>6213</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K29" s="9">
-        <v>1651000</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>1504</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-928000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
-      <c r="A30" s="8">
-        <v>4438</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="9">
-        <v>144000</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>1476</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-156000</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>2382</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K30" s="9">
-        <v>1543804</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>2912</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-754500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="4" customFormat="1">
-      <c r="A31" s="8">
-        <v>5907</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" s="9">
-        <v>140000</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="8">
-        <v>1262</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="10">
-        <v>-155000</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8">
-        <v>5871</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K31" s="9">
-        <v>1541899</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="8">
-        <v>2889</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="O31" s="10">
-        <v>-745000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="4" customFormat="1">
-      <c r="A32" s="8">
-        <v>2327</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="10">
-        <v>133000</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8">
-        <v>6456</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="10">
-        <v>-153000</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8">
-        <v>5264</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K32" s="10">
-        <v>1523000</v>
-      </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="8">
-        <v>2504</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="O32" s="10">
-        <v>-744000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="4" customFormat="1">
-      <c r="A33" s="8">
-        <v>1708</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="10">
-        <v>123000</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8">
-        <v>2421</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G33" s="10">
-        <v>-135000</v>
-      </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8">
-        <v>2311</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33" s="10">
-        <v>1471500</v>
-      </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="8">
-        <v>8150</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O33" s="10">
-        <v>-734000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="4" customFormat="1">
-      <c r="A34" s="8">
-        <v>1477</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="10">
-        <v>100000</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8">
-        <v>2204</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="10">
-        <v>-123000</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="8">
-        <v>4906</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K34" s="10">
-        <v>1438000</v>
-      </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="8">
-        <v>3037</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O34" s="10">
-        <v>-717510</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="4" customFormat="1">
-      <c r="A35" s="8">
-        <v>2104</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="10">
-        <v>100000</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8">
-        <v>2354</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="10">
-        <v>-120000</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="8">
-        <v>2633</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K35" s="10">
-        <v>1421000</v>
-      </c>
-      <c r="L35" s="7"/>
-      <c r="M35" s="8">
-        <v>1305</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O35" s="10">
-        <v>-664777</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="4" customFormat="1">
-      <c r="A36" s="8">
-        <v>1704</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="10">
-        <v>96000</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8">
-        <v>1319</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G36" s="10">
-        <v>-117000</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="8">
-        <v>1301</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36" s="10">
-        <v>1222016</v>
-      </c>
-      <c r="L36" s="7"/>
-      <c r="M36" s="8">
-        <v>2345</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O36" s="10">
-        <v>-642500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="4" customFormat="1">
-      <c r="A37" s="8">
-        <v>3450</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="10">
-        <v>95000</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8">
-        <v>2049</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="10">
-        <v>-111000</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8">
-        <v>2049</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K37" s="10">
-        <v>1203000</v>
-      </c>
-      <c r="L37" s="7"/>
-      <c r="M37" s="8">
-        <v>6269</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O37" s="10">
-        <v>-627000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="4" customFormat="1">
-      <c r="A38" s="8">
-        <v>5534</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="10">
-        <v>93000</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8">
-        <v>1101</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="10">
-        <v>-109000</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="8">
-        <v>3481</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K38" s="10">
-        <v>1128000</v>
-      </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="8">
-        <v>4956</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="O38" s="10">
-        <v>-582000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="4" customFormat="1">
-      <c r="A39" s="8">
-        <v>4935</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="10">
-        <v>88000</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8">
-        <v>2891</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="10">
-        <v>-109000</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="8">
-        <v>6257</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K39" s="10">
-        <v>1093000</v>
-      </c>
-      <c r="L39" s="7"/>
-      <c r="M39" s="8">
-        <v>3045</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O39" s="10">
-        <v>-578000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="4" customFormat="1">
-      <c r="A40" s="8">
-        <v>6525</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="10">
-        <v>68000</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8">
-        <v>3376</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" s="10">
-        <v>-108000</v>
-      </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="8">
-        <v>2801</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K40" s="10">
-        <v>1057000</v>
-      </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="8">
-        <v>1512</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O40" s="10">
-        <v>-561000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" s="4" customFormat="1" ht="19.2" thickBot="1">
-      <c r="A41" s="11">
-        <v>3545</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="13">
-        <v>50000</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8">
-        <v>1326</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="13">
-        <v>-106000</v>
-      </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="11">
-        <v>5880</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="K41" s="13">
-        <v>1056250</v>
-      </c>
-      <c r="L41" s="7"/>
-      <c r="M41" s="8">
-        <v>2634</v>
-      </c>
-      <c r="N41" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O41" s="13">
-        <v>-555000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B41 J2:J41">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F41 N2:N41">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/twse.xlsx
+++ b/twse.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="證交所" sheetId="9" r:id="rId1"/>
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="287">
   <si>
     <t>旺宏</t>
   </si>
@@ -1101,6 +1101,14 @@
   </si>
   <si>
     <t>健鼎</t>
+  </si>
+  <si>
+    <t>友達</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁寶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1404,7 +1412,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3335,10 +3357,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5047,10 +5069,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B41 J2:J41">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F41 N2:N41">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6759,10 +6781,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B41 J2:J41">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F41 N2:N41">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6773,8 +6795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -7020,8 +7042,8 @@
       <c r="M6" s="8">
         <v>2409</v>
       </c>
-      <c r="N6" s="16" t="s">
-        <v>56</v>
+      <c r="N6" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="O6" s="10">
         <v>-5975983</v>
@@ -8061,10 +8083,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8075,8 +8097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -8322,8 +8344,8 @@
       <c r="M6" s="8">
         <v>2324</v>
       </c>
-      <c r="N6" s="16" t="s">
-        <v>19</v>
+      <c r="N6" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="O6" s="10">
         <v>-8831690</v>
@@ -9363,10 +9385,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10665,10 +10687,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11967,10 +11989,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -13269,10 +13291,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -14571,10 +14593,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -15873,10 +15895,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -17175,10 +17197,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/twse.xlsx
+++ b/twse.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="證交所" sheetId="9" r:id="rId1"/>
@@ -1412,21 +1412,7 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -3357,10 +3343,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5069,10 +5055,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B41 J2:J41">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F41 N2:N41">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6781,10 +6767,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B41 J2:J41">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F41 N2:N41">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6795,8 +6781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -8083,10 +8069,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8097,8 +8083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -9385,10 +9371,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10687,10 +10673,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11989,10 +11975,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -13291,10 +13277,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -14593,10 +14579,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -15895,10 +15881,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -17197,10 +17183,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/twse.xlsx
+++ b/twse.xlsx
@@ -13,85 +13,92 @@
   </bookViews>
   <sheets>
     <sheet name="證交所" sheetId="9" r:id="rId1"/>
-    <sheet name="1061113" sheetId="15" r:id="rId2"/>
-    <sheet name="1061110" sheetId="14" r:id="rId3"/>
-    <sheet name="1061109" sheetId="13" r:id="rId4"/>
-    <sheet name="1061108" sheetId="12" r:id="rId5"/>
-    <sheet name="1060307" sheetId="11" r:id="rId6"/>
-    <sheet name="1060306" sheetId="10" r:id="rId7"/>
-    <sheet name="1060303" sheetId="8" r:id="rId8"/>
-    <sheet name="1060302" sheetId="7" r:id="rId9"/>
-    <sheet name="1060301" sheetId="6" r:id="rId10"/>
-    <sheet name="1060224" sheetId="1" r:id="rId11"/>
-    <sheet name="1060223" sheetId="5" r:id="rId12"/>
+    <sheet name="1061114" sheetId="16" r:id="rId2"/>
+    <sheet name="1061113" sheetId="15" r:id="rId3"/>
+    <sheet name="1061110" sheetId="14" r:id="rId4"/>
+    <sheet name="1061109" sheetId="13" r:id="rId5"/>
+    <sheet name="1061108" sheetId="12" r:id="rId6"/>
+    <sheet name="1060307" sheetId="11" r:id="rId7"/>
+    <sheet name="1060306" sheetId="10" r:id="rId8"/>
+    <sheet name="1060303" sheetId="8" r:id="rId9"/>
+    <sheet name="1060302" sheetId="7" r:id="rId10"/>
+    <sheet name="1060301" sheetId="6" r:id="rId11"/>
+    <sheet name="1060224" sheetId="1" r:id="rId12"/>
+    <sheet name="1060223" sheetId="5" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="11">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="10">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="9">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1061108'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1061109'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1061110'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="11">'1060223'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="10">'1060224'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1060301'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1060302'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1060303'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1060306'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1060307'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1061108'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1061109'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1061110'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061113'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U_1" localSheetId="11">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="10">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1061110'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="11">'1060223'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="10">'1060224'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1060301'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1060302'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1060303'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1060306'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1060307'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1061108'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1061109'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1061110'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061113'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="11">'1060223'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="10">'1060224'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1060301'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1060302'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1060303'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1060306'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1060307'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1061108'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1061109'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1061110'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061113'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="11">'1060223'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="10">'1060224'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1060301'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1060302'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1060303'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1060306'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1060307'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1061108'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1061109'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1061110'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061113'!$I$1:$K$31</definedName>
+    <definedName name="TWT38U" localSheetId="12">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="11">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1061109'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1061110'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061113'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="12">'1060223'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="11">'1060224'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1060301'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1060302'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1060303'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1060306'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1060307'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1061108'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1061109'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1061110'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061113'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061114'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U_1" localSheetId="12">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="11">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1061110'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="12">'1060223'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="11">'1060224'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1060301'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1060302'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1060303'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1060306'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1060307'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1061108'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1061109'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1061110'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061113'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061114'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="12">'1060223'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="11">'1060224'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1060301'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1060302'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1060303'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1060306'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1060307'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1061108'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1061109'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1061110'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061113'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061114'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="12">'1060223'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="11">'1060224'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1060301'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1060302'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1060303'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1060306'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1060307'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1061108'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1061109'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1061110'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061113'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061114'!$I$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -134,113 +141,125 @@
   <connection id="10" name="連線111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="11" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="11" name="連線1111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="12" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="12" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="13" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="13" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="14" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="14" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="15" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="15" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="16" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="16" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="17" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="18" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="37" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="38" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="39" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="40" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="41" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="41" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="42" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="42" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="43" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="43" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="44" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="44" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="45" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="46" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="47" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="48" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="297">
   <si>
     <t>旺宏</t>
   </si>
@@ -1109,6 +1128,36 @@
   <si>
     <t>仁寶</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國精化</t>
+  </si>
+  <si>
+    <t>亞德客-KY</t>
+  </si>
+  <si>
+    <t>友通</t>
+  </si>
+  <si>
+    <t>愛普</t>
+  </si>
+  <si>
+    <t>英利-KY</t>
+  </si>
+  <si>
+    <t>百容</t>
+  </si>
+  <si>
+    <t>神隆</t>
+  </si>
+  <si>
+    <t>王道銀行</t>
+  </si>
+  <si>
+    <t>如興</t>
+  </si>
+  <si>
+    <t>泰金寶-DR</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1461,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1581,179 +1644,195 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2022,7 +2101,7 @@
   <dimension ref="B3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2052,6 +2131,1308 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2603</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9">
+        <v>3213000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>8105</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-2243000</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2371</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="9">
+        <v>13734000</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>2884</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-88613426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2886</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1838000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>2409</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-1500000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2891</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="9">
+        <v>12548070</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2609</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-13534000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1360000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>1303</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-1054000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>2603</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="9">
+        <v>9029985</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>2409</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-6203646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2891</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9">
+        <v>922000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>2376</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-795000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2330</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="9">
+        <v>8552621</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>2890</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-5345902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2345</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9">
+        <v>865000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>6191</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-649850</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>3481</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="9">
+        <v>8407458</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>1216</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-4502512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>1305</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9">
+        <v>800000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>2421</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-627000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2313</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="9">
+        <v>7444000</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>2412</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-3621980</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>2344</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="9">
+        <v>638000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>6456</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-490000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>1605</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="9">
+        <v>7329000</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>2356</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-3481861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>1909</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="9">
+        <v>634000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>2034</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-480000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>2303</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="9">
+        <v>7012401</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>2301</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-2470708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2492</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9">
+        <v>630000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>3481</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-478000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>2885</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="9">
+        <v>6799146</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>2353</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-2307600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>2609</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>460000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2377</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-464000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>2823</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="9">
+        <v>6759996</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>3045</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-2250869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2882</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="9">
+        <v>289000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>6505</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-459000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>2317</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="9">
+        <v>6572570</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>4904</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-2142852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>1216</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="9">
+        <v>270000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>1301</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-425000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>2881</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="9">
+        <v>5350984</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>6176</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-1911000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>1802</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="9">
+        <v>260000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>2354</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-394500</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>2610</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" s="9">
+        <v>5203522</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>2886</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-1830498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="9">
+        <v>236000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>6271</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-329000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>1512</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K15" s="9">
+        <v>4939000</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>2344</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-1730000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>5871</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="9">
+        <v>232000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>2355</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-306000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>2324</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="9">
+        <v>4311888</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>2327</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-1728947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>1704</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9">
+        <v>220000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>5305</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-291000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>2883</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="9">
+        <v>4213034</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>2492</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-1726000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>9938</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="9">
+        <v>175000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>2881</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-267000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>2887</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="9">
+        <v>3455164</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-1724000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="9">
+        <v>173000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>2382</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-244000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>2882</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="9">
+        <v>3439344</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>2915</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-1707278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>3450</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="9">
+        <v>153000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>4958</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-224000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>1314</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" s="9">
+        <v>3310000</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>1310</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-1650999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>1215</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9">
+        <v>150000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>3706</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-209764</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>2633</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="9">
+        <v>3295000</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>1312</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-1469000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>3443</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="9">
+        <v>136000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>1455</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-208000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>3673</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" s="9">
+        <v>3270000</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>2354</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-1404582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>2605</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="9">
+        <v>127000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>4919</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-208000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>5871</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="9">
+        <v>2718274</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>2405</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-1384000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>8411</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="9">
+        <v>112000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>6269</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-203000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>8105</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="9">
+        <v>2559000</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>1909</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1349000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>2360</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="9">
+        <v>107000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>2379</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-196000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>3702</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" s="9">
+        <v>2324054</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>2449</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1305000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>1605</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>2115</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-182000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>2382</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="9">
+        <v>2299576</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>3189</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1248860</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>1708</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>2105</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-175000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>2880</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K27" s="9">
+        <v>2226654</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>2352</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1246000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>3533</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>1560</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-145000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>2458</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28" s="9">
+        <v>2136001</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>2102</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-1214000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>9939</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>2383</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-137000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>2105</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1797078</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>9945</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1200126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>5243</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="9">
+        <v>90000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>9933</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-128000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>2454</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1760067</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>2337</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-1195000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>5534</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="17">
+        <v>83000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>4746</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-126000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>3035</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="17">
+        <v>1658000</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>5305</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-980000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -3343,17 +4724,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -5055,17 +6436,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B41 J2:J41">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F41 N2:N41">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -6767,10 +8148,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B41 J2:J41">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F41 N2:N41">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6782,26 +8163,25 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="4" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="16.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="4" customWidth="1"/>
     <col min="14" max="14" width="16.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -6832,33 +8212,33 @@
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
-        <v>6271</v>
+        <v>2344</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C2" s="9">
-        <v>2048000</v>
+        <v>1939000</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="8">
-        <v>2610</v>
+        <v>2892</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="G2" s="10">
-        <v>-4548000</v>
+        <v>-1985300</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8">
-        <v>2408</v>
+        <v>2353</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="K2" s="9">
-        <v>65422792</v>
+        <v>15973000</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="8">
@@ -6868,1196 +8248,1196 @@
         <v>157</v>
       </c>
       <c r="O2" s="10">
-        <v>-16072000</v>
+        <v>-13597000</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
-        <v>1305</v>
+        <v>2311</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C3" s="9">
-        <v>1698000</v>
+        <v>1600000</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="8">
-        <v>2337</v>
+        <v>2031</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="G3" s="10">
-        <v>-2477000</v>
+        <v>-795000</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="8">
-        <v>2353</v>
+        <v>2345</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="K3" s="9">
-        <v>20651968</v>
+        <v>10104000</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="8">
-        <v>2603</v>
+        <v>2317</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="O3" s="10">
-        <v>-12017050</v>
+        <v>-9795809</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
-        <v>2311</v>
+        <v>5871</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="C4" s="9">
-        <v>1384000</v>
+        <v>1276000</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="8">
-        <v>1909</v>
+        <v>2367</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="G4" s="10">
-        <v>-1174997</v>
+        <v>-755000</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8">
-        <v>2448</v>
+        <v>2884</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K4" s="9">
-        <v>11122973</v>
+        <v>9491493</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="8">
-        <v>2356</v>
+        <v>2603</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="O4" s="10">
-        <v>-6399000</v>
+        <v>-8303000</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
-        <v>6176</v>
+        <v>3532</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="C5" s="9">
-        <v>1268000</v>
+        <v>824000</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="8">
-        <v>2002</v>
+        <v>2313</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G5" s="10">
-        <v>-937000</v>
+        <v>-737000</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="8">
-        <v>1314</v>
+        <v>2610</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="K5" s="9">
-        <v>10769000</v>
+        <v>7816500</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="8">
-        <v>2301</v>
+        <v>2892</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="O5" s="10">
-        <v>-6042471</v>
+        <v>-6478325</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
-        <v>3532</v>
+        <v>5243</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c r="C6" s="9">
-        <v>1146000</v>
+        <v>650000</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="8">
-        <v>1313</v>
+        <v>2337</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="G6" s="10">
-        <v>-813750</v>
+        <v>-719741</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="8">
-        <v>1710</v>
+        <v>6153</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="K6" s="9">
-        <v>7688000</v>
+        <v>5908000</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="8">
-        <v>2409</v>
+        <v>3231</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>285</v>
+        <v>48</v>
       </c>
       <c r="O6" s="10">
-        <v>-5975983</v>
+        <v>-5476219</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
-        <v>2891</v>
+        <v>2345</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C7" s="9">
-        <v>1130000</v>
+        <v>618000</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8">
-        <v>2317</v>
+        <v>2023</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="G7" s="10">
-        <v>-796000</v>
+        <v>-600000</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="8">
-        <v>2337</v>
+        <v>2311</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K7" s="9">
-        <v>5131750</v>
+        <v>5849967</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="8">
-        <v>4938</v>
+        <v>2313</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="O7" s="10">
-        <v>-4830038</v>
+        <v>-4822938</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
-        <v>5871</v>
+        <v>2408</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C8" s="9">
-        <v>944000</v>
+        <v>567000</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="8">
-        <v>9910</v>
+        <v>3006</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>270</v>
+        <v>176</v>
       </c>
       <c r="G8" s="10">
-        <v>-667000</v>
+        <v>-519000</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="8">
-        <v>2313</v>
+        <v>3481</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="K8" s="9">
-        <v>4277875</v>
+        <v>5607283</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="8">
-        <v>2882</v>
+        <v>2408</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="O8" s="10">
-        <v>-4554062</v>
+        <v>-4613365</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>2915</v>
+        <v>3041</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="C9" s="9">
-        <v>900000</v>
+        <v>458000</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8">
-        <v>3443</v>
+        <v>6153</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>95</v>
+        <v>259</v>
       </c>
       <c r="G9" s="10">
-        <v>-650000</v>
+        <v>-483000</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8">
-        <v>2610</v>
+        <v>2344</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="K9" s="9">
-        <v>3532967</v>
+        <v>5104933</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="8">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="O9" s="10">
-        <v>-4379289</v>
+        <v>-4589976</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>1101</v>
+        <v>6271</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" s="9">
-        <v>567000</v>
+        <v>426000</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8">
-        <v>3545</v>
+        <v>2239</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="G10" s="10">
-        <v>-642000</v>
+        <v>-455000</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="8">
-        <v>1312</v>
+        <v>1710</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="K10" s="9">
-        <v>3253000</v>
+        <v>5024000</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="8">
-        <v>2892</v>
+        <v>2324</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="O10" s="10">
-        <v>-4157354</v>
+        <v>-4095575</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>3041</v>
+        <v>4943</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C11" s="9">
-        <v>534000</v>
+        <v>410000</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="8">
-        <v>3036</v>
+        <v>1476</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="G11" s="10">
-        <v>-558000</v>
+        <v>-450000</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="8">
-        <v>3231</v>
+        <v>2303</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="K11" s="9">
-        <v>3185626</v>
+        <v>4551832</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="8">
-        <v>4958</v>
+        <v>2885</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="O11" s="10">
-        <v>-3620000</v>
+        <v>-3885130</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
-        <v>6257</v>
+        <v>4958</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="C12" s="9">
-        <v>400000</v>
+        <v>352000</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="8">
-        <v>3665</v>
+        <v>2448</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="G12" s="10">
-        <v>-554000</v>
+        <v>-438000</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="8">
-        <v>1605</v>
+        <v>2897</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="K12" s="9">
-        <v>2689000</v>
+        <v>4111000</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="8">
-        <v>4960</v>
+        <v>1314</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="O12" s="10">
-        <v>-3536000</v>
+        <v>-3568925</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <v>2474</v>
+        <v>3413</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>253</v>
+        <v>37</v>
       </c>
       <c r="C13" s="9">
-        <v>334000</v>
+        <v>200000</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8">
-        <v>2345</v>
+        <v>2351</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="G13" s="10">
-        <v>-513000</v>
+        <v>-434000</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="8">
-        <v>2002</v>
+        <v>1312</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="9">
-        <v>2504435</v>
+        <v>3232000</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="8">
-        <v>2915</v>
+        <v>5871</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="O13" s="10">
-        <v>-3501000</v>
+        <v>-3232468</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <v>2448</v>
+        <v>5264</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="C14" s="9">
-        <v>312000</v>
+        <v>190000</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8">
-        <v>1536</v>
+        <v>1568</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="G14" s="10">
-        <v>-500000</v>
+        <v>-414000</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8">
-        <v>1714</v>
+        <v>2887</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="K14" s="9">
-        <v>1925000</v>
+        <v>3206556</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="8">
-        <v>2352</v>
+        <v>9105</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="O14" s="10">
-        <v>-3399000</v>
+        <v>-3025000</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>2456</v>
+        <v>2915</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="C15" s="9">
-        <v>300000</v>
+        <v>124000</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="8">
-        <v>2105</v>
+        <v>1515</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="G15" s="10">
-        <v>-481000</v>
+        <v>-410000</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="8">
-        <v>2357</v>
+        <v>2002</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>273</v>
+        <v>50</v>
       </c>
       <c r="K15" s="9">
-        <v>1865000</v>
+        <v>3049783</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="8">
-        <v>2834</v>
+        <v>2823</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="O15" s="10">
-        <v>-3272000</v>
+        <v>-2975113</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>3645</v>
+        <v>4977</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="C16" s="9">
-        <v>265000</v>
+        <v>109000</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="8">
-        <v>1476</v>
+        <v>2610</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G16" s="10">
-        <v>-463280</v>
+        <v>-350000</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="8">
-        <v>2344</v>
+        <v>2458</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="K16" s="9">
-        <v>1851287</v>
+        <v>2870000</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="8">
-        <v>6153</v>
+        <v>2301</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="O16" s="10">
-        <v>-2578000</v>
+        <v>-2946991</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>2104</v>
+        <v>3653</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="C17" s="9">
-        <v>235000</v>
+        <v>100000</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="8">
-        <v>2492</v>
+        <v>2029</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="G17" s="10">
-        <v>-459000</v>
+        <v>-281000</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="8">
-        <v>1310</v>
+        <v>6456</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="K17" s="9">
-        <v>1780000</v>
+        <v>2622000</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="8">
-        <v>2881</v>
+        <v>2352</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="O17" s="10">
-        <v>-2543000</v>
+        <v>-2252000</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>2356</v>
+        <v>6257</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="C18" s="9">
-        <v>210000</v>
+        <v>85000</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="8">
-        <v>8105</v>
+        <v>2481</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="G18" s="10">
-        <v>-400000</v>
+        <v>-271000</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8">
-        <v>2311</v>
+        <v>4414</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="K18" s="9">
-        <v>1523164</v>
+        <v>2502000</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="8">
-        <v>2303</v>
+        <v>8150</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="O18" s="10">
-        <v>-2507200</v>
+        <v>-2125000</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>5880</v>
+        <v>1305</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="C19" s="9">
-        <v>207000</v>
+        <v>74000</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="8">
-        <v>2412</v>
+        <v>2317</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="G19" s="10">
-        <v>-360000</v>
+        <v>-267400</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="8">
-        <v>2609</v>
+        <v>2409</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="K19" s="9">
-        <v>1481032</v>
+        <v>2463734</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="8">
-        <v>8150</v>
+        <v>4960</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="O19" s="10">
-        <v>-2298034</v>
+        <v>-2072000</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>1301</v>
+        <v>4722</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>71</v>
+        <v>287</v>
       </c>
       <c r="C20" s="9">
-        <v>206000</v>
+        <v>60000</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="8">
-        <v>6213</v>
+        <v>6269</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="G20" s="10">
-        <v>-263000</v>
+        <v>-229000</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="8">
-        <v>2367</v>
+        <v>2618</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="K20" s="9">
-        <v>1407000</v>
+        <v>2400240</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="8">
-        <v>2614</v>
+        <v>9904</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="O20" s="10">
-        <v>-2266000</v>
+        <v>-1996191</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
-        <v>2360</v>
+        <v>2383</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="C21" s="9">
-        <v>204000</v>
+        <v>51000</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="8">
-        <v>3006</v>
+        <v>9910</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="G21" s="10">
-        <v>-261000</v>
+        <v>-220000</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8">
-        <v>3481</v>
+        <v>1216</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="K21" s="9">
-        <v>1379747</v>
+        <v>2285245</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="8">
-        <v>1609</v>
+        <v>2888</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>275</v>
+        <v>102</v>
       </c>
       <c r="O21" s="10">
-        <v>-2124000</v>
+        <v>-1852498</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>1229</v>
+        <v>1590</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>114</v>
+        <v>288</v>
       </c>
       <c r="C22" s="9">
-        <v>199000</v>
+        <v>41611</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="8">
-        <v>2029</v>
+        <v>1319</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="G22" s="10">
-        <v>-240000</v>
+        <v>-215000</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="8">
-        <v>3035</v>
+        <v>1310</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="K22" s="9">
-        <v>1324000</v>
+        <v>2164000</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="8">
-        <v>2481</v>
+        <v>2330</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>252</v>
+        <v>89</v>
       </c>
       <c r="O22" s="10">
-        <v>-2114000</v>
+        <v>-1832296</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>2892</v>
+        <v>4968</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="C23" s="9">
-        <v>182000</v>
+        <v>35000</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="8">
-        <v>2313</v>
+        <v>6525</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G23" s="10">
-        <v>-219000</v>
+        <v>-196000</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="8">
-        <v>1457</v>
+        <v>2367</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="K23" s="9">
-        <v>1270000</v>
+        <v>2090000</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="8">
-        <v>6456</v>
+        <v>2105</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="O23" s="10">
-        <v>-2105000</v>
+        <v>-1788476</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>2351</v>
+        <v>2049</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="C24" s="9">
-        <v>130000</v>
+        <v>25000</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="8">
-        <v>1589</v>
+        <v>3661</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G24" s="10">
-        <v>-210000</v>
+        <v>-193000</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="8">
-        <v>2104</v>
+        <v>3035</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K24" s="9">
-        <v>1156000</v>
+        <v>2062000</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="8">
-        <v>2888</v>
+        <v>1305</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="O24" s="10">
-        <v>-1954326</v>
+        <v>-1759792</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>3005</v>
+        <v>2397</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>70</v>
+        <v>289</v>
       </c>
       <c r="C25" s="9">
-        <v>120000</v>
+        <v>25000</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="8">
-        <v>4746</v>
+        <v>1909</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="G25" s="10">
-        <v>-207000</v>
+        <v>-182000</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="8">
-        <v>4906</v>
+        <v>1605</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="K25" s="9">
-        <v>1109000</v>
+        <v>1920000</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="8">
-        <v>2890</v>
+        <v>2915</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="O25" s="10">
-        <v>-1887179</v>
+        <v>-1656000</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>6525</v>
+        <v>3533</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C26" s="9">
-        <v>102000</v>
+        <v>25000</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="8">
-        <v>2314</v>
+        <v>1512</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="G26" s="10">
-        <v>-200000</v>
+        <v>-176000</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="8">
-        <v>2317</v>
+        <v>2474</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>64</v>
+        <v>253</v>
       </c>
       <c r="K26" s="9">
-        <v>1067914</v>
+        <v>1700456</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="8">
-        <v>8105</v>
+        <v>4938</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="O26" s="10">
-        <v>-1792387</v>
+        <v>-1648555</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>6552</v>
+        <v>6531</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="C27" s="9">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="8">
-        <v>4958</v>
+        <v>2483</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="G27" s="10">
-        <v>-196000</v>
+        <v>-176000</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="8">
-        <v>1216</v>
+        <v>6202</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="K27" s="9">
-        <v>900019</v>
+        <v>1388000</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="8">
-        <v>2323</v>
+        <v>2883</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="O27" s="10">
-        <v>-1720000</v>
+        <v>-1565520</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>2845</v>
+        <v>1101</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>263</v>
+        <v>68</v>
       </c>
       <c r="C28" s="9">
-        <v>99000</v>
+        <v>24000</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="8">
-        <v>2027</v>
+        <v>2354</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="G28" s="10">
-        <v>-193000</v>
+        <v>-173000</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="8">
-        <v>2458</v>
+        <v>2448</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="K28" s="9">
-        <v>877829</v>
+        <v>1381206</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="8">
-        <v>2884</v>
+        <v>4958</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="O28" s="10">
-        <v>-1646129</v>
+        <v>-1524000</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
-        <v>2812</v>
+        <v>2456</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="C29" s="9">
-        <v>98000</v>
+        <v>24000</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="8">
-        <v>4919</v>
+        <v>1312</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="G29" s="10">
-        <v>-185000</v>
+        <v>-170000</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="8">
-        <v>2634</v>
+        <v>2337</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K29" s="9">
-        <v>744000</v>
+        <v>1304126</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="8">
-        <v>1305</v>
+        <v>2801</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="O29" s="10">
-        <v>-1621606</v>
+        <v>-1517447</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
-        <v>3653</v>
+        <v>6239</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="C30" s="9">
-        <v>90000</v>
+        <v>24000</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="8">
-        <v>3045</v>
+        <v>1789</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>101</v>
+        <v>293</v>
       </c>
       <c r="G30" s="10">
-        <v>-180000</v>
+        <v>-169270</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="8">
-        <v>2421</v>
+        <v>2376</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="K30" s="9">
-        <v>726000</v>
+        <v>1292000</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="8">
-        <v>3041</v>
+        <v>2393</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="O30" s="10">
-        <v>-1585000</v>
+        <v>-1472168</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
-        <v>4943</v>
+        <v>1326</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>269</v>
+        <v>96</v>
       </c>
       <c r="C31" s="17">
-        <v>79000</v>
+        <v>21000</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="11">
-        <v>1568</v>
+        <v>2421</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="G31" s="13">
         <v>-150000</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="11">
-        <v>5871</v>
+        <v>6176</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K31" s="17">
-        <v>720439</v>
+        <v>1264667</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="11">
-        <v>6176</v>
+        <v>8105</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="O31" s="13">
-        <v>-1576920</v>
+        <v>-1392000</v>
       </c>
     </row>
   </sheetData>
@@ -8069,10 +9449,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8080,6 +9460,1307 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="16.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>6271</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2048000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2610</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-4548000</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2408</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="9">
+        <v>65422792</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-16072000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1305</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1698000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>2337</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-2477000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2353</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" s="9">
+        <v>20651968</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2603</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-12017050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2311</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1384000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>1909</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-1174997</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>2448</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="9">
+        <v>11122973</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>2356</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-6399000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>6176</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1268000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>2002</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-937000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>1314</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="9">
+        <v>10769000</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>2301</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-6042471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>3532</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1146000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>1313</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-813750</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>1710</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K6" s="9">
+        <v>7688000</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>2409</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-5975983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2891</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1130000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>2317</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-796000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2337</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>5131750</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>4938</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-4830038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>5871</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="9">
+        <v>944000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>9910</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-667000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>2313</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="9">
+        <v>4277875</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>2882</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-4554062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>2915</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="9">
+        <v>900000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>3443</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-650000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>2610</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="9">
+        <v>3532967</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>2885</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-4379289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>1101</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="9">
+        <v>567000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>3545</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-642000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>1312</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="9">
+        <v>3253000</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>2892</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-4157354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3041</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="9">
+        <v>534000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>3036</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-558000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>3231</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="9">
+        <v>3185626</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>4958</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-3620000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>6257</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="9">
+        <v>400000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>3665</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-554000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>1605</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2689000</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>4960</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-3536000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>2474</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="9">
+        <v>334000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>2345</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-513000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>2002</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2504435</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>2915</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-3501000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2448</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9">
+        <v>312000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>1536</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-500000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>1714</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1925000</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>2352</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-3399000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>2456</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="9">
+        <v>300000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>2105</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-481000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>2357</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1865000</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>2834</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-3272000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>3645</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="9">
+        <v>265000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>1476</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-463280</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>2344</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1851287</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>6153</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-2578000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>2104</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="9">
+        <v>235000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>2492</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-459000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>1310</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1780000</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>2881</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-2543000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>2356</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="9">
+        <v>210000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>8105</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-400000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>2311</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1523164</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>2303</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-2507200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>5880</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="9">
+        <v>207000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>2412</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-360000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>2609</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1481032</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>8150</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-2298034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>1301</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="9">
+        <v>206000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>6213</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-263000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>2367</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1407000</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>2614</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-2266000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>2360</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="9">
+        <v>204000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>3006</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-261000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>3481</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1379747</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>1609</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-2124000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>1229</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="9">
+        <v>199000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>2029</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-240000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>3035</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1324000</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>2481</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-2114000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>2892</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="9">
+        <v>182000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>2313</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-219000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>1457</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1270000</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>6456</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-2105000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>2351</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="9">
+        <v>130000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>1589</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-210000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>2104</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1156000</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>2888</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1954326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>3005</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="9">
+        <v>120000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>4746</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-207000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>4906</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1109000</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>2890</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1887179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>6525</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="9">
+        <v>102000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>2314</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>2317</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1067914</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>8105</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1792387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>6552</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>4958</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-196000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>1216</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" s="9">
+        <v>900019</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>2323</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1720000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>2845</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="9">
+        <v>99000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>2027</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-193000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>2458</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28" s="9">
+        <v>877829</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>2884</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-1646129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>2812</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="9">
+        <v>98000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>4919</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-185000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>2634</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="9">
+        <v>744000</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>1305</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1621606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>3653</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="9">
+        <v>90000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>3045</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-180000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>2421</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K30" s="9">
+        <v>726000</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>3041</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-1585000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>4943</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C31" s="17">
+        <v>79000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>1568</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-150000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>5871</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K31" s="17">
+        <v>720439</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>6176</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-1576920</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -9371,17 +12052,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -10673,17 +13354,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -11975,17 +14656,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -13277,17 +15958,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -14579,17 +17260,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -15881,1312 +18562,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>2603</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="9">
-        <v>3213000</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>8105</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-2243000</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>2371</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="9">
-        <v>13734000</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>2884</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-88613426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>2886</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1838000</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>2409</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-1500000</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>2891</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="9">
-        <v>12548070</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>2609</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-13534000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1360000</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>1303</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-1054000</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>2603</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="9">
-        <v>9029985</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>2409</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-6203646</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>2891</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9">
-        <v>922000</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>2376</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-795000</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>2330</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="9">
-        <v>8552621</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>2890</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-5345902</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>2345</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="9">
-        <v>865000</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>6191</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-649850</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>3481</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="9">
-        <v>8407458</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>1216</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-4502512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>1305</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="9">
-        <v>800000</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>2421</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-627000</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>2313</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="9">
-        <v>7444000</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>2412</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-3621980</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>2344</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="9">
-        <v>638000</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>6456</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-490000</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>1605</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="9">
-        <v>7329000</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>2356</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-3481861</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>1909</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="9">
-        <v>634000</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>2034</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-480000</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>2303</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="9">
-        <v>7012401</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>2301</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-2470708</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>2492</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="9">
-        <v>630000</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>3481</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-478000</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>2885</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="9">
-        <v>6799146</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>2353</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-2307600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>2609</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9">
-        <v>460000</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>2377</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-464000</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>2823</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="9">
-        <v>6759996</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>3045</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-2250869</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>2882</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="9">
-        <v>289000</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>6505</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-459000</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>2317</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="9">
-        <v>6572570</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>4904</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-2142852</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>1216</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="9">
-        <v>270000</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>1301</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-425000</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>2881</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="9">
-        <v>5350984</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>6176</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-1911000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>1802</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="9">
-        <v>260000</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>2354</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-394500</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>2610</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K14" s="9">
-        <v>5203522</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>2886</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-1830498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="9">
-        <v>236000</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>6271</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-329000</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>1512</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K15" s="9">
-        <v>4939000</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>2344</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-1730000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>5871</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="9">
-        <v>232000</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>2355</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-306000</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>2324</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="9">
-        <v>4311888</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>2327</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-1728947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>1704</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="9">
-        <v>220000</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>5305</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-291000</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>2883</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="9">
-        <v>4213034</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>2492</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-1726000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>9938</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="9">
-        <v>175000</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>2881</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-267000</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>2887</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="9">
-        <v>3455164</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>6116</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-1724000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>2009</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" s="9">
-        <v>173000</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>2382</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-244000</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>2882</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="9">
-        <v>3439344</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>2915</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-1707278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>3450</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="9">
-        <v>153000</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>4958</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-224000</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>1314</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K20" s="9">
-        <v>3310000</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>1310</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-1650999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>1215</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="9">
-        <v>150000</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>3706</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-209764</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>2633</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K21" s="9">
-        <v>3295000</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>1312</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-1469000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>3443</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="9">
-        <v>136000</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>1455</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-208000</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>3673</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K22" s="9">
-        <v>3270000</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>2354</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-1404582</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>2605</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="9">
-        <v>127000</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>4919</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-208000</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>5871</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K23" s="9">
-        <v>2718274</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>2405</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-1384000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>8411</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="9">
-        <v>112000</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>6269</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-203000</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>8105</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K24" s="9">
-        <v>2559000</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>1909</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-1349000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>2360</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="9">
-        <v>107000</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>2379</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-196000</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>3702</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="K25" s="9">
-        <v>2324054</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>2449</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-1305000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>1605</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>2115</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-182000</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>2382</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K26" s="9">
-        <v>2299576</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>3189</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-1248860</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>1708</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>2105</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-175000</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>2880</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K27" s="9">
-        <v>2226654</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>2352</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-1246000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>3533</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>1560</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-145000</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>2458</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K28" s="9">
-        <v>2136001</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>2102</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-1214000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>9939</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>2383</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-137000</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>2105</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K29" s="9">
-        <v>1797078</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>9945</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-1200126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>5243</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="9">
-        <v>90000</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>9933</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-128000</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>2454</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K30" s="9">
-        <v>1760067</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>2337</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-1195000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11">
-        <v>5534</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="17">
-        <v>83000</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="11">
-        <v>4746</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="G31" s="13">
-        <v>-126000</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="11">
-        <v>3035</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="17">
-        <v>1658000</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="11">
-        <v>5305</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="O31" s="13">
-        <v>-980000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/twse.xlsx
+++ b/twse.xlsx
@@ -13,92 +13,99 @@
   </bookViews>
   <sheets>
     <sheet name="證交所" sheetId="9" r:id="rId1"/>
-    <sheet name="1061114" sheetId="16" r:id="rId2"/>
-    <sheet name="1061113" sheetId="15" r:id="rId3"/>
-    <sheet name="1061110" sheetId="14" r:id="rId4"/>
-    <sheet name="1061109" sheetId="13" r:id="rId5"/>
-    <sheet name="1061108" sheetId="12" r:id="rId6"/>
-    <sheet name="1060307" sheetId="11" r:id="rId7"/>
-    <sheet name="1060306" sheetId="10" r:id="rId8"/>
-    <sheet name="1060303" sheetId="8" r:id="rId9"/>
-    <sheet name="1060302" sheetId="7" r:id="rId10"/>
-    <sheet name="1060301" sheetId="6" r:id="rId11"/>
-    <sheet name="1060224" sheetId="1" r:id="rId12"/>
-    <sheet name="1060223" sheetId="5" r:id="rId13"/>
+    <sheet name="1061115" sheetId="17" r:id="rId2"/>
+    <sheet name="1061114" sheetId="16" r:id="rId3"/>
+    <sheet name="1061113" sheetId="15" r:id="rId4"/>
+    <sheet name="1061110" sheetId="14" r:id="rId5"/>
+    <sheet name="1061109" sheetId="13" r:id="rId6"/>
+    <sheet name="1061108" sheetId="12" r:id="rId7"/>
+    <sheet name="1060307" sheetId="11" r:id="rId8"/>
+    <sheet name="1060306" sheetId="10" r:id="rId9"/>
+    <sheet name="1060303" sheetId="8" r:id="rId10"/>
+    <sheet name="1060302" sheetId="7" r:id="rId11"/>
+    <sheet name="1060301" sheetId="6" r:id="rId12"/>
+    <sheet name="1060224" sheetId="1" r:id="rId13"/>
+    <sheet name="1060223" sheetId="5" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="12">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="11">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="10">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="9">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1061108'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1061109'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1061110'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1061113'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061114'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="12">'1060223'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="11">'1060224'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="10">'1060301'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1060302'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1060303'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1060306'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1060307'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1061108'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1061109'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1061110'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1061113'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061114'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U_1" localSheetId="12">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="11">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="10">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1061110'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061114'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="12">'1060223'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="11">'1060224'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="10">'1060301'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1060302'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1060303'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1060306'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1060307'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1061108'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1061109'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1061110'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1061113'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061114'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="12">'1060223'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="11">'1060224'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="10">'1060301'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1060302'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1060303'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1060306'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1060307'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1061108'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1061109'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1061110'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1061113'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061114'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="12">'1060223'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="11">'1060224'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="10">'1060301'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1060302'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1060303'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1060306'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1060307'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1061108'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1061109'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1061110'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1061113'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061114'!$I$1:$K$31</definedName>
+    <definedName name="TWT38U" localSheetId="13">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="12">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="11">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1061109'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1061110'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1061113'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061114'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061115'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="13">'1060223'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="12">'1060224'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="11">'1060301'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1060302'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1060303'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1060306'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1060307'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1061108'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1061109'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1061110'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1061113'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061114'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061115'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U_1" localSheetId="13">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="12">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="11">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1061110'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061115'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="13">'1060223'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="12">'1060224'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="11">'1060301'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1060302'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1060303'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1060306'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1060307'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1061108'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1061109'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1061110'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1061113'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061114'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061115'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="13">'1060223'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="12">'1060224'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="11">'1060301'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1060302'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1060303'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1060306'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1060307'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1061108'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1061109'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1061110'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1061113'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061114'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061115'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="13">'1060223'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="12">'1060224'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="11">'1060301'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1060302'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1060303'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1060306'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1060307'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1061108'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1061109'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1061110'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1061113'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061114'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061115'!$I$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -144,122 +151,134 @@
   <connection id="11" name="連線1111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="12" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="12" name="連線11111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="13" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="13" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="14" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="14" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="15" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="15" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="16" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="16" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="17" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="18" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="37" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="38" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="39" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="40" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="41" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="41" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="42" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="42" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="43" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="43" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="44" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="44" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="45" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="45" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="46" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="46" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="47" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="47" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="48" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="48" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="49" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="50" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="51" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="52" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="303">
   <si>
     <t>旺宏</t>
   </si>
@@ -1158,6 +1177,24 @@
   </si>
   <si>
     <t>泰金寶-DR</t>
+  </si>
+  <si>
+    <t>鈺齊-KY</t>
+  </si>
+  <si>
+    <t>勤美</t>
+  </si>
+  <si>
+    <t>綠能</t>
+  </si>
+  <si>
+    <t>力麗</t>
+  </si>
+  <si>
+    <t>裕隆</t>
+  </si>
+  <si>
+    <t>台肥</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1498,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1644,195 +1695,211 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2134,6 +2201,1308 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2345</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2499000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>1312</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-4201000</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2371</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="9">
+        <v>35693000</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>2884</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-74121324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2882</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1111000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>1326</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-1400000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>3481</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="9">
+        <v>10711961</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2449</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-11856279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1101</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="9">
+        <v>993000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>2002</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-1347000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>1314</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="9">
+        <v>7183000</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>2409</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-9129056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2360</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="9">
+        <v>800000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>1319</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-1105000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2891</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="9">
+        <v>6797046</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>2303</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-8184612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2344</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="9">
+        <v>590000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>2409</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-1083000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>2324</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="9">
+        <v>6756027</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>2330</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-7986785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2603</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>562000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>3481</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-996000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2313</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="9">
+        <v>5538000</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>2887</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-7814208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>2609</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>460000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>2034</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-963000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>1605</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="9">
+        <v>4123000</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>2888</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-7243066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>4968</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="9">
+        <v>387000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>2421</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-832000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>2885</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="9">
+        <v>3877583</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>2344</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-6998000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>6269</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9">
+        <v>382000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>2823</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-800000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>2834</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="9">
+        <v>3496446</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>2890</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-5874035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3443</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="9">
+        <v>320000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2317</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-722000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>2311</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="9">
+        <v>3458386</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>1909</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-4864254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2886</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="9">
+        <v>315000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>8105</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-609000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>2317</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="9">
+        <v>3114511</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>2886</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-4829641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>2448</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9">
+        <v>270000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>1310</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-485000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>2337</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>3018000</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>2881</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-4426693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>1536</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="9">
+        <v>268000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>2330</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-468000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>2345</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="9">
+        <v>2743000</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>2412</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-4366389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>2891</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9">
+        <v>237000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>1301</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-437000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>2892</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="9">
+        <v>2543104</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>4904</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-3461747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>1477</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="9">
+        <v>200000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>2881</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-408000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>3005</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="9">
+        <v>2350356</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>2882</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-3454428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>3005</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="9">
+        <v>151000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>1909</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-399000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>1455</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="9">
+        <v>2213000</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>1216</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-3430774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>1305</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9">
+        <v>150000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>3545</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-342000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>3706</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="9">
+        <v>2019000</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>3045</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-2618341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>1605</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="9">
+        <v>150000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>4958</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-341000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>2609</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1878000</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>3189</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-2562000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>1802</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="9">
+        <v>150000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>2606</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-330000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>2603</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1610858</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>4960</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-2468000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>6525</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="9">
+        <v>150000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>2884</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-295000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>1326</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1603008</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>2377</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-2252277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>3533</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="9">
+        <v>149000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>4552</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-286000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>1215</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1494654</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>2002</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-2127450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>5907</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="9">
+        <v>140000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>1303</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-253000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>4938</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1366134</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>1101</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-2101885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>2492</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="9">
+        <v>139500</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>3702</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-225000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>6257</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1283000</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>2308</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1303059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>1215</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="9">
+        <v>131000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>9911</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-209000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>2880</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1259766</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>2353</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1301436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>1455</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>2029</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>5880</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1256765</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>2034</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1277930</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>1708</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>3036</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>2340</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1119000</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>3673</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1219000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>2351</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>1560</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-190000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>2633</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1110000</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>9904</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-1186198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>2542</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>5305</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-190000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>6116</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1086000</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>2823</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1137184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>5871</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>2915</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-188000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>2382</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30" s="9">
+        <v>980853</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>1303</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-979881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>9939</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="17">
+        <v>100000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>2062</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-158000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>2316</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="17">
+        <v>972000</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>2912</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-922016</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
@@ -3432,7 +4801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -4734,7 +6103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -6446,7 +7815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -8163,6 +9532,1307 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="16.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2313</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1167000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2317</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-2343190</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2412</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="9">
+        <v>7812000</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>2317</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-76060207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2344</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="9">
+        <v>973000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>1312</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-1186000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2313</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="9">
+        <v>6327095</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2382</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-21836687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2845</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="9">
+        <v>939000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>3189</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-728000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>2344</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="9">
+        <v>6239992</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>3231</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-16053383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1101</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="9">
+        <v>938000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>2027</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-700000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2353</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="9">
+        <v>6161000</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>2330</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-9988528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2812</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="9">
+        <v>898000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>3545</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-640000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>1457</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K6" s="9">
+        <v>5569000</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>2892</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-8582349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>3702</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="9">
+        <v>715000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>2615</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-523000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2104</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="9">
+        <v>5166000</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>4938</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-7584499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>2481</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="9">
+        <v>660000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>1457</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-500000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>1710</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8" s="9">
+        <v>4464000</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>2885</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-7278885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>1305</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9">
+        <v>632000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>2354</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-445000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>2303</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="9">
+        <v>4159000</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-6644871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2886</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="9">
+        <v>621000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>2239</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-382000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>1312</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="9">
+        <v>3113947</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>2883</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-5021000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>2340</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="9">
+        <v>600000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>5243</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-362000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>1216</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2480619</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>2881</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-4395066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>6153</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="9">
+        <v>600000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>2376</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-357000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>1314</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2328864</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>2886</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-4094000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>3413</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="9">
+        <v>574000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>1589</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-300000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>3519</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2107000</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>2002</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-3896564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2104</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="9">
+        <v>529000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>2382</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-300000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>1101</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="9">
+        <v>2089500</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>2823</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-3659902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>4968</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="9">
+        <v>466000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>1568</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-293000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>9945</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1963297</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>2356</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-3529000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>6271</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="9">
+        <v>462000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>9904</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-291000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>2311</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1906907</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>8150</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-3239000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>2456</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="9">
+        <v>428810</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>4919</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-225000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>1313</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1643425</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>3481</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-3079304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>2345</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="9">
+        <v>409000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>6525</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-201000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>1444</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1516000</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>2337</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-2779218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>3045</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="9">
+        <v>395000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-200120</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>2454</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1350300</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>4906</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-2658000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>2337</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <v>349420</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>8021</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>3682</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1315000</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>2880</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-2624600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>5264</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="9">
+        <v>327000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>2454</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-167000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>6525</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1176000</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>2201</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-2489092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>2204</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="9">
+        <v>317000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>1319</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-150000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>2345</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1125830</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>2105</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-2449000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>2351</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="9">
+        <v>293000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>1515</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-150000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>2615</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1095168</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>2801</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-2379219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>3041</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="9">
+        <v>280000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>2610</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-150000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>4958</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" s="9">
+        <v>989000</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>2887</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-2351960</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>6456</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="9">
+        <v>274000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>5471</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-132000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>6202</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K25" s="9">
+        <v>984739</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>3037</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-2318863</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>4532</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="9">
+        <v>267000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>9802</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-128000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>2610</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26" s="9">
+        <v>934134</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>2618</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-2164400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>2891</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="9">
+        <v>231000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>4739</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-122000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>2351</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" s="9">
+        <v>928000</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>2308</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-2105445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>2501</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="9">
+        <v>230000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>2412</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-105000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>2888</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="9">
+        <v>912250</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>2882</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-2069610</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>3036</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9">
+        <v>230000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>1476</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-103100</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>8110</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="9">
+        <v>907000</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>1722</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-2055000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>1210</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="9">
+        <v>221000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>1532</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-102000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>2408</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K30" s="9">
+        <v>896056</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>2301</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-1875870</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>3532</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="17">
+        <v>212000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>3346</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-101000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>3189</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="17">
+        <v>876000</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>3673</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-1824303</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -9449,17 +12119,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -10760,7 +13430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -12062,7 +14732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -13364,7 +16034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -14666,7 +17336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -15968,7 +18638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -17268,1306 +19938,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>2345</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="9">
-        <v>2499000</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>1312</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-4201000</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>2371</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="9">
-        <v>35693000</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>2884</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-74121324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>2882</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1111000</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>1326</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-1400000</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>3481</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="9">
-        <v>10711961</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>2449</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-11856279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>1101</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="9">
-        <v>993000</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>2002</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-1347000</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>1314</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" s="9">
-        <v>7183000</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>2409</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-9129056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>2360</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="9">
-        <v>800000</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>1319</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-1105000</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>2891</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="9">
-        <v>6797046</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>2303</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-8184612</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>2344</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="9">
-        <v>590000</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>2409</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-1083000</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>2324</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="9">
-        <v>6756027</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>2330</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-7986785</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>2603</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9">
-        <v>562000</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>3481</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-996000</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>2313</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="9">
-        <v>5538000</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>2887</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-7814208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>2609</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
-        <v>460000</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>2034</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-963000</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>1605</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="9">
-        <v>4123000</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>2888</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-7243066</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>4968</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="9">
-        <v>387000</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>2421</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-832000</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>2885</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="9">
-        <v>3877583</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>2344</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-6998000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>6269</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9">
-        <v>382000</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>2823</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-800000</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>2834</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="9">
-        <v>3496446</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>2890</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-5874035</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>3443</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="9">
-        <v>320000</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>2317</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-722000</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>2311</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="9">
-        <v>3458386</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>1909</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-4864254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>2886</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="9">
-        <v>315000</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>8105</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-609000</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>2317</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="9">
-        <v>3114511</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>2886</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-4829641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>2448</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="9">
-        <v>270000</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>1310</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-485000</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>2337</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>3018000</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>2881</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-4426693</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>1536</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="9">
-        <v>268000</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>2330</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-468000</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>2345</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="9">
-        <v>2743000</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>2412</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-4366389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>2891</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="9">
-        <v>237000</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>1301</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-437000</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>2892</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="9">
-        <v>2543104</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>4904</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-3461747</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>1477</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="9">
-        <v>200000</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>2881</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-408000</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>3005</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="9">
-        <v>2350356</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>2882</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-3454428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>3005</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="9">
-        <v>151000</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>1909</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-399000</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>1455</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" s="9">
-        <v>2213000</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>1216</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-3430774</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>1305</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="9">
-        <v>150000</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>3545</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-342000</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>3706</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="9">
-        <v>2019000</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>3045</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-2618341</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>1605</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="9">
-        <v>150000</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>4958</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-341000</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>2609</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="9">
-        <v>1878000</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>3189</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-2562000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>1802</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="9">
-        <v>150000</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>2606</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-330000</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>2603</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1610858</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>4960</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-2468000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>6525</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="9">
-        <v>150000</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>2884</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-295000</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>1326</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21" s="9">
-        <v>1603008</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>2377</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-2252277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>3533</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="9">
-        <v>149000</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>4552</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-286000</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>1215</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="9">
-        <v>1494654</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>2002</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-2127450</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>5907</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="9">
-        <v>140000</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>1303</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-253000</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>4938</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K23" s="9">
-        <v>1366134</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>1101</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-2101885</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>2492</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9">
-        <v>139500</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>3702</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-225000</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>6257</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K24" s="9">
-        <v>1283000</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>2308</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-1303059</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>1215</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="9">
-        <v>131000</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>9911</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-209000</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>2880</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K25" s="9">
-        <v>1259766</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>2353</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-1301436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>1455</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>2029</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-200000</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>5880</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K26" s="9">
-        <v>1256765</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>2034</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-1277930</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>1708</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>3036</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-200000</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>2340</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K27" s="9">
-        <v>1119000</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>3673</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-1219000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>2351</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>1560</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-190000</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>2633</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K28" s="9">
-        <v>1110000</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>9904</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-1186198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>2542</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>5305</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-190000</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>6116</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K29" s="9">
-        <v>1086000</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>2823</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-1137184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>5871</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>2915</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-188000</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>2382</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K30" s="9">
-        <v>980853</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>1303</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-979881</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11">
-        <v>9939</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="17">
-        <v>100000</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="11">
-        <v>2062</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G31" s="13">
-        <v>-158000</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="11">
-        <v>2316</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="K31" s="17">
-        <v>972000</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="11">
-        <v>2912</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="O31" s="13">
-        <v>-922016</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/twse.xlsx
+++ b/twse.xlsx
@@ -13,99 +13,106 @@
   </bookViews>
   <sheets>
     <sheet name="證交所" sheetId="9" r:id="rId1"/>
-    <sheet name="1061115" sheetId="17" r:id="rId2"/>
-    <sheet name="1061114" sheetId="16" r:id="rId3"/>
-    <sheet name="1061113" sheetId="15" r:id="rId4"/>
-    <sheet name="1061110" sheetId="14" r:id="rId5"/>
-    <sheet name="1061109" sheetId="13" r:id="rId6"/>
-    <sheet name="1061108" sheetId="12" r:id="rId7"/>
-    <sheet name="1060307" sheetId="11" r:id="rId8"/>
-    <sheet name="1060306" sheetId="10" r:id="rId9"/>
-    <sheet name="1060303" sheetId="8" r:id="rId10"/>
-    <sheet name="1060302" sheetId="7" r:id="rId11"/>
-    <sheet name="1060301" sheetId="6" r:id="rId12"/>
-    <sheet name="1060224" sheetId="1" r:id="rId13"/>
-    <sheet name="1060223" sheetId="5" r:id="rId14"/>
+    <sheet name="1061116" sheetId="18" r:id="rId2"/>
+    <sheet name="1061115" sheetId="17" r:id="rId3"/>
+    <sheet name="1061114" sheetId="16" r:id="rId4"/>
+    <sheet name="1061113" sheetId="15" r:id="rId5"/>
+    <sheet name="1061110" sheetId="14" r:id="rId6"/>
+    <sheet name="1061109" sheetId="13" r:id="rId7"/>
+    <sheet name="1061108" sheetId="12" r:id="rId8"/>
+    <sheet name="1060307" sheetId="11" r:id="rId9"/>
+    <sheet name="1060306" sheetId="10" r:id="rId10"/>
+    <sheet name="1060303" sheetId="8" r:id="rId11"/>
+    <sheet name="1060302" sheetId="7" r:id="rId12"/>
+    <sheet name="1060301" sheetId="6" r:id="rId13"/>
+    <sheet name="1060224" sheetId="1" r:id="rId14"/>
+    <sheet name="1060223" sheetId="5" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="13">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="12">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="11">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="10">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="9">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1061108'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1061109'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1061110'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1061113'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1061114'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061115'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="13">'1060223'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="12">'1060224'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="11">'1060301'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="10">'1060302'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1060303'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1060306'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1060307'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1061108'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1061109'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1061110'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1061113'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1061114'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061115'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U_1" localSheetId="13">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="12">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="11">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="10">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1061110'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1061114'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061115'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="13">'1060223'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="12">'1060224'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="11">'1060301'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="10">'1060302'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1060303'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1060306'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1060307'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1061108'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1061109'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1061110'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1061113'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1061114'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061115'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="13">'1060223'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="12">'1060224'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="11">'1060301'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="10">'1060302'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1060303'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1060306'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1060307'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1061108'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1061109'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1061110'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1061113'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1061114'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061115'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="13">'1060223'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="12">'1060224'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="11">'1060301'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="10">'1060302'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1060303'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1060306'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1060307'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1061108'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1061109'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1061110'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1061113'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1061114'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061115'!$I$1:$K$31</definedName>
+    <definedName name="TWT38U" localSheetId="14">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="13">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="12">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="11">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1061109'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1061110'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1061113'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1061114'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061115'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061116'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="14">'1060223'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="13">'1060224'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="12">'1060301'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="11">'1060302'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1060303'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1060306'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1060307'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1061108'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1061109'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1061110'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1061113'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1061114'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061115'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061116'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U_1" localSheetId="14">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="13">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="12">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="11">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1061110'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061115'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061116'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="14">'1060223'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="13">'1060224'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="12">'1060301'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="11">'1060302'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1060303'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1060306'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1060307'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1061108'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1061109'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1061110'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1061113'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1061114'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061115'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061116'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="14">'1060223'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="13">'1060224'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="12">'1060301'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="11">'1060302'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1060303'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1060306'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1060307'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1061108'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1061109'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1061110'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1061113'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1061114'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061115'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061116'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="14">'1060223'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="13">'1060224'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="12">'1060301'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="11">'1060302'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1060303'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1060306'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1060307'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1061108'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1061109'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1061110'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1061113'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1061114'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061115'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061116'!$I$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -154,131 +161,143 @@
   <connection id="12" name="連線11111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="13" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="13" name="連線111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="14" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="14" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="15" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="15" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="16" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="16" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="17" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="18" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="37" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="38" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="39" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="40" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="41" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="41" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="42" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="42" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="43" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="43" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="44" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="44" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="45" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="45" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="46" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="46" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="47" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="47" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="48" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="48" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="49" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="49" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="50" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="50" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="51" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="51" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="52" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="52" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="53" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="54" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="55" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="56" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="310">
   <si>
     <t>旺宏</t>
   </si>
@@ -1195,6 +1214,27 @@
   </si>
   <si>
     <t>台肥</t>
+  </si>
+  <si>
+    <t>禾伸堂</t>
+  </si>
+  <si>
+    <t>矽創</t>
+  </si>
+  <si>
+    <t>全新</t>
+  </si>
+  <si>
+    <t>智伸科</t>
+  </si>
+  <si>
+    <t>宏齊</t>
+  </si>
+  <si>
+    <t>廣宇</t>
+  </si>
+  <si>
+    <t>金像電</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1538,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1695,211 +1749,227 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2202,6 +2272,1308 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1904</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="9">
+        <v>8578000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2409</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-4146000</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2371</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="9">
+        <v>27759000</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>2884</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-38705253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1605</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3448000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>2884</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-2961694</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2337</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>11177000</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2409</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-12148752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1215</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1580000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>3481</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-2173000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>2891</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9">
+        <v>6897082</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>2303</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-9035118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1101</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="9">
+        <v>868000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>8105</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-1694000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2823</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="9">
+        <v>5973523</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>2888</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-9006172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2337</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>820000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>2325</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-1058000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>2882</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="9">
+        <v>4402096</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>2449</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-5937473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="9">
+        <v>600000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>2034</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-1020000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2317</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="9">
+        <v>4044814</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>2344</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-4938000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>2204</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="9">
+        <v>500000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>1312</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-935000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>2609</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
+        <v>3591000</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>2330</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-3886411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>2886</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="9">
+        <v>484000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>2449</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-924000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>2885</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="9">
+        <v>3562596</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>3481</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-3690374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2317</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="9">
+        <v>383000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>1319</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-916000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>2313</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="9">
+        <v>3543800</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>2103</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-3331000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>2327</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>350000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2456</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-913000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>2603</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="9">
+        <v>3005033</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>1310</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-3307171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2408</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="9">
+        <v>350000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>4958</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-749000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>2311</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2840524</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>2327</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-2918036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>2915</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="9">
+        <v>290000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>2345</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-520000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>3706</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2041000</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>2408</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-2907214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2492</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9">
+        <v>258000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>1305</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-400000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>2881</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1639077</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>2890</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-2499748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>2439</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="9">
+        <v>203000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>2330</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-375000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>4915</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1617000</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>3045</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-2258765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>1802</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="9">
+        <v>200000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>3003</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-338000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>3545</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1574000</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>3231</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-1902916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>3189</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9">
+        <v>180000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>2377</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-330000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>6176</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1472276</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>2412</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-1902359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>2882</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="9">
+        <v>170000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>2421</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-300000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>6116</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1393046</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>2324</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-1560533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>1210</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="9">
+        <v>165000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>3545</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-257000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>3535</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1365000</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>2340</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-1555467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>2448</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="9">
+        <v>160000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>6269</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-254896</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>1326</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1343797</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>2801</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-1418108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>8411</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="9">
+        <v>126000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>1326</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-224000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>1303</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1162846</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>3514</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-1415720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>2885</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="9">
+        <v>116000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>1301</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-208000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>2354</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1083234</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>2023</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-1346144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>1303</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="9">
+        <v>110000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>2634</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>2204</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1065229</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>1605</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-1263677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>6456</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="9">
+        <v>110000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>1604</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-166000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>8105</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1024000</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>2912</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1248621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>1455</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>2836</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-154000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>2812</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1020000</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>9945</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1189767</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>1477</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>4984</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-150000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>1504</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1015457</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>2356</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1174495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>1708</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>5434</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-146000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>4904</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K27" s="9">
+        <v>878633</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>2498</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1172532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>2891</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>2105</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-140000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>1802</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="9">
+        <v>814000</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>2634</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-1168495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>5907</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="9">
+        <v>90000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>9933</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-138000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>2633</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="9">
+        <v>791000</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>2345</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1157078</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>6505</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="9">
+        <v>81000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>4919</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-124000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>2880</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K30" s="9">
+        <v>745990</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>1904</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-1013000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>1536</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="17">
+        <v>65000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>4746</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-120000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>1714</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="K31" s="17">
+        <v>742000</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>2903</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-1012000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3499,7 +4871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -4801,7 +6173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -6103,7 +7475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -7815,7 +9187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -9532,6 +10904,1307 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="16.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2456</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="9">
+        <v>895000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2455</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-1387750</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2353</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="9">
+        <v>12521629</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-14219000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>3532</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="9">
+        <v>696000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>6525</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-678000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2409</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="9">
+        <v>9041790</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2317</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-12970107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2845</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="9">
+        <v>549000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>2313</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-586000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>2303</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="9">
+        <v>6603023</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>3231</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-11870254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2812</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="9">
+        <v>525000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>2317</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-562000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2345</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="9">
+        <v>4885000</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>3481</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-6380198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2345</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9">
+        <v>500000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>1457</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-400000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>2330</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="9">
+        <v>4883156</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>2886</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-5331475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>4968</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="9">
+        <v>449000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>2239</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-391000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2883</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="9">
+        <v>4172753</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>8150</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-5225496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>3702</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="9">
+        <v>417000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>6239</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-375000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>1710</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8" s="9">
+        <v>3537000</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>4938</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-4846497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>2886</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="9">
+        <v>363000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>1589</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-330000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>1216</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2621262</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>2884</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-4572239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>1301</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="9">
+        <v>362000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>4551</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-311000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>2344</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2496766</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>2408</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-4044608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3026</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="9">
+        <v>350000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2377</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-280000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>3698</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2369000</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>3037</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-4002700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2448</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9">
+        <v>345000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>2408</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-264000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>2376</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2087468</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>2892</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-3244158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>6153</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="9">
+        <v>306000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>3545</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-262000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>3035</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1914000</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>2313</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-3114941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2337</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>283000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>8261</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-252000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>2458</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1845000</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>2891</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-3013132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>2327</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9">
+        <v>250000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>2454</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-223000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>2888</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1401840</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>2311</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-2995225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8016</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="9">
+        <v>250000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>3346</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-215000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>2104</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1226000</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>2324</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-2966820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>3045</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="9">
+        <v>232000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>2412</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-209000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>3673</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1130891</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>2337</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-2447929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>2049</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="9">
+        <v>210000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>5471</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-190000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>1457</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1099000</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>2002</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-2263791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>2204</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="9">
+        <v>185000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>1568</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-187000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>2492</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="9">
+        <v>924378</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>5880</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-2200671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>5871</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="9">
+        <v>180000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>2882</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-168000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>1907</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" s="9">
+        <v>913000</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>2356</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-2185491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>2104</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9">
+        <v>178000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>6505</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-162000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>2618</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" s="9">
+        <v>866318</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>4906</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-2157000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>3665</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="9">
+        <v>162000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>3189</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-149000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>2633</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="9">
+        <v>866044</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>2834</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-2015990</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>4532</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="9">
+        <v>156000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>1102</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>2455</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K23" s="9">
+        <v>809000</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>2880</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-1974186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>2351</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="9">
+        <v>137000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>2354</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>6168</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="K24" s="9">
+        <v>783000</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>2890</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1925000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>2891</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="9">
+        <v>135000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>4746</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>2456</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="9">
+        <v>747000</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>2881</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1794199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>2501</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="9">
+        <v>134000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>3533</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-98000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>8110</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="9">
+        <v>737000</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>3017</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1749000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>3036</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9">
+        <v>134000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>6269</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-89139</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>3189</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="9">
+        <v>654000</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>2368</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1745000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>1210</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="9">
+        <v>129000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>9938</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-84000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>2328</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28" s="9">
+        <v>633897</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>3702</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-1700200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>6271</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="9">
+        <v>126000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>1319</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>2357</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" s="9">
+        <v>621321</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>2382</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1667130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>1312</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="9">
+        <v>125000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>2105</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-72000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>6153</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" s="9">
+        <v>615000</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>6176</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-1624000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>2492</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="17">
+        <v>124000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>2330</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-72000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>1310</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" s="17">
+        <v>596000</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>2301</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-1554149</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
@@ -10818,17 +13491,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -12129,7 +14802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -13430,7 +16103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -14732,7 +17405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -16034,7 +18707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -17336,7 +20009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -18636,1306 +21309,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>1904</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="9">
-        <v>8578000</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>2409</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-4146000</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>2371</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="9">
-        <v>27759000</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>2884</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-38705253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>1605</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9">
-        <v>3448000</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>2884</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-2961694</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>2337</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <v>11177000</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>2409</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-12148752</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>1215</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1580000</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>3481</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-2173000</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>2891</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9">
-        <v>6897082</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>2303</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-9035118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>1101</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="9">
-        <v>868000</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>8105</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-1694000</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>2823</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="9">
-        <v>5973523</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>2888</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-9006172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>2337</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>820000</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>2325</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-1058000</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>2882</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="9">
-        <v>4402096</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>2449</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-5937473</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="9">
-        <v>600000</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>2034</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-1020000</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>2317</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="9">
-        <v>4044814</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>2344</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-4938000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>2204</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="9">
-        <v>500000</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>1312</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-935000</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>2609</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>3591000</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>2330</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-3886411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>2886</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="9">
-        <v>484000</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>2449</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-924000</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>2885</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="9">
-        <v>3562596</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>3481</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-3690374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>2317</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="9">
-        <v>383000</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>1319</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-916000</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>2313</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="9">
-        <v>3543800</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>2103</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-3331000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>2327</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="9">
-        <v>350000</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>2456</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-913000</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>2603</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" s="9">
-        <v>3005033</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>1310</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-3307171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>2408</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="9">
-        <v>350000</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>4958</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-749000</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>2311</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="9">
-        <v>2840524</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>2327</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-2918036</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>2915</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="9">
-        <v>290000</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>2345</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-520000</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>3706</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="9">
-        <v>2041000</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>2408</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-2907214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>2492</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="9">
-        <v>258000</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>1305</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-400000</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>2881</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="9">
-        <v>1639077</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>2890</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-2499748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>2439</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="9">
-        <v>203000</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>2330</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-375000</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>4915</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="K15" s="9">
-        <v>1617000</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>3045</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-2258765</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>1802</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="9">
-        <v>200000</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>3003</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-338000</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>3545</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K16" s="9">
-        <v>1574000</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>3231</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-1902916</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>3189</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="9">
-        <v>180000</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>2377</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-330000</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>6176</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" s="9">
-        <v>1472276</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>2412</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-1902359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>2882</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="9">
-        <v>170000</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>2421</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-300000</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>6116</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K18" s="9">
-        <v>1393046</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>2324</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-1560533</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>1210</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="9">
-        <v>165000</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>3545</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-257000</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>3535</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="9">
-        <v>1365000</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>2340</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-1555467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>2448</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="9">
-        <v>160000</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>6269</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-254896</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>1326</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1343797</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>2801</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-1418108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>8411</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="9">
-        <v>126000</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>1326</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-224000</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>1303</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K21" s="9">
-        <v>1162846</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>3514</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-1415720</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>2885</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="9">
-        <v>116000</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>1301</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-208000</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>2354</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="9">
-        <v>1083234</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>2023</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-1346144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>1303</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="9">
-        <v>110000</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>2634</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-200000</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>2204</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="9">
-        <v>1065229</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>1605</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-1263677</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>6456</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="9">
-        <v>110000</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>1604</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-166000</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>8105</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K24" s="9">
-        <v>1024000</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>2912</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-1248621</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>1455</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>2836</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-154000</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>2812</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="K25" s="9">
-        <v>1020000</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>9945</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-1189767</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>1477</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>4984</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-150000</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>1504</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K26" s="9">
-        <v>1015457</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>2356</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-1174495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>1708</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>5434</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-146000</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>4904</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K27" s="9">
-        <v>878633</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>2498</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-1172532</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>2891</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>2105</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-140000</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>1802</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K28" s="9">
-        <v>814000</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>2634</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-1168495</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>5907</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="9">
-        <v>90000</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>9933</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-138000</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>2633</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K29" s="9">
-        <v>791000</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>2345</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-1157078</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>6505</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C30" s="9">
-        <v>81000</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>4919</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-124000</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>2880</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K30" s="9">
-        <v>745990</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>1904</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-1013000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11">
-        <v>1536</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="17">
-        <v>65000</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="11">
-        <v>4746</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="G31" s="13">
-        <v>-120000</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="11">
-        <v>1714</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="K31" s="17">
-        <v>742000</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="11">
-        <v>2903</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="O31" s="13">
-        <v>-1012000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/twse.xlsx
+++ b/twse.xlsx
@@ -13,106 +13,113 @@
   </bookViews>
   <sheets>
     <sheet name="證交所" sheetId="9" r:id="rId1"/>
-    <sheet name="1061116" sheetId="18" r:id="rId2"/>
-    <sheet name="1061115" sheetId="17" r:id="rId3"/>
-    <sheet name="1061114" sheetId="16" r:id="rId4"/>
-    <sheet name="1061113" sheetId="15" r:id="rId5"/>
-    <sheet name="1061110" sheetId="14" r:id="rId6"/>
-    <sheet name="1061109" sheetId="13" r:id="rId7"/>
-    <sheet name="1061108" sheetId="12" r:id="rId8"/>
-    <sheet name="1060307" sheetId="11" r:id="rId9"/>
-    <sheet name="1060306" sheetId="10" r:id="rId10"/>
-    <sheet name="1060303" sheetId="8" r:id="rId11"/>
-    <sheet name="1060302" sheetId="7" r:id="rId12"/>
-    <sheet name="1060301" sheetId="6" r:id="rId13"/>
-    <sheet name="1060224" sheetId="1" r:id="rId14"/>
-    <sheet name="1060223" sheetId="5" r:id="rId15"/>
+    <sheet name="1061117" sheetId="19" r:id="rId2"/>
+    <sheet name="1061116" sheetId="18" r:id="rId3"/>
+    <sheet name="1061115" sheetId="17" r:id="rId4"/>
+    <sheet name="1061114" sheetId="16" r:id="rId5"/>
+    <sheet name="1061113" sheetId="15" r:id="rId6"/>
+    <sheet name="1061110" sheetId="14" r:id="rId7"/>
+    <sheet name="1061109" sheetId="13" r:id="rId8"/>
+    <sheet name="1061108" sheetId="12" r:id="rId9"/>
+    <sheet name="1060307" sheetId="11" r:id="rId10"/>
+    <sheet name="1060306" sheetId="10" r:id="rId11"/>
+    <sheet name="1060303" sheetId="8" r:id="rId12"/>
+    <sheet name="1060302" sheetId="7" r:id="rId13"/>
+    <sheet name="1060301" sheetId="6" r:id="rId14"/>
+    <sheet name="1060224" sheetId="1" r:id="rId15"/>
+    <sheet name="1060223" sheetId="5" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="14">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="13">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="12">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="11">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="10">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="9">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1061108'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1061109'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1061110'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1061113'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1061114'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1061115'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061116'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="14">'1060223'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="13">'1060224'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="12">'1060301'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="11">'1060302'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="10">'1060303'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1060306'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1060307'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1061108'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1061109'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1061110'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1061113'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1061114'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1061115'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061116'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U_1" localSheetId="14">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="13">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="12">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="11">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="10">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1061110'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1061114'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1061115'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061116'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="14">'1060223'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="13">'1060224'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="12">'1060301'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="11">'1060302'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="10">'1060303'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1060306'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1060307'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1061108'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1061109'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1061110'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1061113'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1061114'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1061115'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061116'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="14">'1060223'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="13">'1060224'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="12">'1060301'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="11">'1060302'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="10">'1060303'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1060306'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1060307'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1061108'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1061109'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1061110'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1061113'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1061114'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1061115'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061116'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="14">'1060223'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="13">'1060224'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="12">'1060301'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="11">'1060302'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="10">'1060303'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1060306'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1060307'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1061108'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1061109'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1061110'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1061113'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1061114'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1061115'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061116'!$I$1:$K$31</definedName>
+    <definedName name="TWT38U" localSheetId="15">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="14">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="13">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="12">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="11">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1061109'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1061110'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1061113'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1061114'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1061115'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061116'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061117'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="15">'1060223'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="14">'1060224'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="13">'1060301'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="12">'1060302'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="11">'1060303'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1060306'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1060307'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1061108'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1061109'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1061110'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1061113'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1061114'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1061115'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061116'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061117'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U_1" localSheetId="15">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="14">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="13">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="12">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="11">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1061110'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1061115'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061116'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061117'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="15">'1060223'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="14">'1060224'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="13">'1060301'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="12">'1060302'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="11">'1060303'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1060306'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1060307'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1061108'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1061109'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1061110'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1061113'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1061114'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1061115'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061116'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061117'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="15">'1060223'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="14">'1060224'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="13">'1060301'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="12">'1060302'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="11">'1060303'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1060306'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1060307'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1061108'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1061109'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1061110'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1061113'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1061114'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1061115'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061116'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061117'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="15">'1060223'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="14">'1060224'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="13">'1060301'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="12">'1060302'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="11">'1060303'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1060306'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1060307'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1061108'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1061109'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1061110'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1061113'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1061114'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1061115'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061116'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061117'!$I$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -164,140 +171,152 @@
   <connection id="13" name="連線111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="14" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="14" name="連線1111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="15" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="15" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="16" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="16" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="17" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="18" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="37" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="38" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="39" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="40" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="41" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="41" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="42" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="42" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="43" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="43" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="44" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="44" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="45" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="45" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="46" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="46" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="47" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="47" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="48" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="48" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="49" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="49" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="50" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="50" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="51" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="51" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="52" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="52" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="53" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="53" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="54" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="54" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="55" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="55" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="56" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="56" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="57" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="58" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="59" name="連線42111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="60" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="317">
   <si>
     <t>旺宏</t>
   </si>
@@ -1235,6 +1254,27 @@
   </si>
   <si>
     <t>金像電</t>
+  </si>
+  <si>
+    <t>帆宣</t>
+  </si>
+  <si>
+    <t>三福化</t>
+  </si>
+  <si>
+    <t>美食-KY</t>
+  </si>
+  <si>
+    <t>樺漢</t>
+  </si>
+  <si>
+    <t>聯強</t>
+  </si>
+  <si>
+    <t>亞光</t>
+  </si>
+  <si>
+    <t>恩德</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1578,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1749,227 +1803,243 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2272,6 +2342,1308 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1904</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1941000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2409</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-2474000</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2337</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>32700000</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>2303</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-15509883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2330</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1370000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>1319</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-1426000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>3481</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="9">
+        <v>10759767</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2409</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-10955339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2891</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1277240</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>2449</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-1200000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>2891</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9">
+        <v>4860715</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>2884</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-6706779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2317</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1198000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>6116</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-1200000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2885</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="9">
+        <v>4184014</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>2344</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-6229853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>1605</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1100000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>2456</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-724000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>2313</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3942953</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>2449</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-3640832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2313</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9">
+        <v>983000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>3706</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-666000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>1504</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" s="9">
+        <v>3769517</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>2330</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-3567255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>2303</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="9">
+        <v>960000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>2603</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-550000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>2610</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="9">
+        <v>3003346</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>2890</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-3374866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>2886</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="9">
+        <v>935000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>2308</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-375000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>1605</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2988782</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-3144195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2882</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="9">
+        <v>886000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>2383</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-359000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>2317</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2966759</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>1904</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-3005397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>2883</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="9">
+        <v>828000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2492</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-354000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>2609</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2935000</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>2887</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-2875178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2887</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="9">
+        <v>768000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>2836</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-346000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>2353</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2886415</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>2618</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-2121349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>2615</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9">
+        <v>686000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>3704</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-300000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>3037</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2673741</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>2888</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-1989090</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2885</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9">
+        <v>684000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>1312</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-297000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>2311</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="9">
+        <v>2329930</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>1909</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-1855716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>2823</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="9">
+        <v>661960</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>3003</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-275000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>1314</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="9">
+        <v>2257000</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>3706</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-1807384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>1102</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="9">
+        <v>638000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>2301</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-262000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>2383</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="9">
+        <v>2246355</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>1312</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-1799064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>5880</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="9">
+        <v>626000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>2448</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-206000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>2382</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="9">
+        <v>2017923</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>2801</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-1638185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>2890</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="9">
+        <v>590000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>2421</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>4938</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1972315</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>8112</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-1499000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="9">
+        <v>589000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>3005</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>2002</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1774096</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>2408</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-1498727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>2892</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="9">
+        <v>562000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>4958</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>2882</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1676819</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>2103</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-1332000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>2412</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="9">
+        <v>557000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>1314</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-191000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>2823</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1666210</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>1310</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-1171000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>3481</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="9">
+        <v>515000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>1305</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-187000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>2892</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1663577</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>6176</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-1013414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>2204</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="9">
+        <v>500000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>5388</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-172000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>2881</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1595739</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>2412</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-954773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>2880</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="9">
+        <v>469000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>2345</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-150000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>1802</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1536000</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>8150</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-934000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>8222</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="9">
+        <v>460000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>2408</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-138000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>3545</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1444000</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>2634</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-825000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>2881</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="9">
+        <v>402000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>8105</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-125000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>1301</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1326264</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>3596</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-814400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>2311</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="9">
+        <v>383000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>2103</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-120000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>2542</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1309827</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>9933</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-813000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>2884</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="9">
+        <v>355000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>4977</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-117000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>2331</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1276000</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>2886</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-787120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>2801</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="9">
+        <v>336000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>4984</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-105000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>6269</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1209695</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>2376</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-778850</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>1215</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="9">
+        <v>300000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>1536</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-96000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>2352</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1195060</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>2014</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-755000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>2382</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="17">
+        <v>279000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>1704</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-95000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>2603</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="17">
+        <v>1117920</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>4904</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-727371</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -3569,7 +4941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -4871,7 +6243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -6173,7 +7545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -7475,7 +8847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -9187,7 +10559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -10904,7 +12276,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="M2" sqref="M2:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -10953,156 +12325,156 @@
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
-        <v>2456</v>
+        <v>2408</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="C2" s="9">
-        <v>895000</v>
+        <v>2400000</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="8">
-        <v>2455</v>
+        <v>2313</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>305</v>
+        <v>7</v>
       </c>
       <c r="G2" s="10">
-        <v>-1387750</v>
+        <v>-3617000</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8">
-        <v>2353</v>
+        <v>2409</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="K2" s="9">
-        <v>12521629</v>
+        <v>17589392</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="8">
-        <v>6116</v>
+        <v>2317</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="O2" s="10">
-        <v>-14219000</v>
+        <v>-19510044</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
-        <v>3532</v>
+        <v>1305</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9">
-        <v>696000</v>
+        <v>2008000</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="8">
-        <v>6525</v>
+        <v>1312</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G3" s="10">
-        <v>-678000</v>
+        <v>-1275000</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="8">
-        <v>2409</v>
+        <v>2891</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="K3" s="9">
-        <v>9041790</v>
+        <v>16608483</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="8">
-        <v>2317</v>
+        <v>4938</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="O3" s="10">
-        <v>-12970107</v>
+        <v>-11258313</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
-        <v>2845</v>
+        <v>2456</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>263</v>
+        <v>93</v>
       </c>
       <c r="C4" s="9">
-        <v>549000</v>
+        <v>1822000</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="8">
-        <v>2313</v>
+        <v>6239</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="G4" s="10">
-        <v>-586000</v>
+        <v>-802000</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8">
-        <v>2303</v>
+        <v>2344</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="K4" s="9">
-        <v>6603023</v>
+        <v>14811529</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="8">
-        <v>3231</v>
+        <v>6116</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="O4" s="10">
-        <v>-11870254</v>
+        <v>-10565000</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
-        <v>2812</v>
+        <v>1101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>219</v>
+        <v>68</v>
       </c>
       <c r="C5" s="9">
-        <v>525000</v>
+        <v>1660000</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="8">
-        <v>2317</v>
+        <v>3533</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="G5" s="10">
-        <v>-562000</v>
+        <v>-413000</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="8">
-        <v>2345</v>
+        <v>2888</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="K5" s="9">
-        <v>4885000</v>
+        <v>12607243</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="8">
@@ -11112,7 +12484,7 @@
         <v>84</v>
       </c>
       <c r="O5" s="10">
-        <v>-6380198</v>
+        <v>-10061486</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -11123,99 +12495,99 @@
         <v>53</v>
       </c>
       <c r="C6" s="9">
-        <v>500000</v>
+        <v>1043000</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="8">
-        <v>1457</v>
+        <v>2239</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="G6" s="10">
-        <v>-400000</v>
+        <v>-402000</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="8">
-        <v>2330</v>
+        <v>2337</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="K6" s="9">
-        <v>4883156</v>
+        <v>11521731</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="8">
-        <v>2886</v>
+        <v>2356</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="O6" s="10">
-        <v>-5331475</v>
+        <v>-7849318</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
-        <v>4968</v>
+        <v>3532</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="C7" s="9">
-        <v>449000</v>
+        <v>613000</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8">
-        <v>2239</v>
+        <v>2483</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G7" s="10">
-        <v>-391000</v>
+        <v>-392000</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="8">
-        <v>2883</v>
+        <v>2610</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="K7" s="9">
-        <v>4172753</v>
+        <v>9976084</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="8">
-        <v>8150</v>
+        <v>6153</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>152</v>
+        <v>259</v>
       </c>
       <c r="O7" s="10">
-        <v>-5225496</v>
+        <v>-6521766</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
-        <v>3702</v>
+        <v>6271</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="C8" s="9">
-        <v>417000</v>
+        <v>594000</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="8">
-        <v>6239</v>
+        <v>1457</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="G8" s="10">
-        <v>-375000</v>
+        <v>-350000</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="8">
@@ -11225,28 +12597,28 @@
         <v>250</v>
       </c>
       <c r="K8" s="9">
-        <v>3537000</v>
+        <v>8609000</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="8">
-        <v>4938</v>
+        <v>2881</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="O8" s="10">
-        <v>-4846497</v>
+        <v>-4992487</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>2886</v>
+        <v>4739</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>278</v>
       </c>
       <c r="C9" s="9">
-        <v>363000</v>
+        <v>584000</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8">
@@ -11256,550 +12628,550 @@
         <v>271</v>
       </c>
       <c r="G9" s="10">
-        <v>-330000</v>
+        <v>-326000</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8">
-        <v>1216</v>
+        <v>2885</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="K9" s="9">
-        <v>2621262</v>
+        <v>5863004</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="8">
-        <v>2884</v>
+        <v>3037</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="O9" s="10">
-        <v>-4572239</v>
+        <v>-4770000</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>1301</v>
+        <v>4968</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="C10" s="9">
-        <v>362000</v>
+        <v>346000</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8">
-        <v>4551</v>
+        <v>2412</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>306</v>
+        <v>97</v>
       </c>
       <c r="G10" s="10">
-        <v>-311000</v>
+        <v>-229000</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="8">
-        <v>2344</v>
+        <v>2371</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="K10" s="9">
-        <v>2496766</v>
+        <v>5500000</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="8">
-        <v>2408</v>
+        <v>2603</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="O10" s="10">
-        <v>-4044608</v>
+        <v>-4432472</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>3026</v>
+        <v>4977</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>303</v>
+        <v>194</v>
       </c>
       <c r="C11" s="9">
-        <v>350000</v>
+        <v>306000</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="8">
-        <v>2377</v>
+        <v>3545</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="G11" s="10">
-        <v>-280000</v>
+        <v>-219000</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="8">
-        <v>3698</v>
+        <v>2330</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>249</v>
+        <v>89</v>
       </c>
       <c r="K11" s="9">
-        <v>2369000</v>
+        <v>4661421</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="8">
-        <v>3037</v>
+        <v>3231</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="O11" s="10">
-        <v>-4002700</v>
+        <v>-4012063</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
-        <v>2448</v>
+        <v>2455</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>305</v>
       </c>
       <c r="C12" s="9">
-        <v>345000</v>
+        <v>293000</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="8">
-        <v>2408</v>
+        <v>3682</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="G12" s="10">
-        <v>-264000</v>
+        <v>-215000</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="8">
-        <v>2376</v>
+        <v>2104</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c r="K12" s="9">
-        <v>2087468</v>
+        <v>3999000</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="8">
-        <v>2892</v>
+        <v>2887</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="O12" s="10">
-        <v>-3244158</v>
+        <v>-3281779</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <v>6153</v>
+        <v>1301</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>259</v>
+        <v>71</v>
       </c>
       <c r="C13" s="9">
-        <v>306000</v>
+        <v>281000</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8">
-        <v>3545</v>
+        <v>9938</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G13" s="10">
-        <v>-262000</v>
+        <v>-214000</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="8">
-        <v>3035</v>
+        <v>2347</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="K13" s="9">
-        <v>1914000</v>
+        <v>3386701</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="8">
-        <v>2313</v>
+        <v>4906</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="O13" s="10">
-        <v>-3114941</v>
+        <v>-3124000</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <v>2337</v>
+        <v>5434</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C14" s="9">
-        <v>283000</v>
+        <v>260000</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8">
-        <v>8261</v>
+        <v>2603</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="G14" s="10">
-        <v>-252000</v>
+        <v>-150000</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8">
-        <v>2458</v>
+        <v>2313</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="K14" s="9">
-        <v>1845000</v>
+        <v>3365509</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="8">
-        <v>2891</v>
+        <v>2382</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="O14" s="10">
-        <v>-3013132</v>
+        <v>-2883300</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>2327</v>
+        <v>2520</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="C15" s="9">
-        <v>250000</v>
+        <v>211000</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="8">
-        <v>2454</v>
+        <v>2351</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G15" s="10">
-        <v>-223000</v>
+        <v>-136000</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="8">
-        <v>2888</v>
+        <v>2345</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="K15" s="9">
-        <v>1401840</v>
+        <v>2898300</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="8">
-        <v>2311</v>
+        <v>3698</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="O15" s="10">
-        <v>-2995225</v>
+        <v>-2756000</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>8016</v>
+        <v>3413</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="C16" s="9">
-        <v>250000</v>
+        <v>207000</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="8">
-        <v>3346</v>
+        <v>2104</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="G16" s="10">
-        <v>-215000</v>
+        <v>-107000</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="8">
-        <v>2104</v>
+        <v>3019</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>35</v>
+        <v>315</v>
       </c>
       <c r="K16" s="9">
-        <v>1226000</v>
+        <v>2614000</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="8">
-        <v>2324</v>
+        <v>4960</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="O16" s="10">
-        <v>-2966820</v>
+        <v>-2662000</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>3045</v>
+        <v>2340</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C17" s="9">
-        <v>232000</v>
+        <v>193000</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="8">
-        <v>2412</v>
+        <v>1102</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="G17" s="10">
-        <v>-209000</v>
+        <v>-103000</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="8">
-        <v>3673</v>
+        <v>1312</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="K17" s="9">
-        <v>1130891</v>
+        <v>2391300</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="8">
-        <v>2337</v>
+        <v>2301</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="O17" s="10">
-        <v>-2447929</v>
+        <v>-2603258</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>2049</v>
+        <v>6196</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="C18" s="9">
-        <v>210000</v>
+        <v>191000</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="8">
-        <v>5471</v>
+        <v>1568</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="G18" s="10">
-        <v>-190000</v>
+        <v>-100000</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8">
-        <v>1457</v>
+        <v>8110</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="K18" s="9">
-        <v>1099000</v>
+        <v>2323000</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="8">
-        <v>2002</v>
+        <v>2823</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="O18" s="10">
-        <v>-2263791</v>
+        <v>-2444544</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>2204</v>
+        <v>2377</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C19" s="9">
-        <v>185000</v>
+        <v>186000</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="8">
-        <v>1568</v>
+        <v>2610</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c r="G19" s="10">
-        <v>-187000</v>
+        <v>-100000</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="8">
-        <v>2492</v>
+        <v>2454</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="K19" s="9">
-        <v>924378</v>
+        <v>2267894</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="8">
-        <v>5880</v>
+        <v>2312</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="O19" s="10">
-        <v>-2200671</v>
+        <v>-2214000</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>5871</v>
+        <v>2492</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="C20" s="9">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="8">
-        <v>2882</v>
+        <v>3090</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>67</v>
+        <v>282</v>
       </c>
       <c r="G20" s="10">
-        <v>-168000</v>
+        <v>-100000</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="8">
-        <v>1907</v>
+        <v>2498</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="K20" s="9">
-        <v>913000</v>
+        <v>2243356</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="8">
-        <v>2356</v>
+        <v>5880</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="O20" s="10">
-        <v>-2185491</v>
+        <v>-2145860</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
-        <v>2104</v>
+        <v>2344</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C21" s="9">
-        <v>178000</v>
+        <v>103000</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="8">
-        <v>6505</v>
+        <v>4746</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G21" s="10">
-        <v>-162000</v>
+        <v>-100000</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8">
-        <v>2618</v>
+        <v>1216</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="K21" s="9">
-        <v>866318</v>
+        <v>2076893</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="8">
-        <v>4906</v>
+        <v>2882</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="O21" s="10">
-        <v>-2157000</v>
+        <v>-1944704</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>3665</v>
+        <v>2376</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="C22" s="9">
-        <v>162000</v>
+        <v>98000</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="8">
-        <v>3189</v>
+        <v>5471</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="G22" s="10">
-        <v>-149000</v>
+        <v>-100000</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="8">
-        <v>2633</v>
+        <v>3413</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="K22" s="9">
-        <v>866044</v>
+        <v>2037937</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="8">
@@ -11809,346 +13181,346 @@
         <v>44</v>
       </c>
       <c r="O22" s="10">
-        <v>-2015990</v>
+        <v>-1904263</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>4532</v>
+        <v>3003</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="C23" s="9">
-        <v>156000</v>
+        <v>75000</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="8">
-        <v>1102</v>
+        <v>4551</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>162</v>
+        <v>306</v>
       </c>
       <c r="G23" s="10">
-        <v>-100000</v>
+        <v>-94000</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="8">
-        <v>2455</v>
+        <v>4958</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>305</v>
+        <v>193</v>
       </c>
       <c r="K23" s="9">
-        <v>809000</v>
+        <v>2031983</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="8">
-        <v>2880</v>
+        <v>1101</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="O23" s="10">
-        <v>-1974186</v>
+        <v>-1790658</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>2351</v>
+        <v>4943</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="C24" s="9">
-        <v>137000</v>
+        <v>51000</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="8">
-        <v>2354</v>
+        <v>1532</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>25</v>
+        <v>298</v>
       </c>
       <c r="G24" s="10">
-        <v>-100000</v>
+        <v>-88000</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="8">
-        <v>6168</v>
+        <v>2449</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="K24" s="9">
-        <v>783000</v>
+        <v>1901000</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="8">
-        <v>2890</v>
+        <v>2377</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="O24" s="10">
-        <v>-1925000</v>
+        <v>-1786908</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>2891</v>
+        <v>4755</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>14</v>
+        <v>311</v>
       </c>
       <c r="C25" s="9">
-        <v>135000</v>
+        <v>43000</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="8">
-        <v>4746</v>
+        <v>9802</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="G25" s="10">
-        <v>-100000</v>
+        <v>-87000</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="8">
-        <v>2456</v>
+        <v>1305</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="K25" s="9">
-        <v>747000</v>
+        <v>1802484</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="8">
-        <v>2881</v>
+        <v>1326</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="O25" s="10">
-        <v>-1794199</v>
+        <v>-1690878</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>2501</v>
+        <v>5269</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="C26" s="9">
-        <v>134000</v>
+        <v>42000</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="8">
-        <v>3533</v>
+        <v>2723</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="G26" s="10">
-        <v>-98000</v>
+        <v>-69000</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="8">
-        <v>8110</v>
+        <v>1455</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="K26" s="9">
-        <v>737000</v>
+        <v>1644000</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="8">
-        <v>3017</v>
+        <v>2324</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="O26" s="10">
-        <v>-1749000</v>
+        <v>-1634779</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>3036</v>
+        <v>2421</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="C27" s="9">
-        <v>134000</v>
+        <v>28000</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="8">
-        <v>6269</v>
+        <v>6414</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="G27" s="10">
-        <v>-89139</v>
+        <v>-67000</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="8">
-        <v>3189</v>
+        <v>2376</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="K27" s="9">
-        <v>654000</v>
+        <v>1625000</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="8">
-        <v>2368</v>
+        <v>1909</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>309</v>
+        <v>131</v>
       </c>
       <c r="O27" s="10">
-        <v>-1745000</v>
+        <v>-1611000</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>1210</v>
+        <v>1476</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="C28" s="9">
-        <v>129000</v>
+        <v>25000</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="8">
-        <v>9938</v>
+        <v>6505</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="G28" s="10">
-        <v>-84000</v>
+        <v>-67000</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="8">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>308</v>
+        <v>10</v>
       </c>
       <c r="K28" s="9">
-        <v>633897</v>
+        <v>1598815</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="8">
-        <v>3702</v>
+        <v>2884</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>205</v>
+        <v>46</v>
       </c>
       <c r="O28" s="10">
-        <v>-1700200</v>
+        <v>-1536741</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
-        <v>6271</v>
+        <v>2912</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="C29" s="9">
-        <v>126000</v>
+        <v>22000</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="8">
-        <v>1319</v>
+        <v>2454</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="G29" s="10">
-        <v>-80000</v>
+        <v>-66000</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="8">
-        <v>2357</v>
+        <v>1605</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="K29" s="9">
-        <v>621321</v>
+        <v>1511000</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="8">
-        <v>2382</v>
+        <v>8150</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="O29" s="10">
-        <v>-1667130</v>
+        <v>-1486000</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
-        <v>1312</v>
+        <v>3443</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C30" s="9">
-        <v>125000</v>
+        <v>22000</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="8">
-        <v>2105</v>
+        <v>6269</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="G30" s="10">
-        <v>-72000</v>
+        <v>-53000</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="8">
-        <v>6153</v>
+        <v>2355</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="K30" s="9">
-        <v>615000</v>
+        <v>1485000</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="8">
-        <v>6176</v>
+        <v>6269</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="O30" s="10">
-        <v>-1624000</v>
+        <v>-1458381</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
-        <v>2492</v>
+        <v>3035</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C31" s="17">
-        <v>124000</v>
+        <v>19000</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="11">
@@ -12158,27 +13530,27 @@
         <v>89</v>
       </c>
       <c r="G31" s="13">
-        <v>-72000</v>
+        <v>-51000</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="11">
-        <v>1310</v>
+        <v>1528</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>124</v>
+        <v>316</v>
       </c>
       <c r="K31" s="17">
-        <v>596000</v>
+        <v>1473000</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="11">
-        <v>2301</v>
+        <v>3006</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="O31" s="13">
-        <v>-1554149</v>
+        <v>-1450000</v>
       </c>
     </row>
   </sheetData>
@@ -12201,6 +13573,1307 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="16.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2456</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="9">
+        <v>895000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2455</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-1387750</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2353</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="9">
+        <v>12521629</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-14219000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>3532</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="9">
+        <v>696000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>6525</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-678000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2409</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="9">
+        <v>9041790</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2317</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-12970107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2845</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="9">
+        <v>549000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>2313</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-586000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>2303</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="9">
+        <v>6603023</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>3231</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-11870254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2812</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="9">
+        <v>525000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>2317</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-562000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2345</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="9">
+        <v>4885000</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>3481</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-6380198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2345</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9">
+        <v>500000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>1457</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-400000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>2330</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="9">
+        <v>4883156</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>2886</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-5331475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>4968</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="9">
+        <v>449000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>2239</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-391000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2883</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="9">
+        <v>4172753</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>8150</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-5225496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>3702</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="9">
+        <v>417000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>6239</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-375000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>1710</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8" s="9">
+        <v>3537000</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>4938</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-4846497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>2886</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="9">
+        <v>363000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>1589</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-330000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>1216</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2621262</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>2884</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-4572239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>1301</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="9">
+        <v>362000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>4551</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-311000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>2344</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2496766</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>2408</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-4044608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3026</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="9">
+        <v>350000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2377</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-280000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>3698</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2369000</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>3037</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-4002700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2448</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9">
+        <v>345000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>2408</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-264000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>2376</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2087468</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>2892</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-3244158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>6153</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="9">
+        <v>306000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>3545</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-262000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>3035</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1914000</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>2313</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-3114941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2337</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>283000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>8261</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-252000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>2458</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1845000</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>2891</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-3013132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>2327</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9">
+        <v>250000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>2454</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-223000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>2888</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1401840</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>2311</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-2995225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8016</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="9">
+        <v>250000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>3346</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-215000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>2104</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1226000</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>2324</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-2966820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>3045</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="9">
+        <v>232000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>2412</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-209000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>3673</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1130891</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>2337</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-2447929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>2049</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="9">
+        <v>210000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>5471</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-190000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>1457</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1099000</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>2002</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-2263791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>2204</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="9">
+        <v>185000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>1568</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-187000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>2492</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="9">
+        <v>924378</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>5880</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-2200671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>5871</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="9">
+        <v>180000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>2882</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-168000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>1907</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" s="9">
+        <v>913000</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>2356</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-2185491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>2104</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9">
+        <v>178000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>6505</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-162000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>2618</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" s="9">
+        <v>866318</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>4906</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-2157000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>3665</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="9">
+        <v>162000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>3189</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-149000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>2633</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="9">
+        <v>866044</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>2834</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-2015990</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>4532</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="9">
+        <v>156000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>1102</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>2455</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K23" s="9">
+        <v>809000</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>2880</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-1974186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>2351</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="9">
+        <v>137000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>2354</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>6168</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="K24" s="9">
+        <v>783000</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>2890</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1925000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>2891</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="9">
+        <v>135000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>4746</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>2456</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="9">
+        <v>747000</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>2881</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1794199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>2501</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="9">
+        <v>134000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>3533</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-98000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>8110</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="9">
+        <v>737000</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>3017</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1749000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>3036</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9">
+        <v>134000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>6269</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-89139</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>3189</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="9">
+        <v>654000</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>2368</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1745000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>1210</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="9">
+        <v>129000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>9938</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-84000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>2328</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28" s="9">
+        <v>633897</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>3702</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-1700200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>6271</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="9">
+        <v>126000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>1319</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>2357</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" s="9">
+        <v>621321</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>2382</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1667130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>1312</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="9">
+        <v>125000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>2105</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-72000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>6153</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" s="9">
+        <v>615000</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>6176</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-1624000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>2492</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="17">
+        <v>124000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>2330</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-72000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>1310</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" s="17">
+        <v>596000</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>2301</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-1554149</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -13501,7 +16174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -14802,7 +17475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -16103,7 +18776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -17405,7 +20078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -18707,7 +21380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -20007,1306 +22680,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>1904</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1941000</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>2409</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-2474000</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>2337</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9">
-        <v>32700000</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>2303</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-15509883</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>2330</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1370000</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>1319</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-1426000</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>3481</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="9">
-        <v>10759767</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>2409</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-10955339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>2891</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1277240</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>2449</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-1200000</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>2891</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9">
-        <v>4860715</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>2884</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-6706779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>2317</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1198000</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>6116</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-1200000</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>2885</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="9">
-        <v>4184014</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>2344</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-6229853</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>1605</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1100000</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>2456</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-724000</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>2313</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="9">
-        <v>3942953</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>2449</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-3640832</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>2313</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9">
-        <v>983000</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>3706</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-666000</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>1504</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K7" s="9">
-        <v>3769517</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>2330</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-3567255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>2303</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="9">
-        <v>960000</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>2603</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-550000</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>2610</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K8" s="9">
-        <v>3003346</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>2890</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-3374866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>2886</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="9">
-        <v>935000</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>2308</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-375000</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>1605</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="9">
-        <v>2988782</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>6116</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-3144195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>2882</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="9">
-        <v>886000</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>2383</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-359000</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>2317</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="9">
-        <v>2966759</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>1904</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-3005397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>2883</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="9">
-        <v>828000</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>2492</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-354000</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>2609</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9">
-        <v>2935000</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>2887</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-2875178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>2887</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="9">
-        <v>768000</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>2836</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-346000</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>2353</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12" s="9">
-        <v>2886415</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>2618</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-2121349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>2615</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="9">
-        <v>686000</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>3704</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-300000</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>3037</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K13" s="9">
-        <v>2673741</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>2888</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-1989090</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>2885</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="9">
-        <v>684000</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>1312</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-297000</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>2311</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="9">
-        <v>2329930</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>1909</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-1855716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>2823</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="9">
-        <v>661960</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>3003</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-275000</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>1314</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K15" s="9">
-        <v>2257000</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>3706</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-1807384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>1102</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="9">
-        <v>638000</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>2301</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-262000</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>2383</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K16" s="9">
-        <v>2246355</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>1312</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-1799064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>5880</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="9">
-        <v>626000</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>2448</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-206000</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>2382</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="9">
-        <v>2017923</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>2801</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-1638185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>2890</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="9">
-        <v>590000</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>2421</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-200000</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>4938</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K18" s="9">
-        <v>1972315</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>8112</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-1499000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="9">
-        <v>589000</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>3005</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-200000</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>2002</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="9">
-        <v>1774096</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>2408</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-1498727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>2892</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="9">
-        <v>562000</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>4958</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-200000</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>2882</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1676819</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>2103</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-1332000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>2412</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="9">
-        <v>557000</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>1314</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-191000</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>2823</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="9">
-        <v>1666210</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>1310</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-1171000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>3481</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="9">
-        <v>515000</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>1305</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-187000</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>2892</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22" s="9">
-        <v>1663577</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>6176</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-1013414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>2204</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="9">
-        <v>500000</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>5388</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-172000</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>2881</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23" s="9">
-        <v>1595739</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>2412</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-954773</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>2880</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="9">
-        <v>469000</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>2345</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-150000</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>1802</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K24" s="9">
-        <v>1536000</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>8150</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-934000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>8222</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C25" s="9">
-        <v>460000</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>2408</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-138000</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>3545</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K25" s="9">
-        <v>1444000</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>2634</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-825000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>2881</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="9">
-        <v>402000</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>8105</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-125000</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>1301</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K26" s="9">
-        <v>1326264</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>3596</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-814400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>2311</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="9">
-        <v>383000</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>2103</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-120000</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>2542</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K27" s="9">
-        <v>1309827</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>9933</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-813000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>2884</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="9">
-        <v>355000</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>4977</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-117000</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>2331</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="K28" s="9">
-        <v>1276000</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>2886</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-787120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>2801</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="9">
-        <v>336000</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>4984</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-105000</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>6269</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="9">
-        <v>1209695</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>2376</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-778850</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>1215</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="9">
-        <v>300000</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>1536</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-96000</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>2352</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K30" s="9">
-        <v>1195060</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>2014</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-755000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11">
-        <v>2382</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="17">
-        <v>279000</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="11">
-        <v>1704</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="13">
-        <v>-95000</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="11">
-        <v>2603</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K31" s="17">
-        <v>1117920</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="11">
-        <v>4904</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="O31" s="13">
-        <v>-727371</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/twse.xlsx
+++ b/twse.xlsx
@@ -13,113 +13,120 @@
   </bookViews>
   <sheets>
     <sheet name="證交所" sheetId="9" r:id="rId1"/>
-    <sheet name="1061117" sheetId="19" r:id="rId2"/>
-    <sheet name="1061116" sheetId="18" r:id="rId3"/>
-    <sheet name="1061115" sheetId="17" r:id="rId4"/>
-    <sheet name="1061114" sheetId="16" r:id="rId5"/>
-    <sheet name="1061113" sheetId="15" r:id="rId6"/>
-    <sheet name="1061110" sheetId="14" r:id="rId7"/>
-    <sheet name="1061109" sheetId="13" r:id="rId8"/>
-    <sheet name="1061108" sheetId="12" r:id="rId9"/>
-    <sheet name="1060307" sheetId="11" r:id="rId10"/>
-    <sheet name="1060306" sheetId="10" r:id="rId11"/>
-    <sheet name="1060303" sheetId="8" r:id="rId12"/>
-    <sheet name="1060302" sheetId="7" r:id="rId13"/>
-    <sheet name="1060301" sheetId="6" r:id="rId14"/>
-    <sheet name="1060224" sheetId="1" r:id="rId15"/>
-    <sheet name="1060223" sheetId="5" r:id="rId16"/>
+    <sheet name="1061120" sheetId="20" r:id="rId2"/>
+    <sheet name="1061117" sheetId="19" r:id="rId3"/>
+    <sheet name="1061116" sheetId="18" r:id="rId4"/>
+    <sheet name="1061115" sheetId="17" r:id="rId5"/>
+    <sheet name="1061114" sheetId="16" r:id="rId6"/>
+    <sheet name="1061113" sheetId="15" r:id="rId7"/>
+    <sheet name="1061110" sheetId="14" r:id="rId8"/>
+    <sheet name="1061109" sheetId="13" r:id="rId9"/>
+    <sheet name="1061108" sheetId="12" r:id="rId10"/>
+    <sheet name="1060307" sheetId="11" r:id="rId11"/>
+    <sheet name="1060306" sheetId="10" r:id="rId12"/>
+    <sheet name="1060303" sheetId="8" r:id="rId13"/>
+    <sheet name="1060302" sheetId="7" r:id="rId14"/>
+    <sheet name="1060301" sheetId="6" r:id="rId15"/>
+    <sheet name="1060224" sheetId="1" r:id="rId16"/>
+    <sheet name="1060223" sheetId="5" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="15">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="14">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="13">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="12">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="11">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="10">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="9">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1061108'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1061109'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1061110'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1061113'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1061114'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1061115'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1061116'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061117'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="15">'1060223'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="14">'1060224'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="13">'1060301'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="12">'1060302'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="11">'1060303'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="10">'1060306'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1060307'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1061108'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1061109'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1061110'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1061113'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1061114'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1061115'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1061116'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061117'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U_1" localSheetId="15">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="14">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="13">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="12">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="11">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="10">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1061110'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1061114'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1061115'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1061116'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061117'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="15">'1060223'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="14">'1060224'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="13">'1060301'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="12">'1060302'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="11">'1060303'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="10">'1060306'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1060307'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1061108'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1061109'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1061110'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1061113'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1061114'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1061115'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1061116'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061117'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="15">'1060223'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="14">'1060224'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="13">'1060301'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="12">'1060302'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="11">'1060303'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="10">'1060306'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1060307'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1061108'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1061109'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1061110'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1061113'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1061114'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1061115'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1061116'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061117'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="15">'1060223'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="14">'1060224'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="13">'1060301'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="12">'1060302'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="11">'1060303'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="10">'1060306'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1060307'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1061108'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1061109'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1061110'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1061113'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1061114'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1061115'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1061116'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061117'!$I$1:$K$31</definedName>
+    <definedName name="TWT38U" localSheetId="16">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="15">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="14">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="13">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="12">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="11">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1061109'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1061110'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1061113'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1061114'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1061115'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1061116'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061117'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061120'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="16">'1060223'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="15">'1060224'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="14">'1060301'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="13">'1060302'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="12">'1060303'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="11">'1060306'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1060307'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1061108'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1061109'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1061110'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1061113'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1061114'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1061115'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1061116'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061117'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061120'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U_1" localSheetId="16">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="15">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="14">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="13">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="12">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="11">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1061110'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1061115'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1061116'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061117'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061120'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="16">'1060223'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="15">'1060224'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="14">'1060301'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="13">'1060302'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="12">'1060303'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="11">'1060306'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1060307'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1061108'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1061109'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1061110'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1061113'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1061114'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1061115'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1061116'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061117'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061120'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="16">'1060223'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="15">'1060224'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="14">'1060301'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="13">'1060302'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="12">'1060303'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="11">'1060306'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1060307'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1061108'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1061109'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1061110'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1061113'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1061114'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1061115'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1061116'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061117'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061120'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="16">'1060223'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="15">'1060224'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="14">'1060301'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="13">'1060302'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="12">'1060303'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="11">'1060306'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1060307'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1061108'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1061109'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1061110'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1061113'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1061114'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1061115'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1061116'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061117'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061120'!$I$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -174,149 +181,161 @@
   <connection id="14" name="連線1111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="15" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="15" name="連線11111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="16" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="16" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="17" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="18" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線2121111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="37" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="38" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="39" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="40" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="41" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="41" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="42" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="42" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="43" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="43" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="44" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="44" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="45" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="45" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="46" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="46" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="47" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="47" name="連線231111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="48" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="48" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="49" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="49" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="50" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="50" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="51" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="51" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="52" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="52" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="53" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="53" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="54" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="54" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="55" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="55" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="56" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="56" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="57" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="57" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="58" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="58" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="59" name="連線42111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="59" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="60" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="60" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="61" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="62" name="連線42111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="63" name="連線421111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="64" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="322">
   <si>
     <t>旺宏</t>
   </si>
@@ -1275,6 +1294,21 @@
   </si>
   <si>
     <t>恩德</t>
+  </si>
+  <si>
+    <t>訊芯-KY</t>
+  </si>
+  <si>
+    <t>泰福-KY</t>
+  </si>
+  <si>
+    <t>辛耘</t>
+  </si>
+  <si>
+    <t>中纖</t>
+  </si>
+  <si>
+    <t>建漢</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1612,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1803,243 +1851,259 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="61" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="62" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="64" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2342,6 +2406,1308 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2892</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2028000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2610</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-2303000</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2409</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="9">
+        <v>22022000</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-25421763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2313</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1823000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>1319</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-1447000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2603</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="9">
+        <v>6380000</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2337</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-13391045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>5264</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1167000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>2603</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-1288000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>2313</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="9">
+        <v>5950802</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>3231</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-9481386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2881</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1044000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>3481</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-1245000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2405</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="9">
+        <v>4370000</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>2317</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-9207186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>4977</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="9">
+        <v>763000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>2303</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-993000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>2610</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3470765</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>3481</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-7095412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2633</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="9">
+        <v>747000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>1312</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-962000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2408</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2989265</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>2308</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-4814000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>3035</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="9">
+        <v>700000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>2337</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-958000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>6202</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K8" s="9">
+        <v>2870000</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>4960</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-3615000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>1714</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="9">
+        <v>563000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>1909</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-908156</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>2303</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2860000</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>3037</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-3507000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2408</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="9">
+        <v>537000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>2367</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-854000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>2311</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2768535</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>8110</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-3440000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>2369</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="9">
+        <v>512000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2820</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-816000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>2458</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2450000</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>2330</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-3343213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>3702</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="9">
+        <v>506000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>3037</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-760000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>2376</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2355000</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>2301</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-3228676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>2377</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="9">
+        <v>500000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>1605</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-707000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>2344</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2177889</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>3380</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-3182000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>1712</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="9">
+        <v>481000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>2615</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-664000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>1605</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="9">
+        <v>2103000</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>3702</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-3109846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>2449</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="9">
+        <v>421000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>3017</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-646000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>2401</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K15" s="9">
+        <v>2028000</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>2880</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-2906000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>2104</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="9">
+        <v>399000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>2903</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-642000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6269</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="9">
+        <v>2016823</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>2884</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-2670183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>2351</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="9">
+        <v>336000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>1476</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-611180</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>2883</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1997000</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>2352</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-2427000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>4915</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="9">
+        <v>328000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>6456</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-575000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>2049</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1961639</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>2823</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-2115504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>2344</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="9">
+        <v>323000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>1310</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-566000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>5880</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1764624</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>2892</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-2104104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>2206</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="9">
+        <v>320000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>3231</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-564000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>1216</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1725360</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>1305</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-1930360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>1507</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="9">
+        <v>302000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>2511</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-556000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>2324</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1547000</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>6176</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-1915268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>5269</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="9">
+        <v>283000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>1210</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-553000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>2419</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1453000</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>8150</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-1844000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>4919</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="9">
+        <v>274000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>1313</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-544000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>1314</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1419000</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>8112</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-1810000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>5305</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="9">
+        <v>267000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>1904</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-521000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>4938</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1305118</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>9945</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1806000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>3056</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="9">
+        <v>251000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>2888</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-481000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>4956</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1222000</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>2481</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1587000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>2049</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="9">
+        <v>248000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>3653</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-437000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>2891</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1192358</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>2882</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1585000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>2444</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="9">
+        <v>246000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>1457</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-429000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>1210</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1167000</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>2448</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1490228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>1215</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="9">
+        <v>242000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>1568</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-416000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>3034</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1058491</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>2383</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-1477000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>2392</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="9">
+        <v>236000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>2031</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-387000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>3698</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1032000</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>2812</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1442000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>2520</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="9">
+        <v>199000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>2886</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-381428</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>6239</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" s="9">
+        <v>922000</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>2633</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-1340140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>6226</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="17">
+        <v>198000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>2359</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-366000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>1710</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" s="17">
+        <v>894000</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>5388</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-1329977</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -3639,7 +5005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -4941,7 +6307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -6243,7 +7609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -7545,7 +8911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -8847,7 +10213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -10559,7 +11925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -12276,7 +13642,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:O31"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -12325,33 +13691,33 @@
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
-        <v>2408</v>
+        <v>2337</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="C2" s="9">
-        <v>2400000</v>
+        <v>5539000</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="8">
-        <v>2313</v>
+        <v>2610</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="G2" s="10">
-        <v>-3617000</v>
+        <v>-4297000</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8">
-        <v>2409</v>
+        <v>2888</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="K2" s="9">
-        <v>17589392</v>
+        <v>60837604</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="8">
@@ -12361,551 +13727,551 @@
         <v>64</v>
       </c>
       <c r="O2" s="10">
-        <v>-19510044</v>
+        <v>-18234392</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
-        <v>1305</v>
+        <v>3026</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="C3" s="9">
-        <v>2008000</v>
+        <v>1004000</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="8">
-        <v>1312</v>
+        <v>1909</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="G3" s="10">
-        <v>-1275000</v>
+        <v>-2361559</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="8">
-        <v>2891</v>
+        <v>2409</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="K3" s="9">
-        <v>16608483</v>
+        <v>16435366</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="8">
-        <v>4938</v>
+        <v>6116</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="O3" s="10">
-        <v>-11258313</v>
+        <v>-11845000</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
-        <v>2456</v>
+        <v>1305</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="C4" s="9">
-        <v>1822000</v>
+        <v>1001000</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="8">
-        <v>6239</v>
+        <v>1312</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="G4" s="10">
-        <v>-802000</v>
+        <v>-1523000</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8">
-        <v>2344</v>
+        <v>4960</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="K4" s="9">
-        <v>14811529</v>
+        <v>11277000</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="8">
-        <v>6116</v>
+        <v>3231</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="O4" s="10">
-        <v>-10565000</v>
+        <v>-9221027</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
-        <v>1101</v>
+        <v>2455</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>305</v>
       </c>
       <c r="C5" s="9">
-        <v>1660000</v>
+        <v>900000</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="8">
-        <v>3533</v>
+        <v>3041</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G5" s="10">
-        <v>-413000</v>
+        <v>-1218000</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="8">
-        <v>2888</v>
+        <v>2303</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K5" s="9">
-        <v>12607243</v>
+        <v>11269719</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="8">
-        <v>3481</v>
+        <v>2891</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O5" s="10">
-        <v>-10061486</v>
+        <v>-5483524</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
-        <v>2345</v>
+        <v>2492</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C6" s="9">
-        <v>1043000</v>
+        <v>446000</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="8">
-        <v>2239</v>
+        <v>6153</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G6" s="10">
-        <v>-402000</v>
+        <v>-1192000</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="8">
-        <v>2337</v>
+        <v>2882</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K6" s="9">
-        <v>11521731</v>
+        <v>10857810</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="8">
-        <v>2356</v>
+        <v>2886</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="O6" s="10">
-        <v>-7849318</v>
+        <v>-5134330</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
-        <v>3532</v>
+        <v>2313</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>266</v>
+        <v>7</v>
       </c>
       <c r="C7" s="9">
-        <v>613000</v>
+        <v>428000</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8">
-        <v>2483</v>
+        <v>8261</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>292</v>
+        <v>141</v>
       </c>
       <c r="G7" s="10">
-        <v>-392000</v>
+        <v>-884000</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="8">
-        <v>2610</v>
+        <v>2885</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="K7" s="9">
-        <v>9976084</v>
+        <v>10785472</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="8">
-        <v>6153</v>
+        <v>4938</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>259</v>
+        <v>100</v>
       </c>
       <c r="O7" s="10">
-        <v>-6521766</v>
+        <v>-4843097</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
-        <v>6271</v>
+        <v>5434</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C8" s="9">
-        <v>594000</v>
+        <v>422000</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="8">
-        <v>1457</v>
+        <v>2483</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="G8" s="10">
-        <v>-350000</v>
+        <v>-770000</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="8">
-        <v>1710</v>
+        <v>2371</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c r="K8" s="9">
-        <v>8609000</v>
+        <v>5875000</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="8">
-        <v>2881</v>
+        <v>2324</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="O8" s="10">
-        <v>-4992487</v>
+        <v>-4816143</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>4739</v>
+        <v>6269</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>278</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9">
-        <v>584000</v>
+        <v>407000</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8">
-        <v>1589</v>
+        <v>6456</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>271</v>
+        <v>41</v>
       </c>
       <c r="G9" s="10">
-        <v>-326000</v>
+        <v>-729000</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="K9" s="9">
-        <v>5863004</v>
+        <v>5727990</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="8">
-        <v>3037</v>
+        <v>2337</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="O9" s="10">
-        <v>-4770000</v>
+        <v>-4036648</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>4968</v>
+        <v>2345</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="C10" s="9">
-        <v>346000</v>
+        <v>404000</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8">
-        <v>2412</v>
+        <v>2883</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="G10" s="10">
-        <v>-229000</v>
+        <v>-550000</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="8">
-        <v>2371</v>
+        <v>2610</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="K10" s="9">
-        <v>5500000</v>
+        <v>4444611</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="8">
-        <v>2603</v>
+        <v>2883</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="O10" s="10">
-        <v>-4432472</v>
+        <v>-2804378</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>4977</v>
+        <v>6257</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="C11" s="9">
-        <v>306000</v>
+        <v>390000</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="8">
-        <v>3545</v>
+        <v>2915</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="G11" s="10">
-        <v>-219000</v>
+        <v>-499000</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="8">
-        <v>2330</v>
+        <v>2449</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K11" s="9">
-        <v>4661421</v>
+        <v>4136700</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="8">
-        <v>3231</v>
+        <v>2382</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="O11" s="10">
-        <v>-4012063</v>
+        <v>-2488064</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
-        <v>2455</v>
+        <v>6271</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>305</v>
+        <v>65</v>
       </c>
       <c r="C12" s="9">
-        <v>293000</v>
+        <v>368000</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="8">
-        <v>3682</v>
+        <v>5871</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="G12" s="10">
-        <v>-215000</v>
+        <v>-497000</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="8">
-        <v>2104</v>
+        <v>3698</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c r="K12" s="9">
-        <v>3999000</v>
+        <v>4026000</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="8">
-        <v>2887</v>
+        <v>6176</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="O12" s="10">
-        <v>-3281779</v>
+        <v>-2443000</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <v>1301</v>
+        <v>2344</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C13" s="9">
-        <v>281000</v>
+        <v>331000</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8">
-        <v>9938</v>
+        <v>2031</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="G13" s="10">
-        <v>-214000</v>
+        <v>-455000</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="8">
-        <v>2347</v>
+        <v>1718</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="K13" s="9">
-        <v>3386701</v>
+        <v>3659000</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="8">
-        <v>4906</v>
+        <v>2330</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="O13" s="10">
-        <v>-3124000</v>
+        <v>-2442382</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <v>5434</v>
+        <v>2882</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C14" s="9">
-        <v>260000</v>
+        <v>297000</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8">
-        <v>2603</v>
+        <v>2481</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="G14" s="10">
-        <v>-150000</v>
+        <v>-415000</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8">
-        <v>2313</v>
+        <v>1305</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="K14" s="9">
-        <v>3365509</v>
+        <v>3239789</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="8">
-        <v>2382</v>
+        <v>2887</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="O14" s="10">
-        <v>-2883300</v>
+        <v>-2340512</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>2520</v>
+        <v>2377</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="C15" s="9">
-        <v>211000</v>
+        <v>230000</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="8">
-        <v>2351</v>
+        <v>1568</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="G15" s="10">
-        <v>-136000</v>
+        <v>-399000</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="8">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>53</v>
+        <v>314</v>
       </c>
       <c r="K15" s="9">
-        <v>2898300</v>
+        <v>2520550</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="8">
-        <v>3698</v>
+        <v>3037</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>249</v>
+        <v>127</v>
       </c>
       <c r="O15" s="10">
-        <v>-2756000</v>
+        <v>-2226000</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>3413</v>
+        <v>2303</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="C16" s="9">
-        <v>207000</v>
+        <v>200000</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="8">
@@ -12915,550 +14281,550 @@
         <v>35</v>
       </c>
       <c r="G16" s="10">
-        <v>-107000</v>
+        <v>-391000</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="8">
-        <v>3019</v>
+        <v>1710</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>315</v>
+        <v>250</v>
       </c>
       <c r="K16" s="9">
-        <v>2614000</v>
+        <v>2468000</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="8">
-        <v>4960</v>
+        <v>5880</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="O16" s="10">
-        <v>-2662000</v>
+        <v>-2214772</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>2340</v>
+        <v>3532</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>266</v>
       </c>
       <c r="C17" s="9">
-        <v>193000</v>
+        <v>194000</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="8">
-        <v>1102</v>
+        <v>3533</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="G17" s="10">
-        <v>-103000</v>
+        <v>-330000</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="8">
-        <v>1312</v>
+        <v>2603</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="K17" s="9">
-        <v>2391300</v>
+        <v>2421497</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="8">
-        <v>2301</v>
+        <v>8110</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="O17" s="10">
-        <v>-2603258</v>
+        <v>-2159000</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>6196</v>
+        <v>3443</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="C18" s="9">
-        <v>191000</v>
+        <v>169000</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="8">
-        <v>1568</v>
+        <v>4919</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>242</v>
+        <v>83</v>
       </c>
       <c r="G18" s="10">
-        <v>-100000</v>
+        <v>-300000</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8">
-        <v>8110</v>
+        <v>5871</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="K18" s="9">
-        <v>2323000</v>
+        <v>2257335</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="8">
-        <v>2823</v>
+        <v>2344</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="O18" s="10">
-        <v>-2444544</v>
+        <v>-2034151</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>2377</v>
+        <v>2448</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C19" s="9">
-        <v>186000</v>
+        <v>150000</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="8">
-        <v>2610</v>
+        <v>2239</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>128</v>
+        <v>291</v>
       </c>
       <c r="G19" s="10">
-        <v>-100000</v>
+        <v>-290000</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="8">
-        <v>2454</v>
+        <v>2823</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="K19" s="9">
-        <v>2267894</v>
+        <v>2220576</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="8">
-        <v>2312</v>
+        <v>2301</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="O19" s="10">
-        <v>-2214000</v>
+        <v>-1755301</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>2492</v>
+        <v>2360</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C20" s="9">
         <v>135000</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="8">
-        <v>3090</v>
+        <v>6239</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>282</v>
+        <v>187</v>
       </c>
       <c r="G20" s="10">
-        <v>-100000</v>
+        <v>-245000</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="8">
-        <v>2498</v>
+        <v>3035</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="K20" s="9">
-        <v>2243356</v>
+        <v>2126000</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="8">
-        <v>5880</v>
+        <v>2801</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="O20" s="10">
-        <v>-2145860</v>
+        <v>-1660036</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
-        <v>2344</v>
+        <v>4958</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="C21" s="9">
-        <v>103000</v>
+        <v>108000</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="8">
-        <v>4746</v>
+        <v>6451</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="G21" s="10">
-        <v>-100000</v>
+        <v>-221000</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8">
-        <v>1216</v>
+        <v>2448</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="K21" s="9">
-        <v>2076893</v>
+        <v>2120500</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="8">
-        <v>2882</v>
+        <v>6269</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="O21" s="10">
-        <v>-1944704</v>
+        <v>-1620859</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>2376</v>
+        <v>2520</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="C22" s="9">
-        <v>98000</v>
+        <v>80000</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="8">
-        <v>5471</v>
+        <v>3189</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="G22" s="10">
-        <v>-100000</v>
+        <v>-200000</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="8">
-        <v>3413</v>
+        <v>1312</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K22" s="9">
-        <v>2037937</v>
+        <v>1980000</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="8">
-        <v>2834</v>
+        <v>3041</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="O22" s="10">
-        <v>-1904263</v>
+        <v>-1513000</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>3003</v>
+        <v>2408</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="C23" s="9">
-        <v>75000</v>
+        <v>62000</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="8">
-        <v>4551</v>
+        <v>9802</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G23" s="10">
-        <v>-94000</v>
+        <v>-189000</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="8">
-        <v>4958</v>
+        <v>3062</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>193</v>
+        <v>321</v>
       </c>
       <c r="K23" s="9">
-        <v>2031983</v>
+        <v>1833588</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="8">
-        <v>1101</v>
+        <v>2354</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="O23" s="10">
-        <v>-1790658</v>
+        <v>-1511450</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>4943</v>
+        <v>1229</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c r="C24" s="9">
-        <v>51000</v>
+        <v>50000</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="8">
-        <v>1532</v>
+        <v>9910</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="G24" s="10">
-        <v>-88000</v>
+        <v>-180000</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="8">
-        <v>2449</v>
+        <v>1455</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K24" s="9">
-        <v>1901000</v>
+        <v>1632000</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="8">
-        <v>2377</v>
+        <v>4906</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="O24" s="10">
-        <v>-1786908</v>
+        <v>-1509000</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>4755</v>
+        <v>3413</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>311</v>
+        <v>37</v>
       </c>
       <c r="C25" s="9">
-        <v>43000</v>
+        <v>41000</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="8">
-        <v>9802</v>
+        <v>2317</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="G25" s="10">
-        <v>-87000</v>
+        <v>-170000</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="8">
-        <v>1305</v>
+        <v>2618</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="K25" s="9">
-        <v>1802484</v>
+        <v>1512382</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="8">
-        <v>1326</v>
+        <v>2880</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="O25" s="10">
-        <v>-1690878</v>
+        <v>-1475203</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>5269</v>
+        <v>2456</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>231</v>
+        <v>93</v>
       </c>
       <c r="C26" s="9">
-        <v>42000</v>
+        <v>35127</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="8">
-        <v>2723</v>
+        <v>1319</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>312</v>
+        <v>130</v>
       </c>
       <c r="G26" s="10">
-        <v>-69000</v>
+        <v>-150000</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="8">
-        <v>1455</v>
+        <v>1714</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>107</v>
+        <v>220</v>
       </c>
       <c r="K26" s="9">
-        <v>1644000</v>
+        <v>1461000</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="8">
-        <v>2324</v>
+        <v>1528</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="O26" s="10">
-        <v>-1634779</v>
+        <v>-1465000</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>2421</v>
+        <v>4755</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>135</v>
+        <v>311</v>
       </c>
       <c r="C27" s="9">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="8">
-        <v>6414</v>
+        <v>6213</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>313</v>
+        <v>173</v>
       </c>
       <c r="G27" s="10">
-        <v>-67000</v>
+        <v>-135000</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="8">
-        <v>2376</v>
+        <v>1402</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="K27" s="9">
-        <v>1625000</v>
+        <v>1457363</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="8">
-        <v>1909</v>
+        <v>2892</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="O27" s="10">
-        <v>-1611000</v>
+        <v>-1349197</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>1476</v>
+        <v>4943</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>144</v>
+        <v>269</v>
       </c>
       <c r="C28" s="9">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="8">
-        <v>6505</v>
+        <v>6541</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>200</v>
+        <v>318</v>
       </c>
       <c r="G28" s="10">
-        <v>-67000</v>
+        <v>-135000</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="8">
-        <v>2327</v>
+        <v>6168</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>10</v>
+        <v>307</v>
       </c>
       <c r="K28" s="9">
-        <v>1598815</v>
+        <v>1452000</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="8">
-        <v>2884</v>
+        <v>2308</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="O28" s="10">
-        <v>-1536741</v>
+        <v>-1303766</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
-        <v>2912</v>
+        <v>1101</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="C29" s="9">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="8">
-        <v>2454</v>
+        <v>2369</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="G29" s="10">
-        <v>-66000</v>
+        <v>-130000</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="8">
-        <v>1605</v>
+        <v>1310</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="K29" s="9">
-        <v>1511000</v>
+        <v>1345000</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="8">
@@ -13468,89 +14834,89 @@
         <v>152</v>
       </c>
       <c r="O29" s="10">
-        <v>-1486000</v>
+        <v>-1282000</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
-        <v>3443</v>
+        <v>6505</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="C30" s="9">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="8">
-        <v>6269</v>
+        <v>2454</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="G30" s="10">
-        <v>-53000</v>
+        <v>-127000</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="8">
-        <v>2355</v>
+        <v>2367</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="K30" s="9">
-        <v>1485000</v>
+        <v>1265000</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="8">
-        <v>6269</v>
+        <v>2311</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="O30" s="10">
-        <v>-1458381</v>
+        <v>-1277350</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
-        <v>3035</v>
+        <v>1301</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C31" s="17">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="11">
-        <v>2330</v>
+        <v>3583</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>89</v>
+        <v>319</v>
       </c>
       <c r="G31" s="13">
-        <v>-51000</v>
+        <v>-123000</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="11">
-        <v>1528</v>
+        <v>3026</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="K31" s="17">
-        <v>1473000</v>
+        <v>1189900</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="11">
-        <v>3006</v>
+        <v>6153</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>176</v>
+        <v>259</v>
       </c>
       <c r="O31" s="13">
-        <v>-1450000</v>
+        <v>-1253000</v>
       </c>
     </row>
   </sheetData>
@@ -13573,6 +14939,1307 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="16.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2408</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2400000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2313</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-3617000</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2409</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="9">
+        <v>17589392</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>2317</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-19510044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1305</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2008000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>1312</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-1275000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2891</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="9">
+        <v>16608483</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>4938</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-11258313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2456</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1822000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>6239</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-802000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>2344</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="9">
+        <v>14811529</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-10565000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1101</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1660000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>3533</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-413000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2888</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="9">
+        <v>12607243</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>3481</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-10061486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2345</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1043000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>2239</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-402000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>2337</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>11521731</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>2356</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-7849318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>3532</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="9">
+        <v>613000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>2483</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-392000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2610</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="9">
+        <v>9976084</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>6153</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-6521766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>6271</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="9">
+        <v>594000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>1457</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-350000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>1710</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8" s="9">
+        <v>8609000</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>2881</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-4992487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>4739</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="9">
+        <v>584000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>1589</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-326000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>2885</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="9">
+        <v>5863004</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>3037</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-4770000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>4968</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="9">
+        <v>346000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>2412</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-229000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>2371</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="9">
+        <v>5500000</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>2603</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-4432472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>4977</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="9">
+        <v>306000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>3545</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-219000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>2330</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="9">
+        <v>4661421</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>3231</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-4012063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2455</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C12" s="9">
+        <v>293000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>3682</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-215000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>2104</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="9">
+        <v>3999000</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>2887</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-3281779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>1301</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="9">
+        <v>281000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>9938</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-214000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>2347</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="K13" s="9">
+        <v>3386701</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>4906</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-3124000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>5434</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9">
+        <v>260000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>2603</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-150000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>2313</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="9">
+        <v>3365509</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>2382</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-2883300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>2520</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="9">
+        <v>211000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>2351</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-136000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>2345</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="9">
+        <v>2898300</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>3698</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-2756000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>3413</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="9">
+        <v>207000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>2104</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-107000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>3019</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="K16" s="9">
+        <v>2614000</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>4960</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-2662000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>2340</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="9">
+        <v>193000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>1102</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-103000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>1312</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="9">
+        <v>2391300</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>2301</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-2603258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>6196</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="9">
+        <v>191000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>1568</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>8110</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" s="9">
+        <v>2323000</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>2823</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-2444544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>2377</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="9">
+        <v>186000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>2610</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>2454</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" s="9">
+        <v>2267894</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>2312</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-2214000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>2492</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9">
+        <v>135000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>3090</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>2498</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="9">
+        <v>2243356</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>5880</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-2145860</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>2344</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="9">
+        <v>103000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>4746</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>1216</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="9">
+        <v>2076893</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>2882</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-1944704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>2376</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="9">
+        <v>98000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>5471</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>3413</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="9">
+        <v>2037937</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>2834</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-1904263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>3003</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="9">
+        <v>75000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>4551</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-94000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>4958</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" s="9">
+        <v>2031983</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>1101</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-1790658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>4943</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="9">
+        <v>51000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>1532</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-88000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>2449</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1901000</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>2377</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1786908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>4755</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" s="9">
+        <v>43000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>9802</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-87000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>1305</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1802484</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>1326</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1690878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>5269</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="9">
+        <v>42000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>2723</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-69000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>1455</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1644000</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>2324</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1634779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>2421</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="9">
+        <v>28000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>6414</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-67000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>2376</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1625000</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>1909</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1611000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>1476</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>6505</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-67000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>2327</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1598815</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>2884</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-1536741</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>2912</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="9">
+        <v>22000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>2454</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-66000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>1605</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1511000</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>8150</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1486000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>3443</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="9">
+        <v>22000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>6269</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-53000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>2355</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1485000</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>6269</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-1458381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>3035</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="17">
+        <v>19000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>2330</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-51000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>1528</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="K31" s="17">
+        <v>1473000</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>3006</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-1450000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -14873,7 +17540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -16174,7 +18841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -17475,7 +20142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -18776,7 +21443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -20078,7 +22745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -21378,1306 +24045,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>2892</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="9">
-        <v>2028000</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>2610</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-2303000</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>2409</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="9">
-        <v>22022000</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>6116</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-25421763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>2313</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1823000</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>1319</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-1447000</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>2603</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="9">
-        <v>6380000</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>2337</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-13391045</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>5264</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1167000</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>2603</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-1288000</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>2313</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="9">
-        <v>5950802</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>3231</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-9481386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>2881</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1044000</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>3481</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-1245000</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>2405</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="K5" s="9">
-        <v>4370000</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>2317</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-9207186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>4977</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="9">
-        <v>763000</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>2303</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-993000</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>2610</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K6" s="9">
-        <v>3470765</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>3481</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-7095412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>2633</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="9">
-        <v>747000</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>1312</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-962000</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>2408</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K7" s="9">
-        <v>2989265</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>2308</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-4814000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>3035</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="9">
-        <v>700000</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>2337</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-958000</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>6202</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K8" s="9">
-        <v>2870000</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>4960</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-3615000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>1714</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="9">
-        <v>563000</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>1909</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-908156</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>2303</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="9">
-        <v>2860000</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>3037</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-3507000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>2408</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="9">
-        <v>537000</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>2367</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-854000</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>2311</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="9">
-        <v>2768535</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>8110</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-3440000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>2369</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" s="9">
-        <v>512000</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>2820</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-816000</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>2458</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" s="9">
-        <v>2450000</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>2330</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-3343213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>3702</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="9">
-        <v>506000</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>3037</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-760000</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>2376</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="K12" s="9">
-        <v>2355000</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>2301</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-3228676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>2377</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="9">
-        <v>500000</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>1605</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-707000</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>2344</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="9">
-        <v>2177889</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>3380</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-3182000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>1712</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="9">
-        <v>481000</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>2615</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-664000</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>1605</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="9">
-        <v>2103000</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>3702</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-3109846</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>2449</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="9">
-        <v>421000</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>3017</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-646000</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>2401</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="K15" s="9">
-        <v>2028000</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>2880</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-2906000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>2104</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="9">
-        <v>399000</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>2903</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-642000</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>6269</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="9">
-        <v>2016823</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>2884</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-2670183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>2351</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="9">
-        <v>336000</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>1476</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-611180</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>2883</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="9">
-        <v>1997000</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>2352</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-2427000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>4915</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="9">
-        <v>328000</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>6456</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-575000</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>2049</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="9">
-        <v>1961639</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>2823</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-2115504</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>2344</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="9">
-        <v>323000</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>1310</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-566000</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>5880</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K19" s="9">
-        <v>1764624</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>2892</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-2104104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>2206</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="9">
-        <v>320000</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>3231</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-564000</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>1216</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1725360</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>1305</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-1930360</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>1507</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C21" s="9">
-        <v>302000</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>2511</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-556000</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>2324</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="9">
-        <v>1547000</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>6176</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-1915268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>5269</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C22" s="9">
-        <v>283000</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>1210</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-553000</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>2419</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K22" s="9">
-        <v>1453000</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>8150</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-1844000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>4919</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="9">
-        <v>274000</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>1313</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-544000</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>1314</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K23" s="9">
-        <v>1419000</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>8112</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-1810000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>5305</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="9">
-        <v>267000</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>1904</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-521000</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>4938</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K24" s="9">
-        <v>1305118</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>9945</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-1806000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>3056</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="9">
-        <v>251000</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>2888</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-481000</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>4956</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K25" s="9">
-        <v>1222000</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>2481</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-1587000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>2049</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="9">
-        <v>248000</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>3653</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-437000</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>2891</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="9">
-        <v>1192358</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>2882</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-1585000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>2444</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C27" s="9">
-        <v>246000</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>1457</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-429000</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>1210</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="9">
-        <v>1167000</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>2448</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-1490228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>1215</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="9">
-        <v>242000</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>1568</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-416000</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>3034</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28" s="9">
-        <v>1058491</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>2383</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-1477000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>2392</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C29" s="9">
-        <v>236000</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>2031</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-387000</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>3698</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="K29" s="9">
-        <v>1032000</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>2812</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-1442000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>2520</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="9">
-        <v>199000</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>2886</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-381428</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>6239</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="K30" s="9">
-        <v>922000</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>2633</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-1340140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11">
-        <v>6226</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C31" s="17">
-        <v>198000</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="11">
-        <v>2359</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="G31" s="13">
-        <v>-366000</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="11">
-        <v>1710</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="K31" s="17">
-        <v>894000</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="11">
-        <v>5388</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="O31" s="13">
-        <v>-1329977</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/twse.xlsx
+++ b/twse.xlsx
@@ -4,131 +4,138 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="證交所" sheetId="9" r:id="rId1"/>
-    <sheet name="1061121" sheetId="21" r:id="rId2"/>
-    <sheet name="1061120" sheetId="20" r:id="rId3"/>
-    <sheet name="1061117" sheetId="19" r:id="rId4"/>
-    <sheet name="1061116" sheetId="18" r:id="rId5"/>
-    <sheet name="1061115" sheetId="17" r:id="rId6"/>
-    <sheet name="1061114" sheetId="16" r:id="rId7"/>
-    <sheet name="1061113" sheetId="15" r:id="rId8"/>
-    <sheet name="1061110" sheetId="14" r:id="rId9"/>
-    <sheet name="1061109" sheetId="13" r:id="rId10"/>
-    <sheet name="1061108" sheetId="12" r:id="rId11"/>
-    <sheet name="1060307" sheetId="11" r:id="rId12"/>
-    <sheet name="1060306" sheetId="10" r:id="rId13"/>
-    <sheet name="1060303" sheetId="8" r:id="rId14"/>
-    <sheet name="1060302" sheetId="7" r:id="rId15"/>
-    <sheet name="1060301" sheetId="6" r:id="rId16"/>
-    <sheet name="1060224" sheetId="1" r:id="rId17"/>
-    <sheet name="1060223" sheetId="5" r:id="rId18"/>
+    <sheet name="1061122" sheetId="22" r:id="rId2"/>
+    <sheet name="1061121" sheetId="21" r:id="rId3"/>
+    <sheet name="1061120" sheetId="20" r:id="rId4"/>
+    <sheet name="1061117" sheetId="19" r:id="rId5"/>
+    <sheet name="1061116" sheetId="18" r:id="rId6"/>
+    <sheet name="1061115" sheetId="17" r:id="rId7"/>
+    <sheet name="1061114" sheetId="16" r:id="rId8"/>
+    <sheet name="1061113" sheetId="15" r:id="rId9"/>
+    <sheet name="1061110" sheetId="14" r:id="rId10"/>
+    <sheet name="1061109" sheetId="13" r:id="rId11"/>
+    <sheet name="1061108" sheetId="12" r:id="rId12"/>
+    <sheet name="1060307" sheetId="11" r:id="rId13"/>
+    <sheet name="1060306" sheetId="10" r:id="rId14"/>
+    <sheet name="1060303" sheetId="8" r:id="rId15"/>
+    <sheet name="1060302" sheetId="7" r:id="rId16"/>
+    <sheet name="1060301" sheetId="6" r:id="rId17"/>
+    <sheet name="1060224" sheetId="1" r:id="rId18"/>
+    <sheet name="1060223" sheetId="5" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="17">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="16">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="15">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="14">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="13">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="12">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="11">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="10">'1061108'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="9">'1061109'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1061110'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1061113'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1061114'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1061115'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1061116'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1061117'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1061120'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061121'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="17">'1060223'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="16">'1060224'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="15">'1060301'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="14">'1060302'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="13">'1060303'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="12">'1060306'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="11">'1060307'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="10">'1061108'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1061109'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1061110'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1061113'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1061114'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1061115'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1061116'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1061117'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1061120'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061121'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U_1" localSheetId="17">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="16">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="15">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="14">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="13">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="12">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="11">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="10">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1061110'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1061114'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1061115'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1061116'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1061117'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1061120'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061121'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="17">'1060223'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="16">'1060224'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="15">'1060301'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="14">'1060302'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="13">'1060303'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="12">'1060306'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="11">'1060307'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="10">'1061108'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1061109'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1061110'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1061113'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1061114'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1061115'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1061116'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1061117'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1061120'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061121'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="17">'1060223'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="16">'1060224'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="15">'1060301'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="14">'1060302'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="13">'1060303'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="12">'1060306'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="11">'1060307'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="10">'1061108'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1061109'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1061110'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1061113'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1061114'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1061115'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1061116'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1061117'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1061120'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061121'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="17">'1060223'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="16">'1060224'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="15">'1060301'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="14">'1060302'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="13">'1060303'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="12">'1060306'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="11">'1060307'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="10">'1061108'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1061109'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1061110'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1061113'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1061114'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1061115'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1061116'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1061117'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1061120'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061121'!$I$1:$K$31</definedName>
+    <definedName name="TWT38U" localSheetId="18">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="17">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="16">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="15">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="14">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="13">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="12">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="11">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1061109'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1061110'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1061113'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1061114'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1061115'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1061116'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1061117'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1061120'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061121'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061122'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="18">'1060223'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="17">'1060224'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="16">'1060301'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="15">'1060302'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="14">'1060303'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="13">'1060306'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="12">'1060307'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="11">'1061108'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1061109'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1061110'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1061113'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1061114'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1061115'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1061116'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1061117'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1061120'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061121'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061122'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U_1" localSheetId="18">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="17">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="16">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="15">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="14">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="13">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="12">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="11">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1061110'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1061115'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1061116'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1061117'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1061120'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061121'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061122'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="18">'1060223'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="17">'1060224'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="16">'1060301'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="15">'1060302'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="14">'1060303'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="13">'1060306'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="12">'1060307'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="11">'1061108'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1061109'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1061110'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1061113'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1061114'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1061115'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1061116'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1061117'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1061120'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061121'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061122'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="18">'1060223'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="17">'1060224'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="16">'1060301'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="15">'1060302'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="14">'1060303'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="13">'1060306'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="12">'1060307'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="11">'1061108'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1061109'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1061110'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1061113'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1061114'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1061115'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1061116'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1061117'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1061120'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061121'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061122'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="18">'1060223'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="17">'1060224'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="16">'1060301'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="15">'1060302'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="14">'1060303'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="13">'1060306'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="12">'1060307'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="11">'1061108'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1061109'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1061110'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1061113'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1061114'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1061115'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1061116'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1061117'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1061120'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061121'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061122'!$I$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -189,167 +196,179 @@
   <connection id="16" name="連線111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="17" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="連線1111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="18" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線2121111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線21211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線2121111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線21211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線212111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="37" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="38" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="39" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="40" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="41" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="41" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="42" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="42" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="43" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="43" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="44" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="44" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="45" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="45" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="46" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="46" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="47" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="47" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="48" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="48" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="49" name="連線231111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="49" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="50" name="連線2311111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="50" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="51" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="51" name="連線231111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="52" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="52" name="連線2311111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="53" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="53" name="連線23111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="54" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="54" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="55" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="55" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="56" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="56" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="57" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="57" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="58" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="58" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="59" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="59" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="60" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="60" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="61" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="61" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="62" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="62" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="63" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="63" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="64" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="64" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="65" name="連線42111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="65" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="66" name="連線421111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="66" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="67" name="連線4211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="67" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="68" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="68" name="連線42111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="69" name="連線421111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="70" name="連線4211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="71" name="連線42111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="72" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="366">
   <si>
     <t>旺宏</t>
   </si>
@@ -1338,6 +1357,123 @@
   </si>
   <si>
     <t>創見</t>
+  </si>
+  <si>
+    <t>00637L</t>
+  </si>
+  <si>
+    <t>元大滬深300正2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00678 </t>
+  </si>
+  <si>
+    <t>群益NBI生技</t>
+  </si>
+  <si>
+    <t>矽力-KY</t>
+  </si>
+  <si>
+    <t>聯邦銀</t>
+  </si>
+  <si>
+    <t>068711</t>
+  </si>
+  <si>
+    <t>晶電統一75購05</t>
+  </si>
+  <si>
+    <t>068618</t>
+  </si>
+  <si>
+    <t>晶電元大76購03</t>
+  </si>
+  <si>
+    <t>068439</t>
+  </si>
+  <si>
+    <t>晶電康和75購01</t>
+  </si>
+  <si>
+    <t>068548</t>
+  </si>
+  <si>
+    <t>晶電元大76購02</t>
+  </si>
+  <si>
+    <t>068637</t>
+  </si>
+  <si>
+    <t>晶電凱基75購11</t>
+  </si>
+  <si>
+    <t>068663</t>
+  </si>
+  <si>
+    <t>晶電元富75購06</t>
+  </si>
+  <si>
+    <t>068635</t>
+  </si>
+  <si>
+    <t>晶電凱基75購08</t>
+  </si>
+  <si>
+    <t>068688</t>
+  </si>
+  <si>
+    <t>晶電凱基75購14</t>
+  </si>
+  <si>
+    <t>068730</t>
+  </si>
+  <si>
+    <t>晶電永豐75購05</t>
+  </si>
+  <si>
+    <t>068672</t>
+  </si>
+  <si>
+    <t>晶電富邦77購01</t>
+  </si>
+  <si>
+    <t>068431</t>
+  </si>
+  <si>
+    <t>晶電統一76購02</t>
+  </si>
+  <si>
+    <t>068592</t>
+  </si>
+  <si>
+    <t>晶電兆豐75購01</t>
+  </si>
+  <si>
+    <t>068495</t>
+  </si>
+  <si>
+    <t>晶電國票75購01</t>
+  </si>
+  <si>
+    <t>00655L</t>
+  </si>
+  <si>
+    <t>國泰中國A50正2</t>
+  </si>
+  <si>
+    <t>00633L</t>
+  </si>
+  <si>
+    <t>富邦上証正2</t>
+  </si>
+  <si>
+    <t>華泰</t>
+  </si>
+  <si>
+    <t>悠克</t>
+  </si>
+  <si>
+    <t>鼎元</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1777,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1894,275 +2044,291 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="69" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="68" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="67" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="66" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="65" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="71" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="64" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="62" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="61" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="70" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="65" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="64" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="62" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="61" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="67" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="66" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable71.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="72" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable72.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="68" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2420,7 +2586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2461,6 +2627,1308 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1">
+      <c r="A2" s="8">
+        <v>5871</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2003000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2337</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-4781000</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2303</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="9">
+        <v>11244200</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>2317</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-14358786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1">
+      <c r="A3" s="8">
+        <v>1312</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1397000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>2448</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-2182000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2888</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="9">
+        <v>8815584</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2409</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-13378294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1">
+      <c r="A4" s="8">
+        <v>3041</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="9">
+        <v>988000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>6456</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-1365000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>2610</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="9">
+        <v>8746263</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>3481</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-11734400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1">
+      <c r="A5" s="8">
+        <v>6271</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="9">
+        <v>600000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>2317</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-1149000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>1312</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="9">
+        <v>7412911</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>2603</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-9357880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1">
+      <c r="A6" s="8">
+        <v>2311</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="9">
+        <v>531000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>2454</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-844000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>1710</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K6" s="9">
+        <v>5596000</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>2324</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-8831690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1">
+      <c r="A7" s="8">
+        <v>2353</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="9">
+        <v>368000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>2892</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-792000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2448</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="9">
+        <v>5099074</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>2301</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-7855577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1">
+      <c r="A8" s="8">
+        <v>4977</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="9">
+        <v>266000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>2421</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-601000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>2344</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="9">
+        <v>5092000</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>2408</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-7851332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1">
+      <c r="A9" s="8">
+        <v>1710</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="9">
+        <v>234000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>6412</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-550000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>5880</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9" s="9">
+        <v>4440814</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-6648000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1">
+      <c r="A10" s="8">
+        <v>2382</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="9">
+        <v>197000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>2408</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-483771</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>2419</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K10" s="9">
+        <v>3189000</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>2891</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-6185968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1">
+      <c r="A11" s="8">
+        <v>9934</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="9">
+        <v>180000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>3661</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-449000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>2454</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="9">
+        <v>3005775</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>4938</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-5947360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1">
+      <c r="A12" s="8">
+        <v>6153</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="9">
+        <v>165000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>2610</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-444000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>1314</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2864154</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>8150</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-4874397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1">
+      <c r="A13" s="8">
+        <v>2313</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9">
+        <v>161000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>2376</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-406000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>1714</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2247000</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>4960</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-4254560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1">
+      <c r="A14" s="8">
+        <v>1909</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="9">
+        <v>137000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>2367</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-340000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>2313</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="9">
+        <v>2184387</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>3673</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-3443748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1">
+      <c r="A15" s="8">
+        <v>2330</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="9">
+        <v>127000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>3443</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-271000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>4906</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" s="9">
+        <v>2048000</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>5871</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-2319583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1">
+      <c r="A16" s="8">
+        <v>1476</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="9">
+        <v>101000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>1101</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-240000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>2412</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="9">
+        <v>2020798</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>3698</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-1793000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1">
+      <c r="A17" s="8">
+        <v>5243</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="9">
+        <v>83000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>2014</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-240000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>2458</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1781615</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>3044</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-1645250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1">
+      <c r="A18" s="8">
+        <v>5264</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="9">
+        <v>75000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>1515</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-228000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>3037</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1660000</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>2886</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-1594089</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1">
+      <c r="A19" s="8">
+        <v>8341</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="9">
+        <v>74000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>2492</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-210000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>2014</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1572000</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>2883</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-1557000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1">
+      <c r="A20" s="8">
+        <v>3056</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="9">
+        <v>73000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>2369</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-204000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>6153</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1572000</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>3545</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-1555000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1">
+      <c r="A21" s="8">
+        <v>5880</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="9">
+        <v>73000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>1589</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-201000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>2474</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1551564</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>2308</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-1532235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1">
+      <c r="A22" s="8">
+        <v>2456</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="9">
+        <v>72000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>1568</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>2356</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1548354</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>1216</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-1477551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1">
+      <c r="A23" s="8">
+        <v>2345</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="9">
+        <v>68000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>1319</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-165000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>1310</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1532000</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>2834</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-1440814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1">
+      <c r="A24" s="8">
+        <v>2049</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="9">
+        <v>67000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>2360</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-163000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>3034</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1503846</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>2880</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1320902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1">
+      <c r="A25" s="8">
+        <v>6269</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9">
+        <v>66000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>3673</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-154000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>2401</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1353000</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>2801</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1239950</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1">
+      <c r="A26" s="8">
+        <v>4739</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="9">
+        <v>63000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>1313</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-152000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>6456</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1335698</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>1476</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1180426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1">
+      <c r="A27" s="8">
+        <v>2642</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" s="9">
+        <v>60000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>3653</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-151000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>1605</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1328000</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>2892</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1158047</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1">
+      <c r="A28" s="8">
+        <v>6202</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="9">
+        <v>59000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>3003</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-146000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>6209</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1240000</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>2823</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-1036942</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1">
+      <c r="A29" s="8">
+        <v>2351</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="9">
+        <v>57000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>3346</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-144000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>2634</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1200000</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>1305</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1003511</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1">
+      <c r="A30" s="8">
+        <v>2891</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="9">
+        <v>51000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>3090</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-140000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>8110</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1090000</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>2887</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-972200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="19.2" thickBot="1">
+      <c r="A31" s="11">
+        <v>6277</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C31" s="17">
+        <v>48000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>6213</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-140000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>2369</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" s="17">
+        <v>982000</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>2884</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-889078</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -3762,7 +5230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -5064,7 +6532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -6366,7 +7834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -7668,7 +9136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -8970,7 +10438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -10272,7 +11740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -11574,7 +13042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -13286,7 +14754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -15002,7 +16470,1309 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1">
+      <c r="A2" s="8">
+        <v>2882</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="9">
+        <v>4789000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>1312</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-2393000</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2891</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="9">
+        <v>71160865</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>3231</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-25400822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1">
+      <c r="A3" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>2369</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-1467000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2409</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="9">
+        <v>45303836</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-23162000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1">
+      <c r="A4" s="8">
+        <v>6269</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1869000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>8112</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-1456000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>2884</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="9">
+        <v>14327284</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>2317</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-16519619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1">
+      <c r="A5" s="8">
+        <v>2448</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1795000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>2317</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-1294000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>3481</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="9">
+        <v>12445563</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>1455</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-5707000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1">
+      <c r="A6" s="8">
+        <v>4915</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1583000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>2603</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-1035000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>2887</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="9">
+        <v>12350177</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>2367</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-4352000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1">
+      <c r="A7" s="8">
+        <v>2408</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1577000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>2367</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-985000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2890</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K7" s="9">
+        <v>8904145</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-4334000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1">
+      <c r="A8" s="8">
+        <v>2881</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1571000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>1319</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-779000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>2371</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="9">
+        <v>8900000</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-4060000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1">
+      <c r="A9" s="8">
+        <v>2884</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1418000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>1909</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-622711</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>2881</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="9">
+        <v>8558334</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>4938</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-3494152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1">
+      <c r="A10" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1375000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>1568</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-549000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>2885</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="9">
+        <v>8474873</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>2888</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-3439325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1">
+      <c r="A11" s="8">
+        <v>2340</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1281000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>1515</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-497000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>5880</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11" s="9">
+        <v>7800063</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>3037</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-3120662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1">
+      <c r="A12" s="8">
+        <v>2455</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1174000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>6202</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-428000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K12" s="9">
+        <v>7282000</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>2337</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-2627586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1">
+      <c r="A13" s="8">
+        <v>2891</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9">
+        <v>996000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>2456</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-375000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>1216</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="9">
+        <v>7214953</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>2308</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-2460249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1">
+      <c r="A14" s="8">
+        <v>2845</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="9">
+        <v>910000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>2376</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-325000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>2303</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="9">
+        <v>7067819</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>2356</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-2259639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1">
+      <c r="A15" s="8">
+        <v>3645</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" s="9">
+        <v>893000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>6239</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-322000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>2823</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="9">
+        <v>6969075</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-2149000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1">
+      <c r="A16" s="8">
+        <v>2812</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="9">
+        <v>871000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>2354</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-240000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="K16" s="9">
+        <v>6550000</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>2313</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-1994804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1">
+      <c r="A17" s="8">
+        <v>2492</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9">
+        <v>765000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-214000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K17" s="9">
+        <v>5610000</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>2329</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-1985000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1">
+      <c r="A18" s="8">
+        <v>2888</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="9">
+        <v>760000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>1101</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="K18" s="9">
+        <v>5350000</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>4960</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-1952000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1">
+      <c r="A19" s="8">
+        <v>3702</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="9">
+        <v>694000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>4919</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>2882</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="9">
+        <v>5147346</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>1604</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-1899316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1">
+      <c r="A20" s="8">
+        <v>2474</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="9">
+        <v>471000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>1476</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-193000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="K20" s="9">
+        <v>5100000</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>6131</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-1854000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1">
+      <c r="A21" s="8">
+        <v>2439</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="9">
+        <v>451000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>2337</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-173000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>2603</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="9">
+        <v>4951671</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>2354</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-1786057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1">
+      <c r="A22" s="8">
+        <v>3045</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="9">
+        <v>383000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>2355</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-170000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="K22" s="9">
+        <v>4900000</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>6202</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-1710732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1">
+      <c r="A23" s="8">
+        <v>5871</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="9">
+        <v>346000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>2472</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-150000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="K23" s="9">
+        <v>4550000</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>2301</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-1523123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1">
+      <c r="A24" s="8">
+        <v>2311</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="9">
+        <v>330000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>4958</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-145000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="K24" s="9">
+        <v>4341000</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>2376</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1412000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1">
+      <c r="A25" s="8">
+        <v>2886</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="9">
+        <v>330000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>3034</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-132000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="K25" s="9">
+        <v>4220000</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>2426</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1365000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1">
+      <c r="A26" s="8">
+        <v>2204</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="9">
+        <v>308000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>6415</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-130000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K26" s="9">
+        <v>4200000</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>6412</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1340000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1">
+      <c r="A27" s="8">
+        <v>2313</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="9">
+        <v>286000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>4739</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-124000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>2892</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="9">
+        <v>4144835</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>3545</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1286250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1">
+      <c r="A28" s="8">
+        <v>3189</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="9">
+        <v>267000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>2838</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-103000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>2474</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" s="9">
+        <v>4131710</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>2105</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-1270449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1">
+      <c r="A29" s="8">
+        <v>3036</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9">
+        <v>258000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>2867</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-94000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="K29" s="9">
+        <v>3896000</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>2201</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1217348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1">
+      <c r="A30" s="8">
+        <v>3003</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="9">
+        <v>257000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>2344</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-92000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="K30" s="9">
+        <v>3842000</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>3017</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-1187000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="19.2" thickBot="1">
+      <c r="A31" s="11">
+        <v>2303</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="17">
+        <v>250000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>2327</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-90000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K31" s="17">
+        <v>3755000</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>2451</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-1176568</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -16289,21 +19059,21 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -17600,7 +20370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -18901,7 +21671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -20202,7 +22972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -21503,7 +24273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -22804,7 +25574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -24103,1306 +26873,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
-      <c r="A2" s="8">
-        <v>5871</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="9">
-        <v>2003000</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>2337</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-4781000</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>2303</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2" s="9">
-        <v>11244200</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>2317</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-14358786</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
-      <c r="A3" s="8">
-        <v>1312</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1397000</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>2448</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-2182000</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>2888</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" s="9">
-        <v>8815584</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>2409</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-13378294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
-      <c r="A4" s="8">
-        <v>3041</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="9">
-        <v>988000</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>6456</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-1365000</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>2610</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K4" s="9">
-        <v>8746263</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>3481</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-11734400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
-      <c r="A5" s="8">
-        <v>6271</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="9">
-        <v>600000</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>2317</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-1149000</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>1312</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="9">
-        <v>7412911</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>2603</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-9357880</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
-      <c r="A6" s="8">
-        <v>2311</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="9">
-        <v>531000</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>2454</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-844000</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>1710</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K6" s="9">
-        <v>5596000</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>2324</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-8831690</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
-      <c r="A7" s="8">
-        <v>2353</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="9">
-        <v>368000</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>2892</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-792000</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>2448</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="9">
-        <v>5099074</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>2301</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-7855577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
-      <c r="A8" s="8">
-        <v>4977</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="9">
-        <v>266000</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>2421</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-601000</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>2344</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="9">
-        <v>5092000</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>2408</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-7851332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
-      <c r="A9" s="8">
-        <v>1710</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="9">
-        <v>234000</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>6412</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-550000</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>5880</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K9" s="9">
-        <v>4440814</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>6116</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-6648000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
-      <c r="A10" s="8">
-        <v>2382</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="9">
-        <v>197000</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>2408</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-483771</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>2419</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K10" s="9">
-        <v>3189000</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>2891</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-6185968</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
-      <c r="A11" s="8">
-        <v>9934</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C11" s="9">
-        <v>180000</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>3661</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-449000</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>2454</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K11" s="9">
-        <v>3005775</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>4938</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-5947360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
-      <c r="A12" s="8">
-        <v>6153</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="9">
-        <v>165000</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>2610</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-444000</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>1314</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K12" s="9">
-        <v>2864154</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>8150</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-4874397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
-      <c r="A13" s="8">
-        <v>2313</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="9">
-        <v>161000</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>2376</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-406000</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>1714</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="K13" s="9">
-        <v>2247000</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>4960</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-4254560</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
-      <c r="A14" s="8">
-        <v>1909</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="9">
-        <v>137000</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>2367</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-340000</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>2313</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="9">
-        <v>2184387</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>3673</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-3443748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
-      <c r="A15" s="8">
-        <v>2330</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="9">
-        <v>127000</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>3443</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-271000</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>4906</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K15" s="9">
-        <v>2048000</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>5871</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-2319583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
-      <c r="A16" s="8">
-        <v>1476</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="9">
-        <v>101000</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>1101</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-240000</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>2412</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16" s="9">
-        <v>2020798</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>3698</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-1793000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
-      <c r="A17" s="8">
-        <v>5243</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="9">
-        <v>83000</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>2014</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-240000</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>2458</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K17" s="9">
-        <v>1781615</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>3044</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-1645250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
-      <c r="A18" s="8">
-        <v>5264</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="9">
-        <v>75000</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>1515</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-228000</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>3037</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K18" s="9">
-        <v>1660000</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>2886</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-1594089</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
-      <c r="A19" s="8">
-        <v>8341</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" s="9">
-        <v>74000</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>2492</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-210000</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>2014</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K19" s="9">
-        <v>1572000</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>2883</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-1557000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
-      <c r="A20" s="8">
-        <v>3056</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" s="9">
-        <v>73000</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>2369</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-204000</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>6153</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1572000</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>3545</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-1555000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
-      <c r="A21" s="8">
-        <v>5880</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="9">
-        <v>73000</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>1589</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-201000</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>2474</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="K21" s="9">
-        <v>1551564</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>2308</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-1532235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
-      <c r="A22" s="8">
-        <v>2456</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="9">
-        <v>72000</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>1568</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-200000</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>2356</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K22" s="9">
-        <v>1548354</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>1216</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-1477551</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
-      <c r="A23" s="8">
-        <v>2345</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="9">
-        <v>68000</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>1319</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-165000</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>1310</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K23" s="9">
-        <v>1532000</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>2834</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-1440814</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
-      <c r="A24" s="8">
-        <v>2049</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="9">
-        <v>67000</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>2360</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-163000</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>3034</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="9">
-        <v>1503846</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>2880</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-1320902</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
-      <c r="A25" s="8">
-        <v>6269</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="9">
-        <v>66000</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>3673</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-154000</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>2401</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="K25" s="9">
-        <v>1353000</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>2801</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-1239950</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
-      <c r="A26" s="8">
-        <v>4739</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C26" s="9">
-        <v>63000</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>1313</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-152000</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>6456</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26" s="9">
-        <v>1335698</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>1476</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-1180426</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
-      <c r="A27" s="8">
-        <v>2642</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C27" s="9">
-        <v>60000</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>3653</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-151000</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>1605</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="9">
-        <v>1328000</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>2892</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-1158047</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
-      <c r="A28" s="8">
-        <v>6202</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C28" s="9">
-        <v>59000</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>3003</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-146000</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>6209</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="K28" s="9">
-        <v>1240000</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>2823</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-1036942</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
-      <c r="A29" s="8">
-        <v>2351</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="9">
-        <v>57000</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>3346</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-144000</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>2634</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29" s="9">
-        <v>1200000</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>1305</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-1003511</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
-      <c r="A30" s="8">
-        <v>2891</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="9">
-        <v>51000</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>3090</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-140000</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>8110</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K30" s="9">
-        <v>1090000</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>2887</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-972200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="19.2" thickBot="1">
-      <c r="A31" s="11">
-        <v>6277</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="C31" s="17">
-        <v>48000</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="11">
-        <v>6213</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G31" s="13">
-        <v>-140000</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="11">
-        <v>2369</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="K31" s="17">
-        <v>982000</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="11">
-        <v>2884</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O31" s="13">
-        <v>-889078</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/twse.xlsx
+++ b/twse.xlsx
@@ -9,145 +9,152 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="證交所" sheetId="9" r:id="rId1"/>
-    <sheet name="1061123" sheetId="23" r:id="rId2"/>
-    <sheet name="1061122" sheetId="22" r:id="rId3"/>
-    <sheet name="1061121" sheetId="21" r:id="rId4"/>
-    <sheet name="1061120" sheetId="20" r:id="rId5"/>
-    <sheet name="1061117" sheetId="19" r:id="rId6"/>
-    <sheet name="1061116" sheetId="18" r:id="rId7"/>
-    <sheet name="1061115" sheetId="17" r:id="rId8"/>
-    <sheet name="1061114" sheetId="16" r:id="rId9"/>
-    <sheet name="1061113" sheetId="15" r:id="rId10"/>
-    <sheet name="1061110" sheetId="14" r:id="rId11"/>
-    <sheet name="1061109" sheetId="13" r:id="rId12"/>
-    <sheet name="1061108" sheetId="12" r:id="rId13"/>
-    <sheet name="1060307" sheetId="11" r:id="rId14"/>
-    <sheet name="1060306" sheetId="10" r:id="rId15"/>
-    <sheet name="1060303" sheetId="8" r:id="rId16"/>
-    <sheet name="1060302" sheetId="7" r:id="rId17"/>
-    <sheet name="1060301" sheetId="6" r:id="rId18"/>
-    <sheet name="1060224" sheetId="1" r:id="rId19"/>
-    <sheet name="1060223" sheetId="5" r:id="rId20"/>
+    <sheet name="1061124" sheetId="24" r:id="rId2"/>
+    <sheet name="1061123" sheetId="23" r:id="rId3"/>
+    <sheet name="1061122" sheetId="22" r:id="rId4"/>
+    <sheet name="1061121" sheetId="21" r:id="rId5"/>
+    <sheet name="1061120" sheetId="20" r:id="rId6"/>
+    <sheet name="1061117" sheetId="19" r:id="rId7"/>
+    <sheet name="1061116" sheetId="18" r:id="rId8"/>
+    <sheet name="1061115" sheetId="17" r:id="rId9"/>
+    <sheet name="1061114" sheetId="16" r:id="rId10"/>
+    <sheet name="1061113" sheetId="15" r:id="rId11"/>
+    <sheet name="1061110" sheetId="14" r:id="rId12"/>
+    <sheet name="1061109" sheetId="13" r:id="rId13"/>
+    <sheet name="1061108" sheetId="12" r:id="rId14"/>
+    <sheet name="1060307" sheetId="11" r:id="rId15"/>
+    <sheet name="1060306" sheetId="10" r:id="rId16"/>
+    <sheet name="1060303" sheetId="8" r:id="rId17"/>
+    <sheet name="1060302" sheetId="7" r:id="rId18"/>
+    <sheet name="1060301" sheetId="6" r:id="rId19"/>
+    <sheet name="1060224" sheetId="1" r:id="rId20"/>
+    <sheet name="1060223" sheetId="5" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="19">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="18">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="17">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="16">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="15">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="14">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="13">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="12">'1061108'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="11">'1061109'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="10">'1061110'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="9">'1061113'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1061114'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1061115'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1061116'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1061117'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1061120'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1061121'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1061122'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061123'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="19">'1060223'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="18">'1060224'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="17">'1060301'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="16">'1060302'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="15">'1060303'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="14">'1060306'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="13">'1060307'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="12">'1061108'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="11">'1061109'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="10">'1061110'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1061113'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1061114'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1061115'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1061116'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1061117'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1061120'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1061121'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1061122'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061123'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U_1" localSheetId="19">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="18">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="17">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="16">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="15">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="14">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="13">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="12">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="11">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="10">'1061110'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1061114'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1061115'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1061116'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1061117'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1061120'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1061121'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1061122'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061123'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="19">'1060223'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="18">'1060224'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="17">'1060301'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="16">'1060302'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="15">'1060303'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="14">'1060306'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="13">'1060307'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="12">'1061108'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="11">'1061109'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="10">'1061110'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1061113'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1061114'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1061115'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1061116'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1061117'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1061120'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1061121'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1061122'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061123'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="19">'1060223'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="18">'1060224'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="17">'1060301'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="16">'1060302'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="15">'1060303'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="14">'1060306'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="13">'1060307'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="12">'1061108'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="11">'1061109'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="10">'1061110'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1061113'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1061114'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1061115'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1061116'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1061117'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1061120'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1061121'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1061122'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061123'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="19">'1060223'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="18">'1060224'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="17">'1060301'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="16">'1060302'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="15">'1060303'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="14">'1060306'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="13">'1060307'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="12">'1061108'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="11">'1061109'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="10">'1061110'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1061113'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1061114'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1061115'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1061116'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1061117'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1061120'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1061121'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1061122'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061123'!$I$1:$K$31</definedName>
+    <definedName name="TWT38U" localSheetId="20">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="19">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="18">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="17">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="16">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="15">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="14">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="13">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="12">'1061109'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="11">'1061110'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1061113'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1061114'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1061115'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1061116'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1061117'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1061120'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1061121'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1061122'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061123'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061124'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="20">'1060223'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="19">'1060224'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="18">'1060301'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="17">'1060302'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="16">'1060303'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="15">'1060306'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="14">'1060307'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="13">'1061108'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="12">'1061109'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="11">'1061110'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1061113'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1061114'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1061115'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1061116'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1061117'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1061120'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1061121'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1061122'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061123'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061124'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U_1" localSheetId="20">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="19">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="18">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="17">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="16">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="15">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="14">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="13">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="12">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="11">'1061110'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1061115'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1061116'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1061117'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1061120'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1061121'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1061122'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061123'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061124'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="20">'1060223'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="19">'1060224'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="18">'1060301'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="17">'1060302'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="16">'1060303'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="15">'1060306'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="14">'1060307'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="13">'1061108'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="12">'1061109'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="11">'1061110'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1061113'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1061114'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1061115'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1061116'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1061117'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1061120'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1061121'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1061122'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061123'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061124'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="20">'1060223'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="19">'1060224'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="18">'1060301'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="17">'1060302'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="16">'1060303'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="15">'1060306'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="14">'1060307'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="13">'1061108'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="12">'1061109'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="11">'1061110'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1061113'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1061114'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1061115'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1061116'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1061117'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1061120'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1061121'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1061122'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061123'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061124'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="20">'1060223'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="19">'1060224'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="18">'1060301'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="17">'1060302'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="16">'1060303'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="15">'1060306'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="14">'1060307'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="13">'1061108'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="12">'1061109'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="11">'1061110'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1061113'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1061114'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1061115'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1061116'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1061117'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1061120'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1061121'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1061122'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061123'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061124'!$I$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -214,185 +221,197 @@
   <connection id="18" name="連線11111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線2121111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線21211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線2121111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="37" name="連線212111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="連線21211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="38" name="連線2121111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="連線212111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="39" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="連線2121111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="40" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="連線21211111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="41" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="41" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="42" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="42" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="43" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="43" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="44" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="44" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="45" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="45" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="46" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="46" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="47" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="47" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="48" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="48" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="49" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="49" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="50" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="50" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="51" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="51" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="52" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="52" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="53" name="連線231111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="53" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="54" name="連線2311111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="54" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="55" name="連線23111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="55" name="連線231111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="56" name="連線231111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="56" name="連線2311111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="57" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="57" name="連線23111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="58" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="58" name="連線231111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="59" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="59" name="連線2311111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="60" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="60" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="61" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="61" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="62" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="62" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="63" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="63" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="64" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="64" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="65" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="65" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="66" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="66" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="67" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="67" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="68" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="68" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="69" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="69" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="70" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="70" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="71" name="連線42111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="71" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="72" name="連線421111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="72" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="73" name="連線4211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="73" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="74" name="連線42111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="74" name="連線42111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="75" name="連線421111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="75" name="連線421111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="76" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="76" name="連線4211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="77" name="連線42111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="78" name="連線421111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="79" name="連線4211111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="80" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="421">
   <si>
     <t>旺宏</t>
   </si>
@@ -1585,6 +1604,84 @@
   </si>
   <si>
     <t>國泰中國A50</t>
+  </si>
+  <si>
+    <t>淳安</t>
+  </si>
+  <si>
+    <t>068893</t>
+  </si>
+  <si>
+    <t>旺宏統一75購02</t>
+  </si>
+  <si>
+    <t>068895</t>
+  </si>
+  <si>
+    <t>旺宏統一76購03</t>
+  </si>
+  <si>
+    <t>065517</t>
+  </si>
+  <si>
+    <t>旺宏群益73購03</t>
+  </si>
+  <si>
+    <t>065205</t>
+  </si>
+  <si>
+    <t>旺宏凱基73購01</t>
+  </si>
+  <si>
+    <t>069003</t>
+  </si>
+  <si>
+    <t>旺宏日盛75購01</t>
+  </si>
+  <si>
+    <t>068984</t>
+  </si>
+  <si>
+    <t>旺宏國票75購02</t>
+  </si>
+  <si>
+    <t>069063</t>
+  </si>
+  <si>
+    <t>旺宏富邦75購02</t>
+  </si>
+  <si>
+    <t>067033</t>
+  </si>
+  <si>
+    <t>旺宏日盛74購01</t>
+  </si>
+  <si>
+    <t>065299</t>
+  </si>
+  <si>
+    <t>旺宏元大74購01</t>
+  </si>
+  <si>
+    <t>065207</t>
+  </si>
+  <si>
+    <t>旺宏凱基75購01</t>
+  </si>
+  <si>
+    <t>065264</t>
+  </si>
+  <si>
+    <t>旺宏統一73購02</t>
+  </si>
+  <si>
+    <t>065476</t>
+  </si>
+  <si>
+    <t>旺宏日盛73購01</t>
+  </si>
+  <si>
+    <t>東貝</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +1985,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2169,307 +2280,323 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="77" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="76" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="75" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="74" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="73" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="79" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="72" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="71" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="75" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="70" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="69" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="68" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="67" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="66" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="65" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="78" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="64" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="68" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable71.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="67" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="66" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="65" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="64" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable72.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="62" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable73.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable74.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable75.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable76.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable77.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable78.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="61" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable79.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="80" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable80.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="74" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable71.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable72.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable73.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable74.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable75.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="76" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable76.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2737,7 +2864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2768,6 +2895,1307 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="16.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2344</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1939000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2892</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-1985300</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2353</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="9">
+        <v>15973000</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-13597000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2311</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>2031</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-795000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2345</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="9">
+        <v>10104000</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2317</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-9795809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>5871</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1276000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>2367</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-755000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>2884</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="9">
+        <v>9491493</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>2603</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-8303000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>3532</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="9">
+        <v>824000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>2313</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-737000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2610</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="9">
+        <v>7816500</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>2892</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-6478325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5243</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="9">
+        <v>650000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>2337</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-719741</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>6153</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" s="9">
+        <v>5908000</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>3231</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-5476219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2345</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="9">
+        <v>618000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-600000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2311</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="9">
+        <v>5849967</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>2313</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-4822938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>2408</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="9">
+        <v>567000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>3006</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-519000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>3481</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="9">
+        <v>5607283</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>2408</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-4613365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>3041</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="9">
+        <v>458000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>6153</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-483000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>2344</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="9">
+        <v>5104933</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>2882</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-4589976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>6271</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="9">
+        <v>426000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>2239</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-455000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>1710</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K10" s="9">
+        <v>5024000</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>2324</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-4095575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>4943</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="9">
+        <v>410000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>1476</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-450000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>2303</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="9">
+        <v>4551832</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>2885</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-3885130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4958</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="9">
+        <v>352000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>2448</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-438000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>2897</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="K12" s="9">
+        <v>4111000</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>1314</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-3568925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>3413</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="9">
+        <v>200000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>2351</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-434000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>1312</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="9">
+        <v>3232000</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>5871</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-3232468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>5264</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="9">
+        <v>190000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>1568</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-414000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>2887</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="9">
+        <v>3206556</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>9105</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-3025000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>2915</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="9">
+        <v>124000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>1515</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-410000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>2002</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="9">
+        <v>3049783</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>2823</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-2975113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>4977</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="9">
+        <v>109000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>2610</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-350000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>2458</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="9">
+        <v>2870000</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>2301</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-2946991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>3653</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>2029</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-281000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>6456</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="9">
+        <v>2622000</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>2352</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-2252000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>6257</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="9">
+        <v>85000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>2481</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-271000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>4414</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="K18" s="9">
+        <v>2502000</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>8150</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-2125000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>1305</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="9">
+        <v>74000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>2317</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-267400</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>2409</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="9">
+        <v>2463734</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>4960</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-2072000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>4722</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="9">
+        <v>60000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>6269</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-229000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>2618</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" s="9">
+        <v>2400240</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>9904</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-1996191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>2383</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="9">
+        <v>51000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>9910</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-220000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>1216</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="9">
+        <v>2285245</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>2888</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-1852498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>1590</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" s="9">
+        <v>41611</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>1319</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-215000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>1310</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="9">
+        <v>2164000</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>2330</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-1832296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>4968</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="9">
+        <v>35000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>6525</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-196000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>2367</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="9">
+        <v>2090000</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>2105</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-1788476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>2049</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>3661</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-193000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>3035</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="9">
+        <v>2062000</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>1305</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1759792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>2397</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>1909</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-182000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>1605</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1920000</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>2915</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1656000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>3533</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>1512</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-176000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>2474</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1700456</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>4938</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1648555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>6531</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>2483</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-176000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>6202</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1388000</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>2883</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1565520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>1101</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="9">
+        <v>24000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>2354</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-173000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>2448</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1381206</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>4958</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-1524000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>2456</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="9">
+        <v>24000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>1312</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-170000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>2337</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1304126</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>2801</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1517447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>6239</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="9">
+        <v>24000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>1789</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-169270</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>2376</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1292000</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>2393</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-1472168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>1326</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="17">
+        <v>21000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>2421</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-150000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>6176</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K31" s="17">
+        <v>1264667</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>8105</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-1392000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -4068,7 +5496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -5370,7 +6798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -6672,7 +8100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -7974,7 +9402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -9276,7 +10704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -10578,7 +12006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -11880,7 +13308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -13182,7 +14610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -14484,7 +15912,1309 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2492</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1439000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2337</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-4074410</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2409</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="9">
+        <v>19583000</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-27952000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2345</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1150000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-2713000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="K3" s="9">
+        <v>12635000</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-21238000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>5305</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1034000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>2603</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-2362000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="K4" s="9">
+        <v>11367000</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>3481</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-20247000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>6213</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1020000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-2000000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2891</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="9">
+        <v>9874505</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>2317</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-8957059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2340</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>2609</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-936000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>2344</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="9">
+        <v>7933000</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>2886</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-6155018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2408</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="9">
+        <v>887000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>2324</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-893000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="K7" s="9">
+        <v>6768000</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>3698</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-5725000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>6153</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="9">
+        <v>800000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>1515</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-633000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="K8" s="9">
+        <v>5892000</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>2353</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-5419078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>2448</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>722000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>2344</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-599000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="K9" s="9">
+        <v>5518000</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>2303</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-4552000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>6271</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="9">
+        <v>573000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>1909</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-557000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="K10" s="9">
+        <v>5309000</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>2885</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-3985000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>2455</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" s="9">
+        <v>498000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2311</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-500000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>2371</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="9">
+        <v>4697000</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>2888</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-3947000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2313</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9">
+        <v>476000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>2885</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-472000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="K12" s="9">
+        <v>4422000</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>2301</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-3133000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>1101</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="9">
+        <v>299000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>3532</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-472000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="K13" s="9">
+        <v>4250000</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>1310</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-3100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6269</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9">
+        <v>265000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>6239</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-470000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="K14" s="9">
+        <v>4113000</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>2426</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-3016000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>8341</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="9">
+        <v>246000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>8464</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-431000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>2313</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="9">
+        <v>4043833</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-2957000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>2330</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="9">
+        <v>234000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>9938</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-322000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="K16" s="9">
+        <v>3992000</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>2354</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-2908410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>2472</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="9">
+        <v>209000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>1568</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-295000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>2610</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" s="9">
+        <v>3883669</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>3231</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-2899802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>4915</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="9">
+        <v>197000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>3189</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-258000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="K18" s="9">
+        <v>3780000</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>1314</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-2851925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>3645</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="9">
+        <v>179000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>2351</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-256000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="K19" s="9">
+        <v>2905000</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>1312</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-2847000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>6531</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" s="9">
+        <v>150000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>1476</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-254000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="K20" s="9">
+        <v>2867000</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>4938</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-2756000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>8039</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="9">
+        <v>150000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>4532</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-236000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>2308</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" s="9">
+        <v>2422000</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>2892</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-2674726</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>3682</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="9">
+        <v>136000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>2383</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-232000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>2330</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="9">
+        <v>2342613</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>2603</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-2587538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>2884</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="9">
+        <v>121000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>2454</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-213000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>1718</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K23" s="9">
+        <v>2022000</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>2499</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-2229000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>6283</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C24" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>3003</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-186000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1976000</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>2382</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-2199000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>5434</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="9">
+        <v>92000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>4739</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-174000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>2615</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1945000</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>6168</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-2182000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>4943</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="9">
+        <v>88000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>1536</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-158000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>1710</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1896000</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>2002</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-2101895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>2303</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="9">
+        <v>80000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>4958</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-144000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1460000</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>3017</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-2074000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>2891</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="9">
+        <v>54000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>1319</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-143000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1282000</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>2383</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-2065809</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>9941</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C29" s="9">
+        <v>50000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>2456</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-139704</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>2458</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1177000</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1894657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>3533</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="9">
+        <v>49000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>6202</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-137000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>2454</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1156810</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>2880</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-1807000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>4968</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C31" s="17">
+        <v>48000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>2317</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-119000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>2401</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="K31" s="17">
+        <v>1119000</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>1455</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-1772652</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -16196,1309 +18926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:O31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.77734375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="22.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="22.77734375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="16.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>2408</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="9">
-        <v>2726000</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>2337</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-7582667</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>2891</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="9">
-        <v>25206030</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-21389000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>1312</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="9">
-        <v>2022000</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-2000000</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>2344</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="9">
-        <v>16059331</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>2408</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-6845713</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>2882</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1379000</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>2344</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-1800000</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="K4" s="9">
-        <v>15038000</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>2382</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-5739722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1361000</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>2369</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-1297000</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>2888</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" s="9">
-        <v>8251520</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>2337</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-5362969</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>6269</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1121335</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>1515</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-1259000</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="K6" s="9">
-        <v>7800000</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>6116</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-4985000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>2311</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1102000</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>3041</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-985000</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="K7" s="9">
-        <v>6900000</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>2405</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-4351000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>2881</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="9">
-        <v>835000</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>2609</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-936000</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>2313</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="9">
-        <v>6698000</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-4284000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>3645</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" s="9">
-        <v>715000</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>2313</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-649000</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="K9" s="9">
-        <v>5835000</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-3719000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>6271</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="9">
-        <v>474000</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>1101</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-613000</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>2353</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="9">
-        <v>5727000</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>2885</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-3006845</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>2845</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C11" s="9">
-        <v>456000</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>2351</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-574000</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>2409</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="9">
-        <v>5333185</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>2352</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-2173000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>2812</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="9">
-        <v>419000</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>4919</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-542000</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>2881</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="9">
-        <v>4963892</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>4960</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-2116000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>2330</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="9">
-        <v>366000</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>2324</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-476000</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="K13" s="9">
-        <v>4910000</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>3406</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-1852433</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>3702</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="9">
-        <v>347000</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>2456</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-430000</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="K14" s="9">
-        <v>4780000</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>2603</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-1830120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>9941</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C15" s="9">
-        <v>339000</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>4958</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-430000</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="K15" s="9">
-        <v>4773000</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>3231</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-1778563</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>2345</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="9">
-        <v>329000</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>8464</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-426000</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>2882</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" s="9">
-        <v>4499339</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>6131</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-1670000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>5871</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="9">
-        <v>239000</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>2472</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-397000</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="K17" s="9">
-        <v>4370000</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>2505</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-1457000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>4915</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="9">
-        <v>234000</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>1568</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-362000</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="K18" s="9">
-        <v>4361000</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>1101</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-1426825</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>2448</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="9">
-        <v>207000</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>2317</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-323000</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="K19" s="9">
-        <v>4021000</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>2412</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-1399645</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>1229</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="9">
-        <v>200000</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>3533</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-296000</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>2823</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="9">
-        <v>3980030</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>2301</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-1294400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>3045</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="9">
-        <v>191000</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>5269</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-216000</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="K21" s="9">
-        <v>3660000</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>1909</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-1276000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>2377</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="9">
-        <v>190000</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>3532</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-205000</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>1718</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="K22" s="9">
-        <v>3658000</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>2481</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-1207000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>4968</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="9">
-        <v>184000</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>2883</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-199000</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>2890</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K23" s="9">
-        <v>3511225</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>3702</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-1176000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>2449</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="9">
-        <v>175000</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>3665</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-181000</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>2377</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="9">
-        <v>3403525</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>2492</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-1174889</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>1909</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="9">
-        <v>169000</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>4746</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-170000</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>2884</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="9">
-        <v>3269595</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>2474</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-1153578</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>2884</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="9">
-        <v>168000</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>2454</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-164000</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>2883</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="9">
-        <v>3157500</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>2515</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-1066000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>5264</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="9">
-        <v>160000</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>2892</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-149000</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>2610</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K27" s="9">
-        <v>3046294</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>2451</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-1016673</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>2204</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="9">
-        <v>154000</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>8261</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-140000</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>2426</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="K28" s="9">
-        <v>2628000</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-942000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>1326</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="9">
-        <v>139000</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>1301</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-120000</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>3023</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="K29" s="9">
-        <v>2585000</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>3481</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-940705</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>3036</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="9">
-        <v>129000</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-110000</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>4915</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="K30" s="9">
-        <v>2535000</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>2886</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-922250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11">
-        <v>4532</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="17">
-        <v>124000</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="11">
-        <v>2492</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="13">
-        <v>-109000</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="11">
-        <v>2311</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31" s="17">
-        <v>2502753</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="11">
-        <v>6456</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O31" s="13">
-        <v>-840672</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -19215,6 +20643,1308 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2408</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2726000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2337</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-7582667</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2891</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="9">
+        <v>25206030</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-21389000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1312</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2022000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-2000000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2344</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="9">
+        <v>16059331</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2408</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-6845713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2882</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1379000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>2344</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-1800000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K4" s="9">
+        <v>15038000</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>2382</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-5739722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1361000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>2369</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-1297000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2888</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="9">
+        <v>8251520</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>2337</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-5362969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>6269</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1121335</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>1515</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-1259000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="K6" s="9">
+        <v>7800000</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-4985000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2311</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1102000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>3041</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-985000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="K7" s="9">
+        <v>6900000</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>2405</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-4351000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>2881</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="9">
+        <v>835000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>2609</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-936000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>2313</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="9">
+        <v>6698000</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-4284000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>3645</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="9">
+        <v>715000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>2313</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-649000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="K9" s="9">
+        <v>5835000</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-3719000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>6271</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="9">
+        <v>474000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>1101</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-613000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>2353</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="9">
+        <v>5727000</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>2885</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-3006845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>2845</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="9">
+        <v>456000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2351</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-574000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>2409</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="9">
+        <v>5333185</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>2352</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-2173000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2812</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="9">
+        <v>419000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>4919</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-542000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>2881</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="9">
+        <v>4963892</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>4960</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-2116000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>2330</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="9">
+        <v>366000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>2324</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-476000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="K13" s="9">
+        <v>4910000</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>3406</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-1852433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>3702</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="9">
+        <v>347000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>2456</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-430000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="K14" s="9">
+        <v>4780000</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>2603</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-1830120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>9941</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="9">
+        <v>339000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>4958</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-430000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="K15" s="9">
+        <v>4773000</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>3231</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-1778563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>2345</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="9">
+        <v>329000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>8464</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-426000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>2882</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="9">
+        <v>4499339</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>6131</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-1670000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>5871</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="9">
+        <v>239000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>2472</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-397000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="K17" s="9">
+        <v>4370000</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>2505</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-1457000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>4915</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="9">
+        <v>234000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>1568</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-362000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="K18" s="9">
+        <v>4361000</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>1101</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-1426825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>2448</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="9">
+        <v>207000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>2317</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-323000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K19" s="9">
+        <v>4021000</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>2412</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-1399645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>1229</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="9">
+        <v>200000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>3533</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-296000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>2823</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="9">
+        <v>3980030</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>2301</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-1294400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>3045</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="9">
+        <v>191000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>5269</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-216000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="K21" s="9">
+        <v>3660000</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>1909</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-1276000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>2377</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="9">
+        <v>190000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>3532</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-205000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>1718</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K22" s="9">
+        <v>3658000</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>2481</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-1207000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>4968</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="9">
+        <v>184000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>2883</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-199000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>2890</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" s="9">
+        <v>3511225</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>3702</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-1176000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>2449</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="9">
+        <v>175000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>3665</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-181000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>2377</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="9">
+        <v>3403525</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>2492</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1174889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>1909</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="9">
+        <v>169000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>4746</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-170000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>2884</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="9">
+        <v>3269595</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>2474</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1153578</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>2884</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="9">
+        <v>168000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>2454</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-164000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>2883</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="9">
+        <v>3157500</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>2515</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1066000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>5264</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="9">
+        <v>160000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>2892</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-149000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>2610</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27" s="9">
+        <v>3046294</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>2451</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1016673</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>2204</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="9">
+        <v>154000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>8261</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-140000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>2426</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="K28" s="9">
+        <v>2628000</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-942000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>1326</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="9">
+        <v>139000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>1301</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-120000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>3023</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="K29" s="9">
+        <v>2585000</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>3481</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-940705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>3036</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="9">
+        <v>129000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-110000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>4915</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K30" s="9">
+        <v>2535000</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>2886</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-922250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>4532</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="17">
+        <v>124000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>2492</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-109000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>2311</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="17">
+        <v>2502753</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>6456</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-840672</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -20512,7 +23242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -21813,7 +24543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -23114,7 +25844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -24415,7 +27145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -25716,7 +28446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -27015,1305 +29745,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.77734375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="4" customWidth="1"/>
-    <col min="10" max="11" width="16.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="16.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>2344</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1939000</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>2892</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-1985300</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>2353</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="9">
-        <v>15973000</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>6116</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-13597000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>2311</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1600000</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>2031</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-795000</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>2345</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="9">
-        <v>10104000</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>2317</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-9795809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>5871</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1276000</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>2367</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-755000</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>2884</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="9">
-        <v>9491493</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>2603</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-8303000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>3532</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="9">
-        <v>824000</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>2313</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-737000</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>2610</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" s="9">
-        <v>7816500</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>2892</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-6478325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>5243</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="9">
-        <v>650000</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>2337</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-719741</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>6153</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K6" s="9">
-        <v>5908000</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>3231</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-5476219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>2345</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="9">
-        <v>618000</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>2023</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-600000</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>2311</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="9">
-        <v>5849967</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>2313</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-4822938</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>2408</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="9">
-        <v>567000</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>3006</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-519000</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>3481</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="9">
-        <v>5607283</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>2408</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-4613365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>3041</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="9">
-        <v>458000</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>6153</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-483000</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>2344</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="9">
-        <v>5104933</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>2882</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-4589976</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>6271</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="9">
-        <v>426000</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>2239</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-455000</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>1710</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K10" s="9">
-        <v>5024000</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>2324</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-4095575</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>4943</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="9">
-        <v>410000</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>1476</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-450000</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>2303</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" s="9">
-        <v>4551832</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>2885</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-3885130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>4958</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="9">
-        <v>352000</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>2448</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-438000</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>2897</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="K12" s="9">
-        <v>4111000</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>1314</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-3568925</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>3413</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="9">
-        <v>200000</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>2351</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-434000</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>1312</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="9">
-        <v>3232000</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>5871</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-3232468</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>5264</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="9">
-        <v>190000</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>1568</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-414000</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>2887</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="9">
-        <v>3206556</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>9105</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-3025000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>2915</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C15" s="9">
-        <v>124000</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>1515</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-410000</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>2002</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="9">
-        <v>3049783</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>2823</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-2975113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>4977</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="9">
-        <v>109000</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>2610</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-350000</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>2458</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K16" s="9">
-        <v>2870000</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>2301</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-2946991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>3653</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>2029</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-281000</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>6456</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="9">
-        <v>2622000</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>2352</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-2252000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>6257</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="9">
-        <v>85000</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>2481</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-271000</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>4414</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="K18" s="9">
-        <v>2502000</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>8150</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-2125000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>1305</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="9">
-        <v>74000</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>2317</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-267400</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>2409</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="9">
-        <v>2463734</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>4960</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-2072000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>4722</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C20" s="9">
-        <v>60000</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>6269</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-229000</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>2618</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K20" s="9">
-        <v>2400240</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>9904</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-1996191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>2383</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="9">
-        <v>51000</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>9910</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-220000</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>1216</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="K21" s="9">
-        <v>2285245</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>2888</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-1852498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>1590</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C22" s="9">
-        <v>41611</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>1319</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-215000</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>1310</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K22" s="9">
-        <v>2164000</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>2330</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-1832296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>4968</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="9">
-        <v>35000</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>6525</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-196000</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>2367</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="K23" s="9">
-        <v>2090000</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>2105</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-1788476</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>2049</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="9">
-        <v>25000</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>3661</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-193000</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>3035</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="9">
-        <v>2062000</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>1305</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-1759792</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>2397</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C25" s="9">
-        <v>25000</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>1909</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-182000</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>1605</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="9">
-        <v>1920000</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>2915</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-1656000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>3533</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="9">
-        <v>25000</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>1512</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-176000</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>2474</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="K26" s="9">
-        <v>1700456</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>4938</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-1648555</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>6531</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C27" s="9">
-        <v>25000</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>2483</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-176000</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>6202</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K27" s="9">
-        <v>1388000</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>2883</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-1565520</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>1101</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="9">
-        <v>24000</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>2354</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-173000</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>2448</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K28" s="9">
-        <v>1381206</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>4958</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-1524000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>2456</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="9">
-        <v>24000</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>1312</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-170000</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>2337</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9">
-        <v>1304126</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>2801</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-1517447</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>6239</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="9">
-        <v>24000</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>1789</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-169270</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>2376</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="K30" s="9">
-        <v>1292000</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>2393</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-1472168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11">
-        <v>1326</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="17">
-        <v>21000</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="11">
-        <v>2421</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" s="13">
-        <v>-150000</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="11">
-        <v>6176</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K31" s="17">
-        <v>1264667</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="11">
-        <v>8105</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="O31" s="13">
-        <v>-1392000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/twse.xlsx
+++ b/twse.xlsx
@@ -13,155 +13,162 @@
   </bookViews>
   <sheets>
     <sheet name="證交所" sheetId="9" r:id="rId1"/>
-    <sheet name="1061127" sheetId="25" r:id="rId2"/>
-    <sheet name="1061124" sheetId="24" r:id="rId3"/>
-    <sheet name="1061123" sheetId="23" r:id="rId4"/>
-    <sheet name="1061122" sheetId="22" r:id="rId5"/>
-    <sheet name="1061121" sheetId="21" r:id="rId6"/>
-    <sheet name="1061120" sheetId="20" r:id="rId7"/>
-    <sheet name="1061117" sheetId="19" r:id="rId8"/>
-    <sheet name="1061116" sheetId="18" r:id="rId9"/>
-    <sheet name="1061115" sheetId="17" r:id="rId10"/>
-    <sheet name="1061114" sheetId="16" r:id="rId11"/>
-    <sheet name="1061113" sheetId="15" r:id="rId12"/>
-    <sheet name="1061110" sheetId="14" r:id="rId13"/>
-    <sheet name="1061109" sheetId="13" r:id="rId14"/>
-    <sheet name="1061108" sheetId="12" r:id="rId15"/>
-    <sheet name="1060307" sheetId="11" r:id="rId16"/>
-    <sheet name="1060306" sheetId="10" r:id="rId17"/>
-    <sheet name="1060303" sheetId="8" r:id="rId18"/>
-    <sheet name="1060302" sheetId="7" r:id="rId19"/>
-    <sheet name="1060301" sheetId="6" r:id="rId20"/>
-    <sheet name="1060224" sheetId="1" r:id="rId21"/>
-    <sheet name="1060223" sheetId="5" r:id="rId22"/>
+    <sheet name="1061128" sheetId="26" r:id="rId2"/>
+    <sheet name="1061127" sheetId="25" r:id="rId3"/>
+    <sheet name="1061124" sheetId="24" r:id="rId4"/>
+    <sheet name="1061123" sheetId="23" r:id="rId5"/>
+    <sheet name="1061122" sheetId="22" r:id="rId6"/>
+    <sheet name="1061121" sheetId="21" r:id="rId7"/>
+    <sheet name="1061120" sheetId="20" r:id="rId8"/>
+    <sheet name="1061117" sheetId="19" r:id="rId9"/>
+    <sheet name="1061116" sheetId="18" r:id="rId10"/>
+    <sheet name="1061115" sheetId="17" r:id="rId11"/>
+    <sheet name="1061114" sheetId="16" r:id="rId12"/>
+    <sheet name="1061113" sheetId="15" r:id="rId13"/>
+    <sheet name="1061110" sheetId="14" r:id="rId14"/>
+    <sheet name="1061109" sheetId="13" r:id="rId15"/>
+    <sheet name="1061108" sheetId="12" r:id="rId16"/>
+    <sheet name="1060307" sheetId="11" r:id="rId17"/>
+    <sheet name="1060306" sheetId="10" r:id="rId18"/>
+    <sheet name="1060303" sheetId="8" r:id="rId19"/>
+    <sheet name="1060302" sheetId="7" r:id="rId20"/>
+    <sheet name="1060301" sheetId="6" r:id="rId21"/>
+    <sheet name="1060224" sheetId="1" r:id="rId22"/>
+    <sheet name="1060223" sheetId="5" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="21">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="20">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="19">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="18">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="17">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="16">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="15">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="14">'1061108'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="13">'1061109'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="12">'1061110'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="11">'1061113'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="10">'1061114'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="9">'1061115'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1061116'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1061117'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1061120'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1061121'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1061122'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1061123'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1061124'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061127'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="21">'1060223'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="20">'1060224'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="19">'1060301'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="18">'1060302'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="17">'1060303'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="16">'1060306'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="15">'1060307'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="14">'1061108'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="13">'1061109'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="12">'1061110'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="11">'1061113'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="10">'1061114'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1061115'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1061116'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1061117'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1061120'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1061121'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1061122'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1061123'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1061124'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061127'!$A$1:$C$31</definedName>
-    <definedName name="TWT44U_1" localSheetId="21">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="20">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="19">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="18">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="17">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="16">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="15">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="14">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="13">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="12">'1061110'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="11">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="10">'1061114'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1061115'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1061116'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1061117'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1061120'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1061121'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1061122'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1061123'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1061124'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061127'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="21">'1060223'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="20">'1060224'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="19">'1060301'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="18">'1060302'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="17">'1060303'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="16">'1060306'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="15">'1060307'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="14">'1061108'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="13">'1061109'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="12">'1061110'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="11">'1061113'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="10">'1061114'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1061115'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1061116'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1061117'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1061120'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1061121'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1061122'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1061123'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1061124'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061127'!$E$1:$E$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="21">'1060223'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="20">'1060224'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="19">'1060301'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="18">'1060302'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="17">'1060303'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="16">'1060306'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="15">'1060307'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="14">'1061108'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="13">'1061109'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="12">'1061110'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="11">'1061113'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="10">'1061114'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1061115'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1061116'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1061117'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1061120'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1061121'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1061122'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1061123'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1061124'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061127'!$M$1:$M$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="21">'1060223'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="20">'1060224'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="19">'1060301'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="18">'1060302'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="17">'1060303'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="16">'1060306'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="15">'1060307'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="14">'1061108'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="13">'1061109'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="12">'1061110'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="11">'1061113'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="10">'1061114'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1061115'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1061116'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1061117'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1061120'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1061121'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1061122'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1061123'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1061124'!$I$1:$K$31</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061127'!$I$1:$K$31</definedName>
+    <definedName name="TWT38U" localSheetId="22">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="21">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="20">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="19">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="18">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="17">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="16">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="15">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="14">'1061109'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="13">'1061110'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="12">'1061113'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="11">'1061114'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1061115'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1061116'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1061117'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1061120'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1061121'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1061122'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1061123'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1061124'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061127'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061128'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="22">'1060223'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="21">'1060224'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="20">'1060301'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="19">'1060302'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="18">'1060303'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="17">'1060306'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="16">'1060307'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="15">'1061108'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="14">'1061109'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="13">'1061110'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="12">'1061113'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="11">'1061114'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1061115'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1061116'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1061117'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1061120'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1061121'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1061122'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1061123'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1061124'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061127'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061128'!$A$1:$C$31</definedName>
+    <definedName name="TWT44U_1" localSheetId="22">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="21">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="20">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="19">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="18">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="17">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="16">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="15">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="14">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="13">'1061110'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="12">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="11">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1061115'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1061116'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1061117'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1061120'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1061121'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1061122'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1061123'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1061124'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061127'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061128'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="22">'1060223'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="21">'1060224'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="20">'1060301'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="19">'1060302'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="18">'1060303'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="17">'1060306'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="16">'1060307'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="15">'1061108'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="14">'1061109'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="13">'1061110'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="12">'1061113'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="11">'1061114'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1061115'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1061116'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1061117'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1061120'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1061121'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1061122'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1061123'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1061124'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061127'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061128'!$E$1:$E$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="22">'1060223'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="21">'1060224'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="20">'1060301'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="19">'1060302'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="18">'1060303'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="17">'1060306'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="16">'1060307'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="15">'1061108'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="14">'1061109'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="13">'1061110'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="12">'1061113'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="11">'1061114'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1061115'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1061116'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1061117'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1061120'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1061121'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1061122'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1061123'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1061124'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061127'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061128'!$M$1:$M$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="22">'1060223'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="21">'1060224'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="20">'1060301'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="19">'1060302'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="18">'1060303'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="17">'1060306'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="16">'1060307'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="15">'1061108'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="14">'1061109'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="13">'1061110'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="12">'1061113'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="11">'1061114'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1061115'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1061116'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1061117'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1061120'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1061121'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1061122'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1061123'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1061124'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061127'!$I$1:$K$31</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061128'!$I$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -234,203 +241,215 @@
   <connection id="20" name="連線1111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線11111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="37" name="連線2121111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="38" name="連線21211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="連線2121111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="39" name="連線212111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="連線21211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="40" name="連線2121111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="連線212111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="41" name="連線21211111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="41" name="連線2121111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="42" name="連線212111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="42" name="連線21211111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="43" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="43" name="連線212111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="44" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="44" name="連線2121111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="45" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="45" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="46" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="46" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="47" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="47" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="48" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="48" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="49" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="49" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="50" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="50" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="51" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="51" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="52" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="52" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="53" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="53" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="54" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="54" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="55" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="55" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="56" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="56" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="57" name="連線231111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="57" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="58" name="連線2311111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="58" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="59" name="連線23111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="59" name="連線231111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="60" name="連線231111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="60" name="連線2311111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="61" name="連線2311111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="61" name="連線23111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="62" name="連線23111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="62" name="連線231111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="63" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="63" name="連線2311111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="64" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="64" name="連線23111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="65" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="65" name="連線231111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="66" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="66" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="67" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="67" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="68" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="68" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="69" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="69" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="70" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="70" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="71" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="71" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="72" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="72" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="73" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="73" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="74" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="74" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="75" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="75" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="76" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="76" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="77" name="連線42111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="77" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="78" name="連線421111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="78" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="79" name="連線4211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="79" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="80" name="連線42111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="80" name="連線42111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="81" name="連線421111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="81" name="連線421111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="82" name="連線4211111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="82" name="連線4211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="83" name="連線42111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="83" name="連線42111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="84" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="84" name="連線421111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="85" name="連線4211111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="86" name="連線42111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="87" name="連線421111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="88" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="431">
   <si>
     <t>旺宏</t>
   </si>
@@ -1722,6 +1741,15 @@
   </si>
   <si>
     <t>友訊</t>
+  </si>
+  <si>
+    <t>中航</t>
+  </si>
+  <si>
+    <t>三星</t>
+  </si>
+  <si>
+    <t>嘉晶</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2053,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2334,339 +2376,355 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="85" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="62" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="84" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="61" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="65" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="83" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="82" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="81" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="80" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="79" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="78" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="87" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="77" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="76" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="86" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="75" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="74" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="78" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="77" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="62" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="76" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="75" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="74" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="73" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="72" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="71" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="64" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable71.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="70" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable72.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable73.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable74.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable75.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable76.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="69" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="61" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable77.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="68" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable78.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable79.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable80.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable81.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable82.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable83.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable84.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="66" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable85.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable86.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable87.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="67" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable71.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable72.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="66" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable73.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="65" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable74.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable75.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable76.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable77.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable78.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable79.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="82" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable80.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable81.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable82.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable83.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="64" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable84.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="84" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable88.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="88" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2969,6 +3027,1307 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="16.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2456</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="9">
+        <v>895000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2455</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-1387750</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2353</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="9">
+        <v>12521629</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-14219000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>3532</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="9">
+        <v>696000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>6525</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-678000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2409</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="9">
+        <v>9041790</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2317</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-12970107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2845</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="9">
+        <v>549000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>2313</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-586000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>2303</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="9">
+        <v>6603023</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>3231</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-11870254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2812</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="9">
+        <v>525000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>2317</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-562000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2345</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="9">
+        <v>4885000</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>3481</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-6380198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2345</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9">
+        <v>500000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>1457</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-400000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>2330</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="9">
+        <v>4883156</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>2886</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-5331475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>4968</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="9">
+        <v>449000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>2239</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-391000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2883</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="9">
+        <v>4172753</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>8150</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-5225496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>3702</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="9">
+        <v>417000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>6239</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-375000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>1710</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8" s="9">
+        <v>3537000</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>4938</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-4846497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>2886</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="9">
+        <v>363000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>1589</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-330000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>1216</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2621262</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>2884</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-4572239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>1301</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="9">
+        <v>362000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>4551</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-311000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>2344</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2496766</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>2408</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-4044608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3026</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="9">
+        <v>350000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2377</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-280000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>3698</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2369000</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>3037</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-4002700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2448</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9">
+        <v>345000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>2408</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-264000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>2376</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2087468</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>2892</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-3244158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>6153</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="9">
+        <v>306000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>3545</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-262000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>3035</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1914000</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>2313</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-3114941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2337</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>283000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>8261</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-252000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>2458</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1845000</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>2891</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-3013132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>2327</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9">
+        <v>250000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>2454</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-223000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>2888</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1401840</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>2311</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-2995225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8016</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="9">
+        <v>250000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>3346</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-215000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>2104</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1226000</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>2324</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-2966820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>3045</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="9">
+        <v>232000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>2412</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-209000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>3673</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1130891</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>2337</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-2447929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>2049</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="9">
+        <v>210000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>5471</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-190000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>1457</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1099000</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>2002</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-2263791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>2204</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="9">
+        <v>185000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>1568</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-187000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>2492</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="9">
+        <v>924378</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>5880</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-2200671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>5871</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="9">
+        <v>180000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>2882</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-168000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>1907</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" s="9">
+        <v>913000</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>2356</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-2185491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>2104</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9">
+        <v>178000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>6505</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-162000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>2618</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" s="9">
+        <v>866318</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>4906</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-2157000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>3665</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="9">
+        <v>162000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>3189</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-149000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>2633</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="9">
+        <v>866044</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>2834</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-2015990</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>4532</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="9">
+        <v>156000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>1102</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>2455</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K23" s="9">
+        <v>809000</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>2880</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-1974186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>2351</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="9">
+        <v>137000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>2354</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>6168</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="K24" s="9">
+        <v>783000</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>2890</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1925000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>2891</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="9">
+        <v>135000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>4746</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>2456</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="9">
+        <v>747000</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>2881</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1794199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>2501</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="9">
+        <v>134000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>3533</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-98000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>8110</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="9">
+        <v>737000</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>3017</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1749000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>3036</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9">
+        <v>134000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>6269</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-89139</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>3189</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="9">
+        <v>654000</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>2368</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1745000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>1210</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="9">
+        <v>129000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>9938</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-84000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>2328</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28" s="9">
+        <v>633897</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>3702</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-1700200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>6271</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="9">
+        <v>126000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>1319</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>2357</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" s="9">
+        <v>621321</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>2382</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1667130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>1312</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="9">
+        <v>125000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>2105</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-72000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>6153</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" s="9">
+        <v>615000</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>6176</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-1624000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>2492</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="17">
+        <v>124000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>2330</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-72000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>1310</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" s="17">
+        <v>596000</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>2301</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-1554149</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
@@ -4265,7 +5624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -5566,7 +6925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -6867,7 +8226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -8169,7 +9528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -9471,7 +10830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -10773,7 +12132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -12075,7 +13434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -13377,7 +14736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -14679,7 +16038,1309 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="21.77734375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2891</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9">
+        <v>6008000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2337</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-2744387</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2409</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="9">
+        <v>23855480</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>2344</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-26479060</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2492</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2320000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>1909</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-2399047</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2888</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="9">
+        <v>15641631</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2330</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-24625374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3035</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1252000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>2313</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-1621000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>1314</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="9">
+        <v>8132000</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>2317</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-14452960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>8039</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="9">
+        <v>881000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>2344</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-1278000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2610</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="9">
+        <v>8031477</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>6116</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-14140478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>6153</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="9">
+        <v>865000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>2881</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-1244000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>2371</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="9">
+        <v>5989000</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>2337</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-13458261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6213</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="9">
+        <v>599000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>2882</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-1149000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>1609</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K7" s="9">
+        <v>5453000</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>3231</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-12398065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>2520</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="9">
+        <v>410000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>2609</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-990000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>2313</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="9">
+        <v>4450811</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>2886</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-10221575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>1312</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="9">
+        <v>300000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>3533</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-964000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>2303</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="9">
+        <v>4433000</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>4938</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-5928307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>5388</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="9">
+        <v>263000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>2408</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-900000</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>5880</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="9">
+        <v>4206000</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>1101</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-5596640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>4943</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="9">
+        <v>223000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2448</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-894000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>2103</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="9">
+        <v>3923000</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>2892</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-4043521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>1305</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9">
+        <v>209000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>2303</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-847000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>2353</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="9">
+        <v>3780015</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>9933</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-3234000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>3026</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="9">
+        <v>195000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>2369</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-606000</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>3682</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="9">
+        <v>3624000</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>2890</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-3091066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2481</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="9">
+        <v>165000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>2317</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-573000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>2882</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="9">
+        <v>3523900</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>2354</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-2995239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>5305</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>4739</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-569000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>2603</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="9">
+        <v>3428750</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>3380</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-2978000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>6283</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C16" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>2603</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-566000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>2405</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K16" s="9">
+        <v>3125000</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>2002</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-2922500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>3702</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="9">
+        <v>98000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>2324</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-503000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>2376</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" s="9">
+        <v>2976700</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>1312</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-2903224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>1303</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="9">
+        <v>90000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>3017</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-450000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>2885</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="9">
+        <v>2920858</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>2492</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-2732193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>4968</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="9">
+        <v>88000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>2351</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-429000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>2448</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="9">
+        <v>2869886</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>2352</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-2650027</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>2612</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C20" s="9">
+        <v>69000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>6239</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-383000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>2458</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="9">
+        <v>2468000</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>1604</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-2409000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>2634</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="9">
+        <v>69000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>2885</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-353000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>2823</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="9">
+        <v>2170977</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>2451</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-1924668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>5434</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="9">
+        <v>30000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>2330</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-352000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>2347</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="K22" s="9">
+        <v>2110000</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>1305</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-1865238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>4551</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>3532</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-344000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>1710</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1845000</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>2332</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-1615699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>6531</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" s="9">
+        <v>14000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>4919</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-316000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>2049</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1796838</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>2301</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1531956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>9938</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="9">
+        <v>14000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>2449</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-299000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>1718</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1746000</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>6153</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1530428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>3450</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>6451</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-228000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>2834</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1733103</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>2105</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1512196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>9910</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="9">
+        <v>9000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>5007</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-205000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>3016</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1644000</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>3437</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1503000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>3036</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="9">
+        <v>8000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>2472</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-200000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>3519</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1582000</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>3005</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-1475000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>5871</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>1326</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-195000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>2891</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1561706</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>4906</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1448000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>9941</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>1215</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-183000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>2454</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1528192</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>8105</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-1390498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>3653</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>2454</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-156000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>6257</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K31" s="17">
+        <v>1448000</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>1909</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-1340000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -15981,1309 +18642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" activeCellId="3" sqref="B1:B1048576 F1:F1048576 J1:J1048576 N1:N1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.77734375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="21.77734375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="16.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>5305</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1179000</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>2610</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-1522000</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>2311</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="9">
-        <v>35516103</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>3231</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-19884822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>6153</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1093000</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>3532</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-949000</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>2344</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="9">
-        <v>26036400</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>2330</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-17373500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>2492</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9">
-        <v>732000</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>3533</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-890000</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>2371</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="9">
-        <v>9811000</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>2317</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-15903224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>1305</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="9">
-        <v>400000</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>2408</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-813000</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>2303</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="9">
-        <v>9775776</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>3481</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-14049996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>2311</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="9">
-        <v>330000</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>2313</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-717000</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>6153</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K6" s="9">
-        <v>8148000</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>2313</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-6796522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>2455</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C7" s="9">
-        <v>310000</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>2382</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-467000</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>2337</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>7604000</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>2308</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-5825382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>3026</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C8" s="9">
-        <v>259000</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>2317</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-415000</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>2888</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" s="9">
-        <v>4829686</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>4938</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-5075187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>2337</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
-        <v>212485</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>2330</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-338000</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>2603</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="9">
-        <v>3482901</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>2201</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-4643757</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>6456</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="9">
-        <v>180000</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>1476</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-313580</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>2409</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="9">
-        <v>2641132</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>2448</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-4361000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>3035</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="9">
-        <v>168000</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>1568</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-312000</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>3017</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="K11" s="9">
-        <v>2281000</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>2886</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-3777313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>2520</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="9">
-        <v>160000</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>2354</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-302000</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>5305</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="9">
-        <v>2030000</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>2382</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-3232138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>4943</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C13" s="9">
-        <v>146000</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>2456</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-284776</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>2823</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="9">
-        <v>1920309</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>3698</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-3125000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>6552</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C14" s="9">
-        <v>130000</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>2031</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-270000</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>1714</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="K14" s="9">
-        <v>1738000</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>3037</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-3068000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>9941</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C15" s="9">
-        <v>123000</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>4919</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-237000</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>3682</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K15" s="9">
-        <v>1587540</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>2354</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-2901980</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>6269</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="9">
-        <v>102000</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>4739</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-210000</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>2891</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="9">
-        <v>1546798</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>4906</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-2893000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>6283</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C17" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>6239</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-207000</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>2492</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="9">
-        <v>1504770</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>2881</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-2747392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>2303</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="9">
-        <v>70000</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>2393</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-180000</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>1303</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K18" s="9">
-        <v>1371304</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>3380</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-2344000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>2548</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="9">
-        <v>70000</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>2454</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-161000</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>3035</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="9">
-        <v>1365000</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>2104</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-2156300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>2327</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="9">
-        <v>67000</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>2609</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-155000</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>6257</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1349000</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>2890</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-2124586</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>4968</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="9">
-        <v>65000</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>1301</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-139000</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>3437</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="K21" s="9">
-        <v>1306000</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>8150</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-2043000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>2377</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="9">
-        <v>50000</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>8464</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-132000</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>1312</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="9">
-        <v>1294000</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>2885</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-1991505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>8039</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="9">
-        <v>50000</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>3034</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-116000</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>6285</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="K23" s="9">
-        <v>1222458</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>2882</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-1950372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>4977</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="9">
-        <v>45000</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>4532</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-100000</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>1907</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K24" s="9">
-        <v>1179000</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>2301</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-1826500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>1723</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C25" s="9">
-        <v>40000</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>6505</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-100000</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>2609</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="9">
-        <v>1170000</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>3673</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-1646000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>1707</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C26" s="9">
-        <v>35000</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>2472</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-90000</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>2610</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K26" s="9">
-        <v>1115727</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>2002</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-1625763</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>4551</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C27" s="9">
-        <v>30000</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>3090</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-90000</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>6456</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27" s="9">
-        <v>1025917</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>2105</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-1575435</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>6414</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C28" s="9">
-        <v>28000</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>2891</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-80000</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>3645</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="K28" s="9">
-        <v>996000</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>2353</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-1549126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>2448</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="9">
-        <v>22000</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>2231</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-69000</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>1718</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="K29" s="9">
-        <v>986000</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>2356</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-1542393</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C30" s="9">
-        <v>20000</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>2838</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-67000</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>2834</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K30" s="9">
-        <v>967679</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>2332</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-1482615</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11">
-        <v>3450</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="17">
-        <v>17000</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="11">
-        <v>2474</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G31" s="13">
-        <v>-66000</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="11">
-        <v>2376</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="K31" s="17">
-        <v>913000</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="11">
-        <v>1722</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="O31" s="13">
-        <v>-1480018</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B31 J2:J31">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F31 N2:N31">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -18585,7 +19944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -20297,7 +21656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -22013,6 +23372,1308 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="21.77734375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>5305</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1179000</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2610</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-1522000</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>2311</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="9">
+        <v>35516103</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>3231</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-19884822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>6153</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1093000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>3532</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-949000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>2344</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="9">
+        <v>26036400</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>2330</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-17373500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2492</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>732000</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>3533</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-890000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>2371</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="9">
+        <v>9811000</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>2317</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-15903224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1305</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9">
+        <v>400000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>2408</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-813000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>2303</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="9">
+        <v>9775776</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>3481</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-14049996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2311</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="9">
+        <v>330000</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>2313</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-717000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>6153</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" s="9">
+        <v>8148000</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>2313</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-6796522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2455</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="9">
+        <v>310000</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>2382</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-467000</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2337</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>7604000</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>2308</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-5825382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>3026</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="9">
+        <v>259000</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>2317</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-415000</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>2888</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="9">
+        <v>4829686</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>4938</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-5075187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>2337</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>212485</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>2330</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-338000</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>2603</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="9">
+        <v>3482901</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>2201</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-4643757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>6456</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="9">
+        <v>180000</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>1476</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-313580</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>2409</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2641132</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>2448</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-4361000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3035</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9">
+        <v>168000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>1568</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-312000</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>3017</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2281000</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>2886</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-3777313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2520</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="9">
+        <v>160000</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>2354</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-302000</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>5305</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2030000</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>2382</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-3232138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>4943</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="9">
+        <v>146000</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>2456</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-284776</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>2823</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1920309</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>3698</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-3125000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6552</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="9">
+        <v>130000</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>2031</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-270000</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>1714</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1738000</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>3037</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-3068000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>9941</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="9">
+        <v>123000</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>4919</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-237000</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>3682</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1587540</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>2354</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-2901980</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>6269</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9">
+        <v>102000</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>4739</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-210000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>2891</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1546798</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>4906</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-2893000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>6283</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>6239</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-207000</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>2492</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1504770</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>2881</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-2747392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>2303</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="9">
+        <v>70000</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>2393</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-180000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>1303</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1371304</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>3380</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-2344000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>2548</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="9">
+        <v>70000</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>2454</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-161000</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>3035</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1365000</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>2104</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-2156300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>2327</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="9">
+        <v>67000</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>2609</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-155000</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>6257</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1349000</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>2890</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-2124586</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>4968</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="9">
+        <v>65000</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>1301</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-139000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>3437</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1306000</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>8150</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-2043000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>2377</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="9">
+        <v>50000</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>8464</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-132000</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>1312</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1294000</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>2885</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-1991505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>8039</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="9">
+        <v>50000</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>3034</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-116000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>6285</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1222458</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>2882</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-1950372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>4977</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="9">
+        <v>45000</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>4532</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>1907</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1179000</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>2301</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-1826500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>1723</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C25" s="9">
+        <v>40000</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>6505</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-100000</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>2609</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1170000</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>3673</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1646000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>1707</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C26" s="9">
+        <v>35000</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>2472</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-90000</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>2610</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1115727</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>2002</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-1625763</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>4551</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C27" s="9">
+        <v>30000</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>3090</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-90000</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>6456</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1025917</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>2105</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-1575435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>6414</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C28" s="9">
+        <v>28000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>2891</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-80000</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>3645</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" s="9">
+        <v>996000</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>2353</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-1549126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>2448</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="9">
+        <v>22000</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>2231</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-69000</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>1718</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K29" s="9">
+        <v>986000</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>2356</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-1542393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C30" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>2838</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-67000</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>2834</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="9">
+        <v>967679</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>2332</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-1482615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>3450</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="17">
+        <v>17000</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11">
+        <v>2474</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-66000</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>2376</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="K31" s="17">
+        <v>913000</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="11">
+        <v>1722</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-1480018</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B31 J2:J31">
+    <cfRule type="duplicateValues" dxfId="43" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31 N2:N31">
+    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:O31"/>
     </sheetView>
@@ -23311,7 +25972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -24613,7 +27274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -25915,7 +28576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -27216,7 +29877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -28517,7 +31178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -29816,1305 +32477,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.77734375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="4" customWidth="1"/>
-    <col min="10" max="11" width="16.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="16.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>2456</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="9">
-        <v>895000</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>2455</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-1387750</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>2353</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="9">
-        <v>12521629</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>6116</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-14219000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>3532</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="9">
-        <v>696000</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>6525</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-678000</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>2409</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="9">
-        <v>9041790</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>2317</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-12970107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>2845</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C4" s="9">
-        <v>549000</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>2313</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-586000</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>2303</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K4" s="9">
-        <v>6603023</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>3231</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-11870254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>2812</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="9">
-        <v>525000</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>2317</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-562000</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>2345</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="9">
-        <v>4885000</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>3481</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-6380198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>2345</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="9">
-        <v>500000</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>1457</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-400000</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>2330</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="9">
-        <v>4883156</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>2886</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-5331475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>4968</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="9">
-        <v>449000</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>2239</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-391000</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>2883</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="9">
-        <v>4172753</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>8150</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-5225496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>3702</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="9">
-        <v>417000</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>6239</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-375000</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>1710</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K8" s="9">
-        <v>3537000</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>4938</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-4846497</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>2886</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="9">
-        <v>363000</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>1589</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-330000</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>1216</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="K9" s="9">
-        <v>2621262</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>2884</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-4572239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>1301</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="9">
-        <v>362000</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>4551</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-311000</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>2344</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="9">
-        <v>2496766</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>2408</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-4044608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>3026</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C11" s="9">
-        <v>350000</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>2377</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-280000</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>3698</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="K11" s="9">
-        <v>2369000</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>3037</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-4002700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>2448</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="9">
-        <v>345000</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>2408</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-264000</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>2376</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="K12" s="9">
-        <v>2087468</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>2892</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O12" s="1